--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC324"/>
+  <dimension ref="A1:AC323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5397736</v>
+        <v>5397737</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2521,55 +2521,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
         <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
         <v>1.65</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
         <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>0.6499999999999999</v>
@@ -2581,16 +2581,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5397737</v>
+        <v>5397736</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,55 +2610,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N24">
         <v>1.65</v>
       </c>
       <c r="O24">
+        <v>3.8</v>
+      </c>
+      <c r="P24">
         <v>4</v>
-      </c>
-      <c r="P24">
-        <v>4.2</v>
       </c>
       <c r="Q24">
         <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>0.6499999999999999</v>
@@ -2670,16 +2670,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -6870,7 +6870,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5397801</v>
+        <v>5397800</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6882,10 +6882,10 @@
         <v>45018.375</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6897,40 +6897,40 @@
         <v>54</v>
       </c>
       <c r="K72">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="M72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N72">
-        <v>1.166</v>
+        <v>1.533</v>
       </c>
       <c r="O72">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P72">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="Q72">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S72">
+        <v>1.825</v>
+      </c>
+      <c r="T72">
+        <v>2.75</v>
+      </c>
+      <c r="U72">
         <v>1.95</v>
       </c>
-      <c r="T72">
-        <v>3.25</v>
-      </c>
-      <c r="U72">
-        <v>1.85</v>
-      </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6939,19 +6939,19 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>10</v>
+        <v>4.25</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB72">
+        <v>0.475</v>
+      </c>
+      <c r="AC72">
         <v>-0.5</v>
-      </c>
-      <c r="AC72">
-        <v>0.475</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6959,7 +6959,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5397800</v>
+        <v>5397799</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6971,56 +6971,56 @@
         <v>45018.375</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>54</v>
       </c>
       <c r="K73">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="N73">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
+        <v>1.85</v>
+      </c>
+      <c r="V73">
         <v>1.95</v>
       </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
@@ -7028,19 +7028,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>2.3</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5397799</v>
+        <v>5397801</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,49 +7060,49 @@
         <v>45018.375</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>54</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="N74">
+        <v>1.166</v>
+      </c>
+      <c r="O74">
+        <v>6.5</v>
+      </c>
+      <c r="P74">
+        <v>11</v>
+      </c>
+      <c r="Q74">
+        <v>-2</v>
+      </c>
+      <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
         <v>1.95</v>
       </c>
-      <c r="O74">
-        <v>3.3</v>
-      </c>
-      <c r="P74">
-        <v>3.3</v>
-      </c>
-      <c r="Q74">
-        <v>-0.5</v>
-      </c>
-      <c r="R74">
-        <v>2</v>
-      </c>
-      <c r="S74">
-        <v>1.8</v>
-      </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
         <v>1.85</v>
@@ -7117,19 +7117,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5465544</v>
+        <v>5466670</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,61 +10620,61 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M114">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N114">
-        <v>1.85</v>
+        <v>1.181</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P114">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.875</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
@@ -10683,13 +10683,13 @@
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5466670</v>
+        <v>5465544</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,61 +10709,61 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="O115">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
+        <v>1.875</v>
+      </c>
+      <c r="V115">
         <v>1.975</v>
       </c>
-      <c r="V115">
-        <v>1.875</v>
-      </c>
       <c r="W115">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y115">
         <v>-1</v>
@@ -10772,13 +10772,13 @@
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -20398,7 +20398,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6919330</v>
+        <v>6920399</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20410,55 +20410,55 @@
         <v>45193.375</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
       </c>
       <c r="K224">
+        <v>3.5</v>
+      </c>
+      <c r="L224">
+        <v>3.5</v>
+      </c>
+      <c r="M224">
         <v>1.85</v>
       </c>
-      <c r="L224">
-        <v>3.8</v>
-      </c>
-      <c r="M224">
+      <c r="N224">
+        <v>2.1</v>
+      </c>
+      <c r="O224">
         <v>3.25</v>
       </c>
-      <c r="N224">
-        <v>1.75</v>
-      </c>
-      <c r="O224">
-        <v>4.5</v>
-      </c>
       <c r="P224">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T224">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
         <v>-1</v>
@@ -20467,19 +20467,19 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB224">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20487,7 +20487,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6920399</v>
+        <v>6919330</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20499,55 +20499,55 @@
         <v>45193.375</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J225" t="s">
         <v>54</v>
       </c>
       <c r="K225">
+        <v>1.85</v>
+      </c>
+      <c r="L225">
+        <v>3.8</v>
+      </c>
+      <c r="M225">
+        <v>3.25</v>
+      </c>
+      <c r="N225">
+        <v>1.75</v>
+      </c>
+      <c r="O225">
+        <v>4.5</v>
+      </c>
+      <c r="P225">
+        <v>3.2</v>
+      </c>
+      <c r="Q225">
+        <v>-0.5</v>
+      </c>
+      <c r="R225">
+        <v>1.8</v>
+      </c>
+      <c r="S225">
+        <v>2</v>
+      </c>
+      <c r="T225">
         <v>3.5</v>
       </c>
-      <c r="L225">
-        <v>3.5</v>
-      </c>
-      <c r="M225">
-        <v>1.85</v>
-      </c>
-      <c r="N225">
-        <v>2.1</v>
-      </c>
-      <c r="O225">
-        <v>3.25</v>
-      </c>
-      <c r="P225">
-        <v>3</v>
-      </c>
-      <c r="Q225">
-        <v>-0.25</v>
-      </c>
-      <c r="R225">
-        <v>1.9</v>
-      </c>
-      <c r="S225">
-        <v>1.9</v>
-      </c>
-      <c r="T225">
-        <v>3</v>
-      </c>
       <c r="U225">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
@@ -20556,19 +20556,19 @@
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC225">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20754,7 +20754,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7264186</v>
+        <v>6920402</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20766,76 +20766,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K228">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L228">
         <v>3.75</v>
       </c>
       <c r="M228">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N228">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O228">
         <v>3.6</v>
       </c>
       <c r="P228">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X228">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA228">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20843,7 +20843,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6920402</v>
+        <v>7264186</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20855,76 +20855,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K229">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L229">
         <v>3.75</v>
       </c>
       <c r="M229">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N229">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O229">
         <v>3.6</v>
       </c>
       <c r="P229">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T229">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -22445,7 +22445,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22457,58 +22457,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>55</v>
       </c>
       <c r="K247">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L247">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M247">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N247">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P247">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R247">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>3.25</v>
       </c>
       <c r="U247">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W247">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22517,16 +22517,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC247">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22534,7 +22534,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22546,58 +22546,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
         <v>55</v>
       </c>
       <c r="K248">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N248">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O248">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P248">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q248">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
         <v>3.25</v>
       </c>
       <c r="U248">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V248">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W248">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22606,16 +22606,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -28319,7 +28319,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6920496</v>
+        <v>6920497</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28331,34 +28331,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G313" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
         <v>1</v>
-      </c>
-      <c r="I313">
-        <v>4</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L313">
         <v>3.75</v>
       </c>
       <c r="M313">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N313">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O313">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P313">
         <v>2.5</v>
@@ -28367,19 +28367,19 @@
         <v>0</v>
       </c>
       <c r="R313">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S313">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T313">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U313">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V313">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28394,13 +28394,13 @@
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB313">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28408,7 +28408,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6920497</v>
+        <v>6920496</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28420,34 +28420,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J314" t="s">
         <v>54</v>
       </c>
       <c r="K314">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L314">
         <v>3.75</v>
       </c>
       <c r="M314">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N314">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O314">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P314">
         <v>2.5</v>
@@ -28456,19 +28456,19 @@
         <v>0</v>
       </c>
       <c r="R314">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S314">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U314">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V314">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W314">
         <v>-1</v>
@@ -28483,13 +28483,13 @@
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC314">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7830715</v>
+        <v>7830716</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,49 +28684,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45339.375</v>
+        <v>45339.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G317" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K317">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L317">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M317">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N317">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O317">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P317">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R317">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S317">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T317">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U317">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7830716</v>
+        <v>6920501</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28758,49 +28758,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45339.41666666666</v>
+        <v>45339.5</v>
       </c>
       <c r="F318" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G318" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K318">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="L318">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M318">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N318">
-        <v>1.4</v>
+        <v>2.625</v>
       </c>
       <c r="O318">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q318">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R318">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S318">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T318">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U318">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V318">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28823,7 +28823,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6920501</v>
+        <v>6920499</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28832,49 +28832,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45339.5</v>
+        <v>45340.375</v>
       </c>
       <c r="F319" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G319" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K319">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L319">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M319">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N319">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O319">
         <v>3.6</v>
       </c>
       <c r="P319">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q319">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S319">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T319">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U319">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28897,7 +28897,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6920499</v>
+        <v>7830717</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28906,22 +28906,22 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45340.375</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G320" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K320">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="L320">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M320">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N320">
         <v>1.75</v>
@@ -28942,13 +28942,13 @@
         <v>2.025</v>
       </c>
       <c r="T320">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7830717</v>
+        <v>6920506</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28983,46 +28983,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G321" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K321">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L321">
         <v>4</v>
       </c>
       <c r="M321">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N321">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P321">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T321">
         <v>3</v>
       </c>
       <c r="U321">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29146,31 +29146,31 @@
         <v>1.85</v>
       </c>
       <c r="N323">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O323">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P323">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q323">
         <v>0.5</v>
       </c>
       <c r="R323">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S323">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T323">
         <v>3</v>
       </c>
       <c r="U323">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V323">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29185,80 +29185,6 @@
         <v>0</v>
       </c>
       <c r="AA323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="B324">
-        <v>6920506</v>
-      </c>
-      <c r="C324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D324" t="s">
-        <v>28</v>
-      </c>
-      <c r="E324" s="2">
-        <v>45340.41666666666</v>
-      </c>
-      <c r="F324" t="s">
-        <v>37</v>
-      </c>
-      <c r="G324" t="s">
-        <v>31</v>
-      </c>
-      <c r="K324">
-        <v>2.6</v>
-      </c>
-      <c r="L324">
-        <v>4</v>
-      </c>
-      <c r="M324">
-        <v>2.1</v>
-      </c>
-      <c r="N324">
-        <v>3.8</v>
-      </c>
-      <c r="O324">
-        <v>4.2</v>
-      </c>
-      <c r="P324">
-        <v>1.615</v>
-      </c>
-      <c r="Q324">
-        <v>0.75</v>
-      </c>
-      <c r="R324">
-        <v>2</v>
-      </c>
-      <c r="S324">
-        <v>1.85</v>
-      </c>
-      <c r="T324">
-        <v>3</v>
-      </c>
-      <c r="U324">
-        <v>1.85</v>
-      </c>
-      <c r="V324">
-        <v>2</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
-      <c r="Z324">
-        <v>0</v>
-      </c>
-      <c r="AA324">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC323"/>
+  <dimension ref="A1:AC321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5397737</v>
+        <v>5397736</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2521,55 +2521,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
         <v>1.65</v>
       </c>
       <c r="O23">
+        <v>3.8</v>
+      </c>
+      <c r="P23">
         <v>4</v>
-      </c>
-      <c r="P23">
-        <v>4.2</v>
       </c>
       <c r="Q23">
         <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>0.6499999999999999</v>
@@ -2581,16 +2581,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5397736</v>
+        <v>5397737</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,55 +2610,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
         <v>1.65</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
         <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
         <v>0.6499999999999999</v>
@@ -2670,16 +2670,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5480122</v>
+        <v>5498094</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,76 +12400,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K134">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="N134">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
         <v>2</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z134">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5498094</v>
+        <v>5480122</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,76 +12489,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>53</v>
+      </c>
+      <c r="K135">
+        <v>4.75</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>1.533</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135">
+        <v>3.75</v>
+      </c>
+      <c r="P135">
+        <v>1.6</v>
+      </c>
+      <c r="Q135">
         <v>1</v>
       </c>
-      <c r="J135" t="s">
-        <v>54</v>
-      </c>
-      <c r="K135">
-        <v>2.4</v>
-      </c>
-      <c r="L135">
-        <v>3.6</v>
-      </c>
-      <c r="M135">
-        <v>2.4</v>
-      </c>
-      <c r="N135">
-        <v>3.5</v>
-      </c>
-      <c r="O135">
-        <v>3.8</v>
-      </c>
-      <c r="P135">
-        <v>1.75</v>
-      </c>
-      <c r="Q135">
-        <v>0.75</v>
-      </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U135">
         <v>2</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y135">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA135">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -20398,7 +20398,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6920399</v>
+        <v>6919330</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20410,55 +20410,55 @@
         <v>45193.375</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J224" t="s">
         <v>54</v>
       </c>
       <c r="K224">
+        <v>1.85</v>
+      </c>
+      <c r="L224">
+        <v>3.8</v>
+      </c>
+      <c r="M224">
+        <v>3.25</v>
+      </c>
+      <c r="N224">
+        <v>1.75</v>
+      </c>
+      <c r="O224">
+        <v>4.5</v>
+      </c>
+      <c r="P224">
+        <v>3.2</v>
+      </c>
+      <c r="Q224">
+        <v>-0.5</v>
+      </c>
+      <c r="R224">
+        <v>1.8</v>
+      </c>
+      <c r="S224">
+        <v>2</v>
+      </c>
+      <c r="T224">
         <v>3.5</v>
       </c>
-      <c r="L224">
-        <v>3.5</v>
-      </c>
-      <c r="M224">
-        <v>1.85</v>
-      </c>
-      <c r="N224">
-        <v>2.1</v>
-      </c>
-      <c r="O224">
-        <v>3.25</v>
-      </c>
-      <c r="P224">
-        <v>3</v>
-      </c>
-      <c r="Q224">
-        <v>-0.25</v>
-      </c>
-      <c r="R224">
-        <v>1.9</v>
-      </c>
-      <c r="S224">
-        <v>1.9</v>
-      </c>
-      <c r="T224">
-        <v>3</v>
-      </c>
       <c r="U224">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
@@ -20467,19 +20467,19 @@
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB224">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC224">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20487,7 +20487,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6919330</v>
+        <v>6920399</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20499,55 +20499,55 @@
         <v>45193.375</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>54</v>
       </c>
       <c r="K225">
+        <v>3.5</v>
+      </c>
+      <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
         <v>1.85</v>
       </c>
-      <c r="L225">
-        <v>3.8</v>
-      </c>
-      <c r="M225">
+      <c r="N225">
+        <v>2.1</v>
+      </c>
+      <c r="O225">
         <v>3.25</v>
       </c>
-      <c r="N225">
-        <v>1.75</v>
-      </c>
-      <c r="O225">
-        <v>4.5</v>
-      </c>
       <c r="P225">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T225">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W225">
         <v>-1</v>
@@ -20556,19 +20556,19 @@
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB225">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -22445,7 +22445,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22457,58 +22457,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>55</v>
       </c>
       <c r="K247">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L247">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M247">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N247">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O247">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P247">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q247">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
         <v>3.25</v>
       </c>
       <c r="U247">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W247">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22517,16 +22517,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22534,7 +22534,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22546,58 +22546,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
         <v>55</v>
       </c>
       <c r="K248">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M248">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N248">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O248">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P248">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
         <v>3.25</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W248">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22606,16 +22606,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC248">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -28230,7 +28230,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6920498</v>
+        <v>6920496</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28242,55 +28242,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G312" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H312">
         <v>1</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J312" t="s">
         <v>54</v>
       </c>
       <c r="K312">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L312">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M312">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N312">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O312">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P312">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q312">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R312">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S312">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T312">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U312">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V312">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28299,16 +28299,16 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB312">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28408,7 +28408,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6920496</v>
+        <v>6920498</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28420,55 +28420,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G314" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H314">
         <v>1</v>
       </c>
       <c r="I314">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J314" t="s">
         <v>54</v>
       </c>
       <c r="K314">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L314">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M314">
+        <v>2.6</v>
+      </c>
+      <c r="N314">
         <v>2.25</v>
       </c>
-      <c r="N314">
-        <v>2.375</v>
-      </c>
       <c r="O314">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P314">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q314">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S314">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T314">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V314">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W314">
         <v>-1</v>
@@ -28477,16 +28477,16 @@
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB314">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC314">
         <v>-1</v>
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7830716</v>
+        <v>6920499</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,49 +28684,49 @@
         <v>28</v>
       </c>
       <c r="E317" s="2">
-        <v>45339.41666666666</v>
+        <v>45340.375</v>
       </c>
       <c r="F317" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G317" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K317">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L317">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M317">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N317">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O317">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P317">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q317">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S317">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T317">
         <v>3.25</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6920501</v>
+        <v>7830717</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28758,40 +28758,40 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45339.5</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F318" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G318" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K318">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L318">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M318">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N318">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O318">
         <v>3.6</v>
       </c>
       <c r="P318">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q318">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T318">
         <v>2.75</v>
@@ -28823,7 +28823,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6920499</v>
+        <v>6920506</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28832,49 +28832,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45340.375</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G319" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K319">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L319">
+        <v>4</v>
+      </c>
+      <c r="M319">
+        <v>2.1</v>
+      </c>
+      <c r="N319">
+        <v>3.8</v>
+      </c>
+      <c r="O319">
         <v>4.2</v>
       </c>
-      <c r="M319">
-        <v>4.75</v>
-      </c>
-      <c r="N319">
-        <v>1.75</v>
-      </c>
-      <c r="O319">
-        <v>3.6</v>
-      </c>
       <c r="P319">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q319">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R319">
+        <v>2</v>
+      </c>
+      <c r="S319">
         <v>1.85</v>
       </c>
-      <c r="S319">
-        <v>2</v>
-      </c>
       <c r="T319">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28897,7 +28897,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7830717</v>
+        <v>6920503</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28909,28 +28909,28 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G320" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K320">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M320">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N320">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O320">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P320">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q320">
         <v>-0.5</v>
@@ -28942,13 +28942,13 @@
         <v>2.025</v>
       </c>
       <c r="T320">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U320">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V320">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6920506</v>
+        <v>6920502</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28983,46 +28983,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G321" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K321">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L321">
         <v>4</v>
       </c>
       <c r="M321">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="N321">
+        <v>3.25</v>
+      </c>
+      <c r="O321">
         <v>3.8</v>
       </c>
-      <c r="O321">
-        <v>4.2</v>
-      </c>
       <c r="P321">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="Q321">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R321">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S321">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T321">
         <v>3</v>
       </c>
       <c r="U321">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V321">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29037,154 +29037,6 @@
         <v>0</v>
       </c>
       <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>6920503</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" s="2">
-        <v>45340.41666666666</v>
-      </c>
-      <c r="F322" t="s">
-        <v>33</v>
-      </c>
-      <c r="G322" t="s">
-        <v>29</v>
-      </c>
-      <c r="K322">
-        <v>1.666</v>
-      </c>
-      <c r="L322">
-        <v>4.2</v>
-      </c>
-      <c r="M322">
-        <v>3.6</v>
-      </c>
-      <c r="N322">
-        <v>1.833</v>
-      </c>
-      <c r="O322">
-        <v>4</v>
-      </c>
-      <c r="P322">
-        <v>3</v>
-      </c>
-      <c r="Q322">
-        <v>-0.5</v>
-      </c>
-      <c r="R322">
-        <v>1.925</v>
-      </c>
-      <c r="S322">
-        <v>1.925</v>
-      </c>
-      <c r="T322">
-        <v>3.75</v>
-      </c>
-      <c r="U322">
-        <v>2</v>
-      </c>
-      <c r="V322">
-        <v>1.85</v>
-      </c>
-      <c r="W322">
-        <v>0</v>
-      </c>
-      <c r="X322">
-        <v>0</v>
-      </c>
-      <c r="Y322">
-        <v>0</v>
-      </c>
-      <c r="Z322">
-        <v>0</v>
-      </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>6920502</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45340.41666666666</v>
-      </c>
-      <c r="F323" t="s">
-        <v>46</v>
-      </c>
-      <c r="G323" t="s">
-        <v>45</v>
-      </c>
-      <c r="K323">
-        <v>3.1</v>
-      </c>
-      <c r="L323">
-        <v>4</v>
-      </c>
-      <c r="M323">
-        <v>1.85</v>
-      </c>
-      <c r="N323">
-        <v>3.25</v>
-      </c>
-      <c r="O323">
-        <v>3.8</v>
-      </c>
-      <c r="P323">
-        <v>1.85</v>
-      </c>
-      <c r="Q323">
-        <v>0.5</v>
-      </c>
-      <c r="R323">
-        <v>1.925</v>
-      </c>
-      <c r="S323">
-        <v>1.925</v>
-      </c>
-      <c r="T323">
-        <v>3</v>
-      </c>
-      <c r="U323">
-        <v>1.8</v>
-      </c>
-      <c r="V323">
-        <v>2.05</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5397725</v>
+        <v>5397719</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,13 +1186,13 @@
         <v>44962.41666666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1201,34 +1201,34 @@
         <v>55</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>1.8</v>
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="W8">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1246,16 +1246,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5397722</v>
+        <v>5397725</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,46 +1275,46 @@
         <v>44962.41666666666</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="N9">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.75</v>
@@ -1323,28 +1323,28 @@
         <v>1.8</v>
       </c>
       <c r="V9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5397719</v>
+        <v>5397722</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,70 +1364,70 @@
         <v>44962.41666666666</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
         <v>1.8</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>0.8</v>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5397737</v>
+        <v>5397736</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2521,55 +2521,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
         <v>1.65</v>
       </c>
       <c r="O23">
+        <v>3.8</v>
+      </c>
+      <c r="P23">
         <v>4</v>
-      </c>
-      <c r="P23">
-        <v>4.2</v>
       </c>
       <c r="Q23">
         <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>0.6499999999999999</v>
@@ -2581,16 +2581,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5397736</v>
+        <v>5397737</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,55 +2610,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
         <v>1.65</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q24">
         <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
         <v>0.6499999999999999</v>
@@ -2670,16 +2670,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3666,7 +3666,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5397753</v>
+        <v>5397752</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3678,76 +3678,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>2.7</v>
+      </c>
+      <c r="O36">
         <v>3.6</v>
       </c>
-      <c r="N36">
+      <c r="P36">
+        <v>2.2</v>
+      </c>
+      <c r="Q36">
+        <v>0.25</v>
+      </c>
+      <c r="R36">
         <v>1.8</v>
       </c>
-      <c r="O36">
-        <v>3.8</v>
-      </c>
-      <c r="P36">
-        <v>3.5</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5397752</v>
+        <v>5397753</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3767,76 +3767,76 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L37">
+        <v>3.8</v>
+      </c>
+      <c r="M37">
         <v>3.6</v>
       </c>
-      <c r="M37">
-        <v>3</v>
-      </c>
       <c r="N37">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6335406</v>
+        <v>5397755</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,76 +3945,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
         <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5397755</v>
+        <v>6335406</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,76 +4034,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
         <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X40">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5397778</v>
+        <v>5397784</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5102,76 +5102,76 @@
         <v>45003.375</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K52">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L52">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
+        <v>2.025</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
         <v>1.925</v>
       </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>1.9</v>
-      </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5397784</v>
+        <v>5397778</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45003.375</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K53">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M53">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -8027,7 +8027,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5397811</v>
+        <v>5397812</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8039,19 +8039,19 @@
         <v>45032.375</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K85">
         <v>1.571</v>
@@ -8063,52 +8063,52 @@
         <v>4.333</v>
       </c>
       <c r="N85">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q85">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
         <v>3</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8116,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5397812</v>
+        <v>5397811</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,19 +8128,19 @@
         <v>45032.375</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K86">
         <v>1.571</v>
@@ -8152,52 +8152,52 @@
         <v>4.333</v>
       </c>
       <c r="N86">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
         <v>3</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y86">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8205,7 +8205,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5397813</v>
+        <v>5397814</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8217,10 +8217,10 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8232,43 +8232,43 @@
         <v>55</v>
       </c>
       <c r="K87">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>1.8</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>1.95</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="S87">
-        <v>1.95</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.825</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8277,16 +8277,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8294,7 +8294,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5397814</v>
+        <v>5397813</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8306,10 +8306,10 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8321,43 +8321,43 @@
         <v>55</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.1</v>
+      </c>
+      <c r="N88">
+        <v>3.5</v>
+      </c>
+      <c r="O88">
         <v>3.6</v>
       </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>4.2</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
       <c r="P88">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8366,7 +8366,7 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8375,7 +8375,7 @@
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9362,7 +9362,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471246</v>
+        <v>6446311</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9374,76 +9374,76 @@
         <v>45042.5625</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>0.75</v>
       </c>
-      <c r="R100">
-        <v>1.85</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6446311</v>
+        <v>6471246</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9463,76 +9463,76 @@
         <v>45042.5625</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K101">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L101">
         <v>3.75</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N101">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.85</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3</v>
       </c>
-      <c r="U101">
-        <v>1.875</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
-      <c r="W101">
-        <v>0.75</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5419740</v>
+        <v>5423552</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9552,10 +9552,10 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9567,25 +9567,25 @@
         <v>55</v>
       </c>
       <c r="K102">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
         <v>1.875</v>
@@ -9594,16 +9594,16 @@
         <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9621,7 +9621,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9629,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5423552</v>
+        <v>5419740</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9641,10 +9641,10 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9656,25 +9656,25 @@
         <v>55</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R103">
         <v>1.875</v>
@@ -9683,16 +9683,16 @@
         <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9710,7 +9710,7 @@
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9718,7 +9718,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5419741</v>
+        <v>5397823</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9730,76 +9730,76 @@
         <v>45045.375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K104">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
+        <v>5</v>
+      </c>
+      <c r="N104">
         <v>1.533</v>
       </c>
-      <c r="N104">
-        <v>6.5</v>
-      </c>
       <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
         <v>4.333</v>
       </c>
-      <c r="P104">
-        <v>1.363</v>
-      </c>
       <c r="Q104">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
       </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9807,7 +9807,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5397823</v>
+        <v>5419741</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9819,76 +9819,76 @@
         <v>45045.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L105">
         <v>4</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N105">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
         <v>1.85</v>
       </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB105">
         <v>0</v>
       </c>
-      <c r="AA105">
+      <c r="AC105">
         <v>-0</v>
-      </c>
-      <c r="AB105">
-        <v>-0.5</v>
-      </c>
-      <c r="AC105">
-        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5422827</v>
+        <v>5470292</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10175,46 +10175,46 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>55</v>
       </c>
       <c r="K109">
+        <v>2.7</v>
+      </c>
+      <c r="L109">
+        <v>3.4</v>
+      </c>
+      <c r="M109">
+        <v>2.25</v>
+      </c>
+      <c r="N109">
         <v>3.2</v>
       </c>
-      <c r="L109">
-        <v>3.5</v>
-      </c>
-      <c r="M109">
-        <v>1.95</v>
-      </c>
-      <c r="N109">
-        <v>3.8</v>
-      </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
         <v>2.75</v>
@@ -10226,7 +10226,7 @@
         <v>2.025</v>
       </c>
       <c r="W109">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10235,16 +10235,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC109">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5470292</v>
+        <v>5422827</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10264,46 +10264,46 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>55</v>
       </c>
       <c r="K110">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
         <v>2.75</v>
@@ -10315,7 +10315,7 @@
         <v>2.025</v>
       </c>
       <c r="W110">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10324,16 +10324,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10519,7 +10519,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5470293</v>
+        <v>5466670</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10531,76 +10531,76 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M113">
-        <v>1.833</v>
+        <v>8</v>
       </c>
       <c r="N113">
-        <v>4.5</v>
+        <v>1.181</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P113">
-        <v>1.615</v>
+        <v>13</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5465544</v>
+        <v>5470293</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,40 +10620,40 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L114">
+        <v>3.5</v>
+      </c>
+      <c r="M114">
+        <v>1.833</v>
+      </c>
+      <c r="N114">
+        <v>4.5</v>
+      </c>
+      <c r="O114">
         <v>3.6</v>
       </c>
-      <c r="M114">
-        <v>2.875</v>
-      </c>
-      <c r="N114">
-        <v>1.85</v>
-      </c>
-      <c r="O114">
-        <v>3.5</v>
-      </c>
       <c r="P114">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
         <v>1.95</v>
@@ -10665,31 +10665,31 @@
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5466670</v>
+        <v>5465544</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,61 +10709,61 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L115">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
-        <v>1.181</v>
+        <v>1.85</v>
       </c>
       <c r="O115">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
+        <v>1.875</v>
+      </c>
+      <c r="V115">
         <v>1.975</v>
       </c>
-      <c r="V115">
-        <v>1.875</v>
-      </c>
       <c r="W115">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y115">
         <v>-1</v>
@@ -10772,13 +10772,13 @@
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5466671</v>
+        <v>5470294</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10887,76 +10887,76 @@
         <v>45053.375</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P117">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
+        <v>-1</v>
+      </c>
+      <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>1.775</v>
+      </c>
+      <c r="V117">
+        <v>2.025</v>
+      </c>
+      <c r="W117">
+        <v>0.5</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>-0</v>
+      </c>
+      <c r="AB117">
+        <v>0.3875</v>
+      </c>
+      <c r="AC117">
         <v>-0.5</v>
-      </c>
-      <c r="R117">
-        <v>2</v>
-      </c>
-      <c r="S117">
-        <v>1.8</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>1.95</v>
-      </c>
-      <c r="V117">
-        <v>1.85</v>
-      </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>2.3</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
-      <c r="AA117">
-        <v>0.8</v>
-      </c>
-      <c r="AB117">
-        <v>0</v>
-      </c>
-      <c r="AC117">
-        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10964,7 +10964,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5470294</v>
+        <v>5466819</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10976,76 +10976,76 @@
         <v>45053.375</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N118">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11053,7 +11053,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5466819</v>
+        <v>5466671</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11065,76 +11065,76 @@
         <v>45053.375</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q119">
         <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>3</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5504844</v>
+        <v>5480121</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,73 +11777,73 @@
         <v>45060.375</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N127">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P127">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R127">
         <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5480121</v>
+        <v>5504844</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,73 +11866,73 @@
         <v>45060.375</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K128">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N128">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
         <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y128">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12299,7 +12299,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5498094</v>
+        <v>5522332</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12311,16 +12311,16 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>54</v>
@@ -12335,31 +12335,31 @@
         <v>2.4</v>
       </c>
       <c r="N133">
+        <v>2.45</v>
+      </c>
+      <c r="O133">
         <v>3.5</v>
       </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
       <c r="P133">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12368,19 +12368,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5522332</v>
+        <v>5480122</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,76 +12400,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>53</v>
+      </c>
+      <c r="K134">
+        <v>4.75</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>1.533</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>1.6</v>
+      </c>
+      <c r="Q134">
         <v>1</v>
       </c>
-      <c r="I134">
+      <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
         <v>3</v>
       </c>
-      <c r="J134" t="s">
-        <v>54</v>
-      </c>
-      <c r="K134">
-        <v>2.4</v>
-      </c>
-      <c r="L134">
-        <v>3.6</v>
-      </c>
-      <c r="M134">
-        <v>2.4</v>
-      </c>
-      <c r="N134">
-        <v>2.45</v>
-      </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>2.4</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.875</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>1.85</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
         <v>2.75</v>
       </c>
-      <c r="U134">
-        <v>1.975</v>
-      </c>
-      <c r="V134">
-        <v>1.875</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
       <c r="Y134">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5480122</v>
+        <v>5498094</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,76 +12489,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K135">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="N135">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q135">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
         <v>2</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5544790</v>
+        <v>5544788</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,46 +13112,46 @@
         <v>45073.375</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>54</v>
+      </c>
+      <c r="K142">
         <v>5</v>
       </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" t="s">
-        <v>55</v>
-      </c>
-      <c r="K142">
-        <v>2.8</v>
-      </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M142">
+        <v>1.5</v>
+      </c>
+      <c r="N142">
+        <v>3.8</v>
+      </c>
+      <c r="O142">
+        <v>3.75</v>
+      </c>
+      <c r="P142">
+        <v>1.7</v>
+      </c>
+      <c r="Q142">
+        <v>0.5</v>
+      </c>
+      <c r="R142">
         <v>2.1</v>
       </c>
-      <c r="N142">
-        <v>2.875</v>
-      </c>
-      <c r="O142">
-        <v>3.6</v>
-      </c>
-      <c r="P142">
-        <v>2.05</v>
-      </c>
-      <c r="Q142">
-        <v>0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.95</v>
-      </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
         <v>3</v>
@@ -13163,25 +13163,25 @@
         <v>2</v>
       </c>
       <c r="W142">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5544789</v>
+        <v>5537959</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,13 +13201,13 @@
         <v>45073.375</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>5</v>
@@ -13216,25 +13216,25 @@
         <v>54</v>
       </c>
       <c r="K143">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
         <v>1.75</v>
@@ -13243,13 +13243,13 @@
         <v>2.125</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13258,7 +13258,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.6659999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13267,7 +13267,7 @@
         <v>1.125</v>
       </c>
       <c r="AB143">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5534346</v>
+        <v>5534349</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,58 +13290,58 @@
         <v>45073.375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>55</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N144">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
+        <v>1.925</v>
+      </c>
+      <c r="V144">
         <v>1.875</v>
       </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
       <c r="W144">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13350,16 +13350,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5534347</v>
+        <v>5534348</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13379,76 +13379,76 @@
         <v>45073.375</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K145">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L145">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N145">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q145">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13456,7 +13456,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5534348</v>
+        <v>5534347</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13468,76 +13468,76 @@
         <v>45073.375</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>54</v>
+      </c>
+      <c r="K146">
+        <v>1.363</v>
+      </c>
+      <c r="L146">
+        <v>4.75</v>
+      </c>
+      <c r="M146">
         <v>6</v>
       </c>
-      <c r="I146">
-        <v>2</v>
-      </c>
-      <c r="J146" t="s">
-        <v>55</v>
-      </c>
-      <c r="K146">
-        <v>1.5</v>
-      </c>
-      <c r="L146">
-        <v>4</v>
-      </c>
-      <c r="M146">
-        <v>5</v>
-      </c>
       <c r="N146">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O146">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P146">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5537959</v>
+        <v>5534346</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,19 +13557,19 @@
         <v>45073.375</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K147">
         <v>2.1</v>
@@ -13581,52 +13581,52 @@
         <v>2.8</v>
       </c>
       <c r="N147">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S147">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
         <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA147">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5534349</v>
+        <v>5544790</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13646,59 +13646,59 @@
         <v>45073.375</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>55</v>
       </c>
       <c r="K148">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O148">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
         <v>1.875</v>
       </c>
-      <c r="W148">
-        <v>0.8</v>
-      </c>
       <c r="X148">
         <v>-1</v>
       </c>
@@ -13706,13 +13706,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13723,7 +13723,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5544788</v>
+        <v>5544789</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13735,55 +13735,55 @@
         <v>45073.375</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J149" t="s">
         <v>54</v>
       </c>
       <c r="K149">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L149">
+        <v>3.75</v>
+      </c>
+      <c r="M149">
+        <v>1.571</v>
+      </c>
+      <c r="N149">
+        <v>4.333</v>
+      </c>
+      <c r="O149">
         <v>4</v>
       </c>
-      <c r="M149">
-        <v>1.5</v>
-      </c>
-      <c r="N149">
-        <v>3.8</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
       <c r="P149">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R149">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13792,19 +13792,19 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
+        <v>1.125</v>
+      </c>
+      <c r="AB149">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6920334</v>
+        <v>6920335</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,76 +14180,76 @@
         <v>45137.375</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O154">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
         <v>1.85</v>
-      </c>
-      <c r="S154">
-        <v>1.95</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6920335</v>
+        <v>6920334</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,76 +14269,76 @@
         <v>45137.375</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N155">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O155">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P155">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
+        <v>1.85</v>
+      </c>
+      <c r="S155">
         <v>1.95</v>
-      </c>
-      <c r="S155">
-        <v>1.85</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y155">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14346,7 +14346,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14358,40 +14358,40 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N156">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O156">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P156">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
         <v>1.95</v>
@@ -14400,31 +14400,31 @@
         <v>1.9</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14435,7 +14435,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14447,40 +14447,40 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G157" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I157">
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K157">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O157">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
         <v>1.95</v>
@@ -14489,31 +14489,31 @@
         <v>1.9</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X157">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
+        <v>0.475</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="AA157">
-        <v>0.45</v>
-      </c>
       <c r="AB157">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6919324</v>
+        <v>6920344</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,76 +14803,76 @@
         <v>45144.375</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161" t="s">
+        <v>54</v>
+      </c>
+      <c r="K161">
+        <v>2.25</v>
+      </c>
+      <c r="L161">
+        <v>4.1</v>
+      </c>
+      <c r="M161">
+        <v>2.35</v>
+      </c>
+      <c r="N161">
+        <v>3.6</v>
+      </c>
+      <c r="O161">
+        <v>4</v>
+      </c>
+      <c r="P161">
+        <v>1.727</v>
+      </c>
+      <c r="Q161">
+        <v>0.75</v>
+      </c>
+      <c r="R161">
+        <v>1.825</v>
+      </c>
+      <c r="S161">
+        <v>1.975</v>
+      </c>
+      <c r="T161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>55</v>
-      </c>
-      <c r="K161">
-        <v>2.2</v>
-      </c>
-      <c r="L161">
-        <v>3.6</v>
-      </c>
-      <c r="M161">
-        <v>2.625</v>
-      </c>
-      <c r="N161">
-        <v>1.285</v>
-      </c>
-      <c r="O161">
-        <v>6</v>
-      </c>
-      <c r="P161">
-        <v>6.5</v>
-      </c>
-      <c r="Q161">
-        <v>-1.75</v>
-      </c>
-      <c r="R161">
+      <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
         <v>1.975</v>
       </c>
-      <c r="S161">
-        <v>1.825</v>
-      </c>
-      <c r="T161">
-        <v>3.5</v>
-      </c>
-      <c r="U161">
-        <v>1.975</v>
-      </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
       <c r="W161">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14880,7 +14880,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6920343</v>
+        <v>6919324</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14892,13 +14892,13 @@
         <v>45144.375</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -14907,43 +14907,43 @@
         <v>55</v>
       </c>
       <c r="K162">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N162">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P162">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
         <v>1.825</v>
       </c>
-      <c r="V162">
-        <v>1.975</v>
-      </c>
       <c r="W162">
-        <v>0.444</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14952,7 +14952,7 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -14961,7 +14961,7 @@
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6920344</v>
+        <v>6920343</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,46 +14981,46 @@
         <v>45144.375</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>55</v>
+      </c>
+      <c r="K163">
+        <v>1.5</v>
+      </c>
+      <c r="L163">
         <v>4</v>
       </c>
-      <c r="J163" t="s">
-        <v>54</v>
-      </c>
-      <c r="K163">
-        <v>2.25</v>
-      </c>
-      <c r="L163">
-        <v>4.1</v>
-      </c>
       <c r="M163">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="N163">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P163">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q163">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
         <v>3</v>
@@ -15032,25 +15032,25 @@
         <v>1.975</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA163">
+        <v>-1</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB163">
-        <v>0.825</v>
-      </c>
-      <c r="AC163">
-        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H168">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K168">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N168">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P168">
+        <v>1.615</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>1.775</v>
+      </c>
+      <c r="S168">
+        <v>2.025</v>
+      </c>
+      <c r="T168">
         <v>2.75</v>
       </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>1.875</v>
-      </c>
-      <c r="S168">
-        <v>1.925</v>
-      </c>
-      <c r="T168">
+      <c r="U168">
+        <v>1.775</v>
+      </c>
+      <c r="V168">
+        <v>2.025</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
         <v>3</v>
       </c>
-      <c r="U168">
-        <v>1.875</v>
-      </c>
-      <c r="V168">
-        <v>1.925</v>
-      </c>
-      <c r="W168">
-        <v>1.05</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K169">
+        <v>2.25</v>
+      </c>
+      <c r="L169">
+        <v>3.75</v>
+      </c>
+      <c r="M169">
+        <v>2.5</v>
+      </c>
+      <c r="N169">
+        <v>2.05</v>
+      </c>
+      <c r="O169">
+        <v>4.2</v>
+      </c>
+      <c r="P169">
+        <v>2.75</v>
+      </c>
+      <c r="Q169">
+        <v>-0.25</v>
+      </c>
+      <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
+        <v>1.925</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="L169">
-        <v>3.6</v>
-      </c>
-      <c r="M169">
-        <v>2</v>
-      </c>
-      <c r="N169">
-        <v>5</v>
-      </c>
-      <c r="O169">
-        <v>4</v>
-      </c>
-      <c r="P169">
-        <v>1.615</v>
-      </c>
-      <c r="Q169">
-        <v>1</v>
-      </c>
-      <c r="R169">
-        <v>1.775</v>
-      </c>
-      <c r="S169">
-        <v>2.025</v>
-      </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
       <c r="U169">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X169">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6920360</v>
+        <v>6920359</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,55 +16405,55 @@
         <v>45158.375</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>54</v>
       </c>
       <c r="K179">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N179">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q179">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
         <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16462,19 +16462,19 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.8</v>
-      </c>
-      <c r="AB179">
-        <v>-0.5</v>
-      </c>
-      <c r="AC179">
-        <v>0.45</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6920359</v>
+        <v>6920360</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,55 +16494,55 @@
         <v>45158.375</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
         <v>54</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L180">
+        <v>3.75</v>
+      </c>
+      <c r="M180">
+        <v>1.571</v>
+      </c>
+      <c r="N180">
+        <v>5.25</v>
+      </c>
+      <c r="O180">
         <v>4</v>
       </c>
-      <c r="M180">
-        <v>2.6</v>
-      </c>
-      <c r="N180">
-        <v>1.7</v>
-      </c>
-      <c r="O180">
-        <v>4.2</v>
-      </c>
       <c r="P180">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
         <v>3.25</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16551,19 +16551,19 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16749,7 +16749,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16761,40 +16761,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
         <v>55</v>
       </c>
       <c r="K183">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L183">
         <v>3.75</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N183">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O183">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
         <v>1.925</v>
@@ -16803,16 +16803,16 @@
         <v>1.875</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16827,7 +16827,7 @@
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16838,7 +16838,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16850,40 +16850,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>55</v>
       </c>
       <c r="K184">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L184">
         <v>3.75</v>
       </c>
       <c r="M184">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N184">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P184">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
         <v>1.925</v>
@@ -16892,16 +16892,16 @@
         <v>1.875</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16916,7 +16916,7 @@
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6920377</v>
+        <v>6919327</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,13 +17829,13 @@
         <v>45172.375</v>
       </c>
       <c r="F195" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -17844,43 +17844,43 @@
         <v>55</v>
       </c>
       <c r="K195">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L195">
         <v>3.75</v>
       </c>
       <c r="M195">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N195">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O195">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q195">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
         <v>3.25</v>
       </c>
       <c r="U195">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17889,13 +17889,13 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17906,7 +17906,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6920376</v>
+        <v>6920377</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17918,73 +17918,73 @@
         <v>45172.375</v>
       </c>
       <c r="F196" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G196" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K196">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
+        <v>1.909</v>
+      </c>
+      <c r="N196">
         <v>4.5</v>
-      </c>
-      <c r="N196">
-        <v>1.4</v>
       </c>
       <c r="O196">
         <v>4.75</v>
       </c>
       <c r="P196">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T196">
+        <v>3.25</v>
+      </c>
+      <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
+        <v>1.925</v>
+      </c>
+      <c r="W196">
         <v>3.5</v>
       </c>
-      <c r="U196">
-        <v>2</v>
-      </c>
-      <c r="V196">
-        <v>1.85</v>
-      </c>
-      <c r="W196">
-        <v>-1</v>
-      </c>
       <c r="X196">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6919327</v>
+        <v>6920376</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,73 +18007,73 @@
         <v>45172.375</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197" t="s">
+        <v>53</v>
+      </c>
+      <c r="K197">
+        <v>1.571</v>
+      </c>
+      <c r="L197">
         <v>4</v>
       </c>
-      <c r="I197">
+      <c r="M197">
+        <v>4.5</v>
+      </c>
+      <c r="N197">
+        <v>1.4</v>
+      </c>
+      <c r="O197">
+        <v>4.75</v>
+      </c>
+      <c r="P197">
+        <v>5.25</v>
+      </c>
+      <c r="Q197">
+        <v>-1.25</v>
+      </c>
+      <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>3.5</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>1.85</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>3.75</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.95</v>
+      </c>
+      <c r="AB197">
         <v>1</v>
-      </c>
-      <c r="J197" t="s">
-        <v>55</v>
-      </c>
-      <c r="K197">
-        <v>2.2</v>
-      </c>
-      <c r="L197">
-        <v>3.75</v>
-      </c>
-      <c r="M197">
-        <v>2.55</v>
-      </c>
-      <c r="N197">
-        <v>2.7</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>2.05</v>
-      </c>
-      <c r="Q197">
-        <v>0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.925</v>
-      </c>
-      <c r="S197">
-        <v>1.925</v>
-      </c>
-      <c r="T197">
-        <v>3.25</v>
-      </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
-      <c r="V197">
-        <v>1.9</v>
-      </c>
-      <c r="W197">
-        <v>1.7</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
-      <c r="Z197">
-        <v>0.925</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>0.95</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18796,7 +18796,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6920384</v>
+        <v>6920386</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18808,43 +18808,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>55</v>
       </c>
       <c r="K206">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="L206">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N206">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q206">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
         <v>2</v>
@@ -18856,10 +18856,10 @@
         <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18868,16 +18868,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6920386</v>
+        <v>6920384</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,43 +18986,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>55</v>
       </c>
       <c r="K208">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="L208">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M208">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N208">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P208">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
         <v>2</v>
@@ -19034,10 +19034,10 @@
         <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC208">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -20398,7 +20398,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6920399</v>
+        <v>6920400</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20410,40 +20410,40 @@
         <v>45193.375</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K224">
+        <v>1.7</v>
+      </c>
+      <c r="L224">
+        <v>4.2</v>
+      </c>
+      <c r="M224">
         <v>3.5</v>
       </c>
-      <c r="L224">
-        <v>3.5</v>
-      </c>
-      <c r="M224">
-        <v>1.85</v>
-      </c>
       <c r="N224">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O224">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P224">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R224">
         <v>1.9</v>
@@ -20452,22 +20452,22 @@
         <v>1.9</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U224">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y224">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
         <v>-1</v>
@@ -20476,10 +20476,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB224">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC224">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20576,7 +20576,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20588,40 +20588,40 @@
         <v>45193.375</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K226">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L226">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N226">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O226">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P226">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
         <v>1.9</v>
@@ -20630,22 +20630,22 @@
         <v>1.9</v>
       </c>
       <c r="T226">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z226">
         <v>-1</v>
@@ -20654,10 +20654,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,76 +24237,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G267" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H267">
         <v>2</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K267">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N267">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O267">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S267">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T267">
         <v>3.25</v>
       </c>
       <c r="U267">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V267">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W267">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB267">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC267">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,76 +24326,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>2</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K268">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N268">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O268">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P268">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R268">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S268">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T268">
         <v>3.25</v>
       </c>
       <c r="U268">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V268">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X268">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA268">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24492,7 +24492,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24504,76 +24504,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G270" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K270">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L270">
+        <v>4.2</v>
+      </c>
+      <c r="M270">
         <v>4.75</v>
       </c>
-      <c r="M270">
-        <v>6</v>
-      </c>
       <c r="N270">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O270">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P270">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q270">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R270">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S270">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T270">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U270">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V270">
         <v>1.875</v>
       </c>
       <c r="W270">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24581,7 +24581,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6920447</v>
+        <v>6920445</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24593,76 +24593,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I271">
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K271">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L271">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M271">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N271">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O271">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P271">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q271">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R271">
+        <v>1.95</v>
+      </c>
+      <c r="S271">
+        <v>1.9</v>
+      </c>
+      <c r="T271">
+        <v>3.75</v>
+      </c>
+      <c r="U271">
         <v>1.975</v>
-      </c>
-      <c r="S271">
-        <v>1.825</v>
-      </c>
-      <c r="T271">
-        <v>3.5</v>
-      </c>
-      <c r="U271">
-        <v>1.925</v>
       </c>
       <c r="V271">
         <v>1.875</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X271">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA271">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24670,7 +24670,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24682,76 +24682,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G272" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>53</v>
+      </c>
+      <c r="K272">
+        <v>2.25</v>
+      </c>
+      <c r="L272">
+        <v>3.6</v>
+      </c>
+      <c r="M272">
+        <v>2.55</v>
+      </c>
+      <c r="N272">
+        <v>2.375</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>2.4</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
         <v>3</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>55</v>
-      </c>
-      <c r="K272">
-        <v>1.125</v>
-      </c>
-      <c r="L272">
-        <v>7.5</v>
-      </c>
-      <c r="M272">
-        <v>11</v>
-      </c>
-      <c r="N272">
-        <v>1.222</v>
-      </c>
-      <c r="O272">
-        <v>5.5</v>
-      </c>
-      <c r="P272">
-        <v>8.5</v>
-      </c>
-      <c r="Q272">
-        <v>-2</v>
-      </c>
-      <c r="R272">
-        <v>1.925</v>
-      </c>
-      <c r="S272">
-        <v>1.875</v>
-      </c>
-      <c r="T272">
-        <v>4</v>
-      </c>
       <c r="U272">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V272">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W272">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA272">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB272">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24759,7 +24759,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24771,76 +24771,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G273" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K273">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L273">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M273">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N273">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O273">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P273">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q273">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R273">
+        <v>1.925</v>
+      </c>
+      <c r="S273">
         <v>1.875</v>
       </c>
-      <c r="S273">
+      <c r="T273">
+        <v>4</v>
+      </c>
+      <c r="U273">
         <v>1.925</v>
       </c>
-      <c r="T273">
-        <v>3</v>
-      </c>
-      <c r="U273">
-        <v>1.775</v>
-      </c>
       <c r="V273">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X273">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC273">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,56 +25038,56 @@
         <v>45240.625</v>
       </c>
       <c r="F276" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H276">
         <v>1</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
         <v>54</v>
       </c>
       <c r="K276">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L276">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M276">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N276">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O276">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P276">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S276">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T276">
         <v>3.25</v>
       </c>
       <c r="U276">
+        <v>1.925</v>
+      </c>
+      <c r="V276">
         <v>1.875</v>
       </c>
-      <c r="V276">
-        <v>1.925</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
@@ -25095,19 +25095,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB276">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,56 +25127,56 @@
         <v>45240.625</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G277" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H277">
         <v>1</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J277" t="s">
         <v>54</v>
       </c>
       <c r="K277">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L277">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M277">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N277">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O277">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P277">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R277">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
         <v>3.25</v>
       </c>
       <c r="U277">
+        <v>1.875</v>
+      </c>
+      <c r="V277">
         <v>1.925</v>
       </c>
-      <c r="V277">
-        <v>1.875</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
@@ -25184,19 +25184,19 @@
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC277">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6920460</v>
+        <v>6920573</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,76 +25750,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G284" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284">
+        <v>5</v>
+      </c>
+      <c r="J284" t="s">
+        <v>54</v>
+      </c>
+      <c r="K284">
+        <v>7</v>
+      </c>
+      <c r="L284">
+        <v>5</v>
+      </c>
+      <c r="M284">
+        <v>1.3</v>
+      </c>
+      <c r="N284">
+        <v>4.2</v>
+      </c>
+      <c r="O284">
+        <v>4</v>
+      </c>
+      <c r="P284">
+        <v>1.6</v>
+      </c>
+      <c r="Q284">
         <v>1</v>
       </c>
-      <c r="J284" t="s">
-        <v>55</v>
-      </c>
-      <c r="K284">
-        <v>1.909</v>
-      </c>
-      <c r="L284">
-        <v>4</v>
-      </c>
-      <c r="M284">
+      <c r="R284">
+        <v>1.775</v>
+      </c>
+      <c r="S284">
+        <v>2.025</v>
+      </c>
+      <c r="T284">
         <v>3</v>
-      </c>
-      <c r="N284">
-        <v>1.571</v>
-      </c>
-      <c r="O284">
-        <v>4.5</v>
-      </c>
-      <c r="P284">
-        <v>4</v>
-      </c>
-      <c r="Q284">
-        <v>-1</v>
-      </c>
-      <c r="R284">
-        <v>2.05</v>
-      </c>
-      <c r="S284">
-        <v>1.8</v>
-      </c>
-      <c r="T284">
-        <v>3.25</v>
       </c>
       <c r="U284">
         <v>1.95</v>
       </c>
       <c r="V284">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W284">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB284">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC284">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6920573</v>
+        <v>6920460</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,76 +25839,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G285" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K285">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L285">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M285">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N285">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="O285">
+        <v>4.5</v>
+      </c>
+      <c r="P285">
         <v>4</v>
       </c>
-      <c r="P285">
-        <v>1.6</v>
-      </c>
       <c r="Q285">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R285">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T285">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U285">
         <v>1.95</v>
       </c>
       <c r="V285">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA285">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB285">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -28230,7 +28230,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6920497</v>
+        <v>6920498</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28242,52 +28242,52 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F312" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G312" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
         <v>54</v>
       </c>
       <c r="K312">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L312">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M312">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N312">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O312">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P312">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
+        <v>2</v>
+      </c>
+      <c r="S312">
+        <v>1.85</v>
+      </c>
+      <c r="T312">
+        <v>2.75</v>
+      </c>
+      <c r="U312">
         <v>1.925</v>
-      </c>
-      <c r="S312">
-        <v>1.875</v>
-      </c>
-      <c r="T312">
-        <v>2.5</v>
-      </c>
-      <c r="U312">
-        <v>1.875</v>
       </c>
       <c r="V312">
         <v>1.925</v>
@@ -28299,19 +28299,19 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB312">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC312">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28408,7 +28408,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6920498</v>
+        <v>6920497</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28420,52 +28420,52 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G314" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
         <v>1</v>
-      </c>
-      <c r="I314">
-        <v>3</v>
       </c>
       <c r="J314" t="s">
         <v>54</v>
       </c>
       <c r="K314">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L314">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M314">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N314">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O314">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P314">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R314">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S314">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
         <v>1.925</v>
@@ -28477,19 +28477,19 @@
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z314">
         <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB314">
+        <v>-1</v>
+      </c>
+      <c r="AC314">
         <v>0.925</v>
-      </c>
-      <c r="AC314">
-        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28853,7 +28853,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7830717</v>
+        <v>6920503</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28865,13 +28865,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -28880,40 +28880,40 @@
         <v>55</v>
       </c>
       <c r="K319">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L319">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M319">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N319">
         <v>1.85</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P319">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q319">
         <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T319">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U319">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V319">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W319">
         <v>0.8500000000000001</v>
@@ -28925,16 +28925,16 @@
         <v>-1</v>
       </c>
       <c r="Z319">
+        <v>0.925</v>
+      </c>
+      <c r="AA319">
+        <v>-1</v>
+      </c>
+      <c r="AB319">
         <v>1</v>
       </c>
-      <c r="AA319">
-        <v>-1</v>
-      </c>
-      <c r="AB319">
-        <v>-1</v>
-      </c>
       <c r="AC319">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29031,7 +29031,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6920503</v>
+        <v>7830717</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29043,13 +29043,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G321" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H321">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -29058,40 +29058,40 @@
         <v>55</v>
       </c>
       <c r="K321">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L321">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M321">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N321">
         <v>1.85</v>
       </c>
       <c r="O321">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q321">
         <v>-0.5</v>
       </c>
       <c r="R321">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U321">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V321">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W321">
         <v>0.8500000000000001</v>
@@ -29103,16 +29103,16 @@
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA321">
         <v>-1</v>
       </c>
       <c r="AB321">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC321"/>
+  <dimension ref="A1:AC330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5397735</v>
+        <v>6243965</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2076,64 +2076,64 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>3.75</v>
+      </c>
+      <c r="M18">
+        <v>2.9</v>
+      </c>
+      <c r="N18">
+        <v>2.55</v>
+      </c>
+      <c r="O18">
+        <v>3.5</v>
+      </c>
+      <c r="P18">
+        <v>2.25</v>
+      </c>
+      <c r="Q18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18">
-        <v>1.333</v>
-      </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-      <c r="M18">
-        <v>6.5</v>
-      </c>
-      <c r="N18">
-        <v>1.166</v>
-      </c>
-      <c r="O18">
-        <v>6.5</v>
-      </c>
-      <c r="P18">
-        <v>13</v>
-      </c>
-      <c r="Q18">
-        <v>-2.25</v>
-      </c>
       <c r="R18">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S18">
         <v>1.8</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2142,10 +2142,10 @@
         <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6243965</v>
+        <v>5397734</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,76 +2165,76 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5397734</v>
+        <v>5397735</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2254,76 +2254,76 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>6.5</v>
+      </c>
+      <c r="N20">
+        <v>1.166</v>
+      </c>
+      <c r="O20">
+        <v>6.5</v>
+      </c>
+      <c r="P20">
+        <v>13</v>
+      </c>
+      <c r="Q20">
+        <v>-2.25</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
         <v>3.5</v>
       </c>
-      <c r="M20">
-        <v>2.375</v>
-      </c>
-      <c r="N20">
-        <v>2.5</v>
-      </c>
-      <c r="O20">
-        <v>3.6</v>
-      </c>
-      <c r="P20">
-        <v>2.4</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1.975</v>
-      </c>
-      <c r="S20">
-        <v>1.875</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5397736</v>
+        <v>5397737</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2521,55 +2521,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
         <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
         <v>1.65</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
         <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>0.6499999999999999</v>
@@ -2581,16 +2581,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2598,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5397737</v>
+        <v>5397736</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2610,55 +2610,55 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N24">
         <v>1.65</v>
       </c>
       <c r="O24">
+        <v>3.8</v>
+      </c>
+      <c r="P24">
         <v>4</v>
-      </c>
-      <c r="P24">
-        <v>4.2</v>
       </c>
       <c r="Q24">
         <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>0.6499999999999999</v>
@@ -2670,16 +2670,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3310,7 +3310,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5397746</v>
+        <v>5397751</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3322,46 +3322,46 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="N32">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.75</v>
@@ -3370,28 +3370,28 @@
         <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3399,7 +3399,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5397751</v>
+        <v>5397746</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3411,46 +3411,46 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M33">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="N33">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>3.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
         <v>2.75</v>
@@ -3459,28 +3459,28 @@
         <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6335406</v>
+        <v>5397755</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,76 +3945,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
         <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
         <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5397755</v>
+        <v>6335406</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4034,76 +4034,76 @@
         <v>44989.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
         <v>3.5</v>
       </c>
       <c r="M40">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
         <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X40">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5397760</v>
+        <v>5397761</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4390,76 +4390,76 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>1.666</v>
+      </c>
+      <c r="O44">
         <v>3.75</v>
       </c>
-      <c r="N44">
-        <v>1.727</v>
-      </c>
-      <c r="O44">
-        <v>3.4</v>
-      </c>
       <c r="P44">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q44">
         <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4556,7 +4556,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5397761</v>
+        <v>5397760</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4568,76 +4568,76 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K46">
+        <v>1.833</v>
+      </c>
+      <c r="L46">
+        <v>3.6</v>
+      </c>
+      <c r="M46">
+        <v>3.75</v>
+      </c>
+      <c r="N46">
         <v>1.727</v>
       </c>
-      <c r="L46">
-        <v>3.75</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="N46">
-        <v>1.666</v>
-      </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q46">
         <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5397785</v>
+        <v>5397783</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,58 +5547,58 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>55</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R57">
+        <v>1.95</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
         <v>1.975</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="T57">
-        <v>2.75</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>3.75</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5607,16 +5607,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5397783</v>
+        <v>5397785</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,58 +5636,58 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>55</v>
       </c>
       <c r="K58">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="N58">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
+        <v>1.975</v>
+      </c>
+      <c r="S58">
+        <v>1.825</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>1.85</v>
+      </c>
+      <c r="V58">
         <v>1.95</v>
       </c>
-      <c r="S58">
-        <v>1.85</v>
-      </c>
-      <c r="T58">
-        <v>3</v>
-      </c>
-      <c r="U58">
-        <v>1.975</v>
-      </c>
-      <c r="V58">
-        <v>1.825</v>
-      </c>
       <c r="W58">
-        <v>3.75</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5696,16 +5696,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.95</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5397801</v>
+        <v>5397800</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6793,10 +6793,10 @@
         <v>45018.375</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6808,40 +6808,40 @@
         <v>54</v>
       </c>
       <c r="K71">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="M71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N71">
-        <v>1.166</v>
+        <v>1.533</v>
       </c>
       <c r="O71">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="P71">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="Q71">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S71">
+        <v>1.825</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
         <v>1.95</v>
       </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6850,19 +6850,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>10</v>
+        <v>4.25</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
+        <v>0.475</v>
+      </c>
+      <c r="AC71">
         <v>-0.5</v>
-      </c>
-      <c r="AC71">
-        <v>0.475</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6870,7 +6870,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5397802</v>
+        <v>5397801</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6882,76 +6882,76 @@
         <v>45018.375</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>10</v>
+      </c>
+      <c r="N72">
+        <v>1.166</v>
+      </c>
+      <c r="O72">
+        <v>6.5</v>
+      </c>
+      <c r="P72">
+        <v>11</v>
+      </c>
+      <c r="Q72">
+        <v>-2</v>
+      </c>
+      <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>1.95</v>
+      </c>
+      <c r="T72">
         <v>3.25</v>
       </c>
-      <c r="M72">
-        <v>2.5</v>
-      </c>
-      <c r="N72">
+      <c r="U72">
         <v>1.85</v>
       </c>
-      <c r="O72">
-        <v>3.4</v>
-      </c>
-      <c r="P72">
-        <v>3.8</v>
-      </c>
-      <c r="Q72">
-        <v>-0.75</v>
-      </c>
-      <c r="R72">
-        <v>2</v>
-      </c>
-      <c r="S72">
-        <v>1.8</v>
-      </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>2</v>
-      </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z72">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
+        <v>0.95</v>
+      </c>
+      <c r="AB72">
         <v>-0.5</v>
       </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6959,7 +6959,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5397800</v>
+        <v>5397802</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6971,76 +6971,76 @@
         <v>45018.375</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O73">
+        <v>3.4</v>
+      </c>
+      <c r="P73">
         <v>3.8</v>
       </c>
-      <c r="P73">
-        <v>5.25</v>
-      </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -8650,7 +8650,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5397816</v>
+        <v>5397815</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8662,46 +8662,46 @@
         <v>45037.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>55</v>
+      </c>
+      <c r="K92">
+        <v>2.3</v>
+      </c>
+      <c r="L92">
+        <v>3.3</v>
+      </c>
+      <c r="M92">
+        <v>2.7</v>
+      </c>
+      <c r="N92">
+        <v>2.4</v>
+      </c>
+      <c r="O92">
+        <v>3.4</v>
+      </c>
+      <c r="P92">
+        <v>2.5</v>
+      </c>
+      <c r="Q92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>4</v>
-      </c>
-      <c r="J92" t="s">
-        <v>54</v>
-      </c>
-      <c r="K92">
-        <v>5</v>
-      </c>
-      <c r="L92">
-        <v>4</v>
-      </c>
-      <c r="M92">
-        <v>1.5</v>
-      </c>
-      <c r="N92">
-        <v>3.75</v>
-      </c>
-      <c r="O92">
-        <v>3.6</v>
-      </c>
-      <c r="P92">
-        <v>1.75</v>
-      </c>
-      <c r="Q92">
-        <v>0.5</v>
-      </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
         <v>2.75</v>
@@ -8710,28 +8710,28 @@
         <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8739,7 +8739,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5397815</v>
+        <v>5397816</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8751,46 +8751,46 @@
         <v>45037.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N93">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.75</v>
@@ -8799,28 +8799,28 @@
         <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9095,7 +9095,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5397821</v>
+        <v>5423551</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9107,73 +9107,73 @@
         <v>45039.375</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K97">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L97">
+        <v>3.5</v>
+      </c>
+      <c r="M97">
+        <v>2.25</v>
+      </c>
+      <c r="N97">
+        <v>2.1</v>
+      </c>
+      <c r="O97">
         <v>3.6</v>
       </c>
-      <c r="M97">
-        <v>4.1</v>
-      </c>
-      <c r="N97">
-        <v>1.571</v>
-      </c>
-      <c r="O97">
-        <v>4</v>
-      </c>
       <c r="P97">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>3</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9184,7 +9184,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5423551</v>
+        <v>5397821</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9196,73 +9196,73 @@
         <v>45039.375</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98">
+        <v>1.7</v>
+      </c>
+      <c r="L98">
+        <v>3.6</v>
+      </c>
+      <c r="M98">
+        <v>4.1</v>
+      </c>
+      <c r="N98">
+        <v>1.571</v>
+      </c>
+      <c r="O98">
         <v>4</v>
       </c>
-      <c r="I98">
-        <v>4</v>
-      </c>
-      <c r="J98" t="s">
-        <v>53</v>
-      </c>
-      <c r="K98">
-        <v>2.6</v>
-      </c>
-      <c r="L98">
-        <v>3.5</v>
-      </c>
-      <c r="M98">
-        <v>2.25</v>
-      </c>
-      <c r="N98">
-        <v>2.1</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
       <c r="P98">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
         <v>3</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9362,7 +9362,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6471246</v>
+        <v>6446311</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9374,76 +9374,76 @@
         <v>45042.5625</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K100">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
+        <v>-0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
         <v>0.75</v>
       </c>
-      <c r="R100">
-        <v>1.85</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6446311</v>
+        <v>6471246</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9463,76 +9463,76 @@
         <v>45042.5625</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K101">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L101">
         <v>3.75</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N101">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.85</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>3</v>
       </c>
-      <c r="U101">
-        <v>1.875</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
-      <c r="W101">
-        <v>0.75</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5419740</v>
+        <v>5423552</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9552,10 +9552,10 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9567,25 +9567,25 @@
         <v>55</v>
       </c>
       <c r="K102">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
         <v>1.875</v>
@@ -9594,16 +9594,16 @@
         <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9621,7 +9621,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9629,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5423552</v>
+        <v>5419740</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9641,10 +9641,10 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9656,25 +9656,25 @@
         <v>55</v>
       </c>
       <c r="K103">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R103">
         <v>1.875</v>
@@ -9683,16 +9683,16 @@
         <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9710,7 +9710,7 @@
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9718,7 +9718,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5419741</v>
+        <v>5397823</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9730,76 +9730,76 @@
         <v>45045.375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K104">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L104">
         <v>4</v>
       </c>
       <c r="M104">
+        <v>5</v>
+      </c>
+      <c r="N104">
         <v>1.533</v>
       </c>
-      <c r="N104">
-        <v>6.5</v>
-      </c>
       <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
         <v>4.333</v>
       </c>
-      <c r="P104">
-        <v>1.363</v>
-      </c>
       <c r="Q104">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
         <v>1.95</v>
       </c>
-      <c r="S104">
-        <v>1.85</v>
-      </c>
       <c r="T104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9807,7 +9807,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5397823</v>
+        <v>5419741</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9819,76 +9819,76 @@
         <v>45045.375</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K105">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L105">
         <v>4</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N105">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O105">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>1.363</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R105">
+        <v>1.95</v>
+      </c>
+      <c r="S105">
         <v>1.85</v>
       </c>
-      <c r="S105">
-        <v>1.95</v>
-      </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB105">
         <v>0</v>
       </c>
-      <c r="AA105">
+      <c r="AC105">
         <v>-0</v>
-      </c>
-      <c r="AB105">
-        <v>-0.5</v>
-      </c>
-      <c r="AC105">
-        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9985,7 +9985,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5419743</v>
+        <v>5419742</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9997,58 +9997,58 @@
         <v>45046.375</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>55</v>
       </c>
       <c r="K107">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
+        <v>3</v>
+      </c>
+      <c r="U107">
+        <v>2.025</v>
+      </c>
+      <c r="V107">
         <v>1.825</v>
       </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10057,16 +10057,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.95</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.825</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.95</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10074,7 +10074,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5419742</v>
+        <v>5419743</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10086,58 +10086,58 @@
         <v>45046.375</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>55</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
+        <v>1.975</v>
+      </c>
+      <c r="T108">
+        <v>3.25</v>
+      </c>
+      <c r="U108">
         <v>1.95</v>
       </c>
-      <c r="S108">
-        <v>1.9</v>
-      </c>
-      <c r="T108">
-        <v>3</v>
-      </c>
-      <c r="U108">
-        <v>2.025</v>
-      </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10146,16 +10146,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
+        <v>0.825</v>
+      </c>
+      <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
         <v>0.95</v>
       </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5466670</v>
+        <v>5470293</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,76 +10620,76 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="L114">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>8</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
-        <v>1.181</v>
+        <v>4.5</v>
       </c>
       <c r="O114">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>13</v>
+        <v>1.615</v>
       </c>
       <c r="Q114">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5470293</v>
+        <v>5466670</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,76 +10709,76 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K115">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>8</v>
       </c>
       <c r="N115">
-        <v>4.5</v>
+        <v>1.181</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P115">
-        <v>1.615</v>
+        <v>13</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10875,7 +10875,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5466671</v>
+        <v>5466819</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10887,76 +10887,76 @@
         <v>45053.375</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10964,7 +10964,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5466819</v>
+        <v>5470294</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10976,76 +10976,76 @@
         <v>45053.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>55</v>
+      </c>
+      <c r="K118">
+        <v>1.666</v>
+      </c>
+      <c r="L118">
+        <v>3.8</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>1.5</v>
+      </c>
+      <c r="O118">
+        <v>4.2</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-1</v>
+      </c>
+      <c r="R118">
+        <v>1.875</v>
+      </c>
+      <c r="S118">
+        <v>1.925</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.775</v>
+      </c>
+      <c r="V118">
+        <v>2.025</v>
+      </c>
+      <c r="W118">
+        <v>0.5</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>53</v>
-      </c>
-      <c r="K118">
-        <v>1.8</v>
-      </c>
-      <c r="L118">
-        <v>3.6</v>
-      </c>
-      <c r="M118">
-        <v>3.5</v>
-      </c>
-      <c r="N118">
-        <v>1.8</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
-      <c r="P118">
-        <v>3.5</v>
-      </c>
-      <c r="Q118">
+      <c r="AA118">
+        <v>-0</v>
+      </c>
+      <c r="AB118">
+        <v>0.3875</v>
+      </c>
+      <c r="AC118">
         <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.85</v>
-      </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>2.6</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
-      </c>
-      <c r="AA118">
-        <v>0.95</v>
-      </c>
-      <c r="AB118">
-        <v>-1</v>
-      </c>
-      <c r="AC118">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11053,7 +11053,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5470294</v>
+        <v>5466671</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11065,76 +11065,76 @@
         <v>45053.375</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
+        <v>0.8</v>
+      </c>
+      <c r="AB119">
         <v>0</v>
       </c>
-      <c r="AA119">
+      <c r="AC119">
         <v>-0</v>
-      </c>
-      <c r="AB119">
-        <v>0.3875</v>
-      </c>
-      <c r="AC119">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11765,7 +11765,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5480121</v>
+        <v>5504844</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11777,73 +11777,73 @@
         <v>45060.375</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K127">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N127">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
         <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y127">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11854,7 +11854,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5504844</v>
+        <v>5480121</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11866,73 +11866,73 @@
         <v>45060.375</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N128">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R128">
         <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11943,7 +11943,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5484895</v>
+        <v>5484896</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11955,58 +11955,58 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>55</v>
       </c>
       <c r="K129">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N129">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O129">
         <v>3.3</v>
       </c>
       <c r="P129">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q129">
         <v>0</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
         <v>1.85</v>
       </c>
       <c r="W129">
-        <v>1.5</v>
+        <v>1.625</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12015,16 +12015,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5484896</v>
+        <v>5484895</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12044,58 +12044,58 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>55</v>
       </c>
       <c r="K130">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O130">
         <v>3.3</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q130">
         <v>0</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V130">
         <v>1.85</v>
       </c>
       <c r="W130">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12104,16 +12104,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AC130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>5522332</v>
+        <v>5480122</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,76 +12400,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>53</v>
+      </c>
+      <c r="K134">
+        <v>4.75</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>1.533</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>1.6</v>
+      </c>
+      <c r="Q134">
         <v>1</v>
       </c>
-      <c r="I134">
+      <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
         <v>3</v>
       </c>
-      <c r="J134" t="s">
-        <v>54</v>
-      </c>
-      <c r="K134">
-        <v>2.4</v>
-      </c>
-      <c r="L134">
-        <v>3.6</v>
-      </c>
-      <c r="M134">
-        <v>2.4</v>
-      </c>
-      <c r="N134">
-        <v>2.45</v>
-      </c>
-      <c r="O134">
-        <v>3.5</v>
-      </c>
-      <c r="P134">
-        <v>2.4</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.875</v>
-      </c>
-      <c r="S134">
-        <v>1.975</v>
-      </c>
-      <c r="T134">
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
+        <v>1.85</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
         <v>2.75</v>
       </c>
-      <c r="U134">
-        <v>1.975</v>
-      </c>
-      <c r="V134">
-        <v>1.875</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
       <c r="Y134">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5480122</v>
+        <v>5522332</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,76 +12489,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135" t="s">
+        <v>54</v>
+      </c>
+      <c r="K135">
+        <v>2.4</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>2.4</v>
+      </c>
+      <c r="N135">
+        <v>2.45</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
+        <v>2.4</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" t="s">
-        <v>53</v>
-      </c>
-      <c r="K135">
-        <v>4.75</v>
-      </c>
-      <c r="L135">
-        <v>4</v>
-      </c>
-      <c r="M135">
-        <v>1.533</v>
-      </c>
-      <c r="N135">
-        <v>5</v>
-      </c>
-      <c r="O135">
-        <v>3.75</v>
-      </c>
-      <c r="P135">
-        <v>1.6</v>
-      </c>
-      <c r="Q135">
-        <v>1</v>
-      </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5505738</v>
+        <v>5505177</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,13 +12845,13 @@
         <v>45067.375</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -12860,43 +12860,43 @@
         <v>55</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M139">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N139">
-        <v>1.75</v>
+        <v>1.142</v>
       </c>
       <c r="O139">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>0.75</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12905,16 +12905,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5505177</v>
+        <v>5505738</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,13 +12934,13 @@
         <v>45067.375</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -12949,43 +12949,43 @@
         <v>55</v>
       </c>
       <c r="K140">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>1.142</v>
+        <v>1.75</v>
       </c>
       <c r="O140">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.1419999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,16 +12994,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5534346</v>
+        <v>5537959</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,19 +13112,19 @@
         <v>45073.375</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J142" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K142">
         <v>2.1</v>
@@ -13136,52 +13136,52 @@
         <v>2.8</v>
       </c>
       <c r="N142">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T142">
         <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5534349</v>
+        <v>5544790</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,59 +13201,59 @@
         <v>45073.375</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>55</v>
       </c>
       <c r="K143">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N143">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
+        <v>2</v>
+      </c>
+      <c r="W143">
         <v>1.875</v>
       </c>
-      <c r="W143">
-        <v>0.8</v>
-      </c>
       <c r="X143">
         <v>-1</v>
       </c>
@@ -13261,13 +13261,13 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5534347</v>
+        <v>5534348</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45073.375</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K144">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L144">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O144">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13367,7 +13367,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5534348</v>
+        <v>5534349</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13379,13 +13379,13 @@
         <v>45073.375</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>2</v>
@@ -13394,25 +13394,25 @@
         <v>55</v>
       </c>
       <c r="K145">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L145">
         <v>4</v>
       </c>
       <c r="M145">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N145">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O145">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13421,16 +13421,16 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13445,7 +13445,7 @@
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13456,7 +13456,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5544788</v>
+        <v>5534346</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13468,76 +13468,76 @@
         <v>45073.375</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
         <v>0</v>
       </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K146">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N146">
+        <v>2.15</v>
+      </c>
+      <c r="O146">
         <v>3.8</v>
       </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
       <c r="P146">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q146">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA146">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13545,7 +13545,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5544789</v>
+        <v>5534347</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13557,55 +13557,55 @@
         <v>45073.375</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>54</v>
       </c>
       <c r="K147">
+        <v>1.363</v>
+      </c>
+      <c r="L147">
         <v>4.75</v>
       </c>
-      <c r="L147">
-        <v>3.75</v>
-      </c>
       <c r="M147">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="N147">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="O147">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13614,19 +13614,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.6659999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.125</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5544790</v>
+        <v>5544788</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13646,46 +13646,46 @@
         <v>45073.375</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>54</v>
+      </c>
+      <c r="K148">
         <v>5</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148" t="s">
-        <v>55</v>
-      </c>
-      <c r="K148">
-        <v>2.8</v>
-      </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M148">
+        <v>1.5</v>
+      </c>
+      <c r="N148">
+        <v>3.8</v>
+      </c>
+      <c r="O148">
+        <v>3.75</v>
+      </c>
+      <c r="P148">
+        <v>1.7</v>
+      </c>
+      <c r="Q148">
+        <v>0.5</v>
+      </c>
+      <c r="R148">
         <v>2.1</v>
       </c>
-      <c r="N148">
-        <v>2.875</v>
-      </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
-      <c r="P148">
-        <v>2.05</v>
-      </c>
-      <c r="Q148">
-        <v>0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.95</v>
-      </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13697,25 +13697,25 @@
         <v>2</v>
       </c>
       <c r="W148">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13723,7 +13723,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5537959</v>
+        <v>5544789</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13735,13 +13735,13 @@
         <v>45073.375</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>5</v>
@@ -13750,25 +13750,25 @@
         <v>54</v>
       </c>
       <c r="K149">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N149">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R149">
         <v>1.75</v>
@@ -13777,13 +13777,13 @@
         <v>2.125</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13792,7 +13792,7 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>2.6</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z149">
         <v>-1</v>
@@ -13801,7 +13801,7 @@
         <v>1.125</v>
       </c>
       <c r="AB149">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H168">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K168">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M168">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N168">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P168">
+        <v>1.615</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>1.775</v>
+      </c>
+      <c r="S168">
+        <v>2.025</v>
+      </c>
+      <c r="T168">
         <v>2.75</v>
       </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>1.875</v>
-      </c>
-      <c r="S168">
-        <v>1.925</v>
-      </c>
-      <c r="T168">
+      <c r="U168">
+        <v>1.775</v>
+      </c>
+      <c r="V168">
+        <v>2.025</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
         <v>3</v>
       </c>
-      <c r="U168">
-        <v>1.875</v>
-      </c>
-      <c r="V168">
-        <v>1.925</v>
-      </c>
-      <c r="W168">
-        <v>1.05</v>
-      </c>
-      <c r="X168">
-        <v>-1</v>
-      </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K169">
+        <v>2.25</v>
+      </c>
+      <c r="L169">
+        <v>3.75</v>
+      </c>
+      <c r="M169">
+        <v>2.5</v>
+      </c>
+      <c r="N169">
+        <v>2.05</v>
+      </c>
+      <c r="O169">
+        <v>4.2</v>
+      </c>
+      <c r="P169">
+        <v>2.75</v>
+      </c>
+      <c r="Q169">
+        <v>-0.25</v>
+      </c>
+      <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
+        <v>1.925</v>
+      </c>
+      <c r="T169">
         <v>3</v>
       </c>
-      <c r="L169">
-        <v>3.6</v>
-      </c>
-      <c r="M169">
-        <v>2</v>
-      </c>
-      <c r="N169">
-        <v>5</v>
-      </c>
-      <c r="O169">
-        <v>4</v>
-      </c>
-      <c r="P169">
-        <v>1.615</v>
-      </c>
-      <c r="Q169">
-        <v>1</v>
-      </c>
-      <c r="R169">
-        <v>1.775</v>
-      </c>
-      <c r="S169">
-        <v>2.025</v>
-      </c>
-      <c r="T169">
-        <v>2.75</v>
-      </c>
       <c r="U169">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X169">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -17194,7 +17194,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6920366</v>
+        <v>6920369</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17206,76 +17206,76 @@
         <v>45165.375</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K188">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N188">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O188">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>1.8</v>
+      </c>
+      <c r="T188">
+        <v>3.25</v>
+      </c>
+      <c r="U188">
         <v>1.925</v>
       </c>
-      <c r="S188">
+      <c r="V188">
         <v>1.875</v>
       </c>
-      <c r="T188">
-        <v>3</v>
-      </c>
-      <c r="U188">
-        <v>1.775</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC188">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6920369</v>
+        <v>6920366</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,76 +17295,76 @@
         <v>45165.375</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>53</v>
+      </c>
+      <c r="K189">
+        <v>1.75</v>
+      </c>
+      <c r="L189">
+        <v>3.75</v>
+      </c>
+      <c r="M189">
+        <v>3.6</v>
+      </c>
+      <c r="N189">
+        <v>1.533</v>
+      </c>
+      <c r="O189">
         <v>4</v>
       </c>
-      <c r="J189" t="s">
-        <v>54</v>
-      </c>
-      <c r="K189">
-        <v>2.1</v>
-      </c>
-      <c r="L189">
-        <v>3.6</v>
-      </c>
-      <c r="M189">
-        <v>2.8</v>
-      </c>
-      <c r="N189">
-        <v>2.25</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
       <c r="P189">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y189">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6920377</v>
+        <v>6919327</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,13 +17829,13 @@
         <v>45172.375</v>
       </c>
       <c r="F195" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -17844,43 +17844,43 @@
         <v>55</v>
       </c>
       <c r="K195">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L195">
         <v>3.75</v>
       </c>
       <c r="M195">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N195">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O195">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q195">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T195">
         <v>3.25</v>
       </c>
       <c r="U195">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17889,13 +17889,13 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -17995,7 +17995,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6919327</v>
+        <v>6920377</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18007,13 +18007,13 @@
         <v>45172.375</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -18022,43 +18022,43 @@
         <v>55</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L197">
         <v>3.75</v>
       </c>
       <c r="M197">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P197">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T197">
         <v>3.25</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18067,13 +18067,13 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18796,7 +18796,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6920385</v>
+        <v>6920386</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18808,76 +18808,76 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K206">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="L206">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M206">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="N206">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q206">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>3.25</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6920386</v>
+        <v>6920385</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,76 +18897,76 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207" t="s">
+        <v>54</v>
+      </c>
+      <c r="K207">
+        <v>9</v>
+      </c>
+      <c r="L207">
+        <v>5.5</v>
+      </c>
+      <c r="M207">
+        <v>1.222</v>
+      </c>
+      <c r="N207">
+        <v>5</v>
+      </c>
+      <c r="O207">
+        <v>4</v>
+      </c>
+      <c r="P207">
+        <v>1.45</v>
+      </c>
+      <c r="Q207">
         <v>1</v>
       </c>
-      <c r="J207" t="s">
-        <v>55</v>
-      </c>
-      <c r="K207">
-        <v>4.75</v>
-      </c>
-      <c r="L207">
-        <v>4.2</v>
-      </c>
-      <c r="M207">
-        <v>1.5</v>
-      </c>
-      <c r="N207">
-        <v>1.95</v>
-      </c>
-      <c r="O207">
-        <v>4.2</v>
-      </c>
-      <c r="P207">
-        <v>2.7</v>
-      </c>
-      <c r="Q207">
-        <v>-0.25</v>
-      </c>
       <c r="R207">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
         <v>3.25</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC207">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6920392</v>
+        <v>6920393</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,76 +19431,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" t="s">
+        <v>54</v>
+      </c>
+      <c r="K213">
+        <v>2.3</v>
+      </c>
+      <c r="L213">
+        <v>3.6</v>
+      </c>
+      <c r="M213">
+        <v>2.5</v>
+      </c>
+      <c r="N213">
+        <v>2.1</v>
+      </c>
+      <c r="O213">
+        <v>3.6</v>
+      </c>
+      <c r="P213">
+        <v>2.8</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>3.25</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>1.8</v>
+      </c>
+      <c r="Z213">
+        <v>-1</v>
+      </c>
+      <c r="AA213">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB213">
         <v>1</v>
       </c>
-      <c r="J213" t="s">
-        <v>55</v>
-      </c>
-      <c r="K213">
-        <v>1.125</v>
-      </c>
-      <c r="L213">
-        <v>7.5</v>
-      </c>
-      <c r="M213">
-        <v>11</v>
-      </c>
-      <c r="N213">
-        <v>1.3</v>
-      </c>
-      <c r="O213">
-        <v>4.75</v>
-      </c>
-      <c r="P213">
-        <v>7.5</v>
-      </c>
-      <c r="Q213">
-        <v>-1.75</v>
-      </c>
-      <c r="R213">
-        <v>1.925</v>
-      </c>
-      <c r="S213">
-        <v>1.875</v>
-      </c>
-      <c r="T213">
-        <v>3.75</v>
-      </c>
-      <c r="U213">
-        <v>1.8</v>
-      </c>
-      <c r="V213">
-        <v>2</v>
-      </c>
-      <c r="W213">
-        <v>0.3</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.875</v>
-      </c>
-      <c r="AB213">
-        <v>-1</v>
-      </c>
       <c r="AC213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6920393</v>
+        <v>6920392</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,76 +19520,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H214">
         <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K214">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M214">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>1</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -21911,7 +21911,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6922683</v>
+        <v>6920414</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21923,76 +21923,76 @@
         <v>45207.375</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G241" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K241">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L241">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N241">
+        <v>2.2</v>
+      </c>
+      <c r="O241">
+        <v>3.6</v>
+      </c>
+      <c r="P241">
+        <v>2.6</v>
+      </c>
+      <c r="Q241">
+        <v>-0.25</v>
+      </c>
+      <c r="R241">
+        <v>2.025</v>
+      </c>
+      <c r="S241">
+        <v>1.775</v>
+      </c>
+      <c r="T241">
+        <v>3.5</v>
+      </c>
+      <c r="U241">
+        <v>1.875</v>
+      </c>
+      <c r="V241">
+        <v>1.925</v>
+      </c>
+      <c r="W241">
         <v>1.2</v>
       </c>
-      <c r="O241">
-        <v>5.75</v>
-      </c>
-      <c r="P241">
-        <v>9.5</v>
-      </c>
-      <c r="Q241">
-        <v>-2</v>
-      </c>
-      <c r="R241">
-        <v>2</v>
-      </c>
-      <c r="S241">
-        <v>1.8</v>
-      </c>
-      <c r="T241">
-        <v>3.75</v>
-      </c>
-      <c r="U241">
-        <v>1.95</v>
-      </c>
-      <c r="V241">
-        <v>1.85</v>
-      </c>
-      <c r="W241">
-        <v>-1</v>
-      </c>
       <c r="X241">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA241">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22000,7 +22000,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6920414</v>
+        <v>6922683</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22012,76 +22012,76 @@
         <v>45207.375</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K242">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L242">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M242">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N242">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O242">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P242">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R242">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S242">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T242">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U242">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V242">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W242">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22089,7 +22089,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6920416</v>
+        <v>6920417</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22101,76 +22101,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G243" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L243">
         <v>3.75</v>
       </c>
       <c r="M243">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N243">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O243">
         <v>4</v>
       </c>
       <c r="P243">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q243">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S243">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>1.85</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
         <v>3</v>
       </c>
-      <c r="U243">
-        <v>1.975</v>
-      </c>
-      <c r="V243">
-        <v>1.875</v>
-      </c>
-      <c r="W243">
-        <v>-1</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
       <c r="Y243">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC243">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6920417</v>
+        <v>6920416</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,76 +22279,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G245" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L245">
         <v>3.75</v>
       </c>
       <c r="M245">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N245">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O245">
         <v>4</v>
       </c>
       <c r="P245">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R245">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S245">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB245">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -23068,7 +23068,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23080,76 +23080,76 @@
         <v>45220.375</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G254" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H254">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I254">
         <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L254">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M254">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N254">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O254">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q254">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R254">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S254">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T254">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W254">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z254">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB254">
         <v>-0.5</v>
       </c>
-      <c r="AB254">
-        <v>0.825</v>
-      </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,76 +23169,76 @@
         <v>45220.375</v>
       </c>
       <c r="F255" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I255">
         <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K255">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L255">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M255">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N255">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O255">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P255">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q255">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R255">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S255">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T255">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA255">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB255">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,76 +23347,76 @@
         <v>45221.375</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H257">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K257">
+        <v>4</v>
+      </c>
+      <c r="L257">
+        <v>4.2</v>
+      </c>
+      <c r="M257">
+        <v>1.6</v>
+      </c>
+      <c r="N257">
+        <v>2.45</v>
+      </c>
+      <c r="O257">
+        <v>4</v>
+      </c>
+      <c r="P257">
+        <v>2.2</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>2</v>
+      </c>
+      <c r="S257">
         <v>1.8</v>
       </c>
-      <c r="L257">
-        <v>4</v>
-      </c>
-      <c r="M257">
-        <v>3.25</v>
-      </c>
-      <c r="N257">
-        <v>1.5</v>
-      </c>
-      <c r="O257">
-        <v>4.333</v>
-      </c>
-      <c r="P257">
-        <v>4.75</v>
-      </c>
-      <c r="Q257">
-        <v>-1</v>
-      </c>
-      <c r="R257">
-        <v>1.825</v>
-      </c>
-      <c r="S257">
-        <v>1.975</v>
-      </c>
       <c r="T257">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U257">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z257">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23424,7 +23424,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23436,76 +23436,76 @@
         <v>45221.375</v>
       </c>
       <c r="F258" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G258" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I258">
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K258">
+        <v>1.8</v>
+      </c>
+      <c r="L258">
         <v>4</v>
       </c>
-      <c r="L258">
-        <v>4.2</v>
-      </c>
       <c r="M258">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N258">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O258">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P258">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R258">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S258">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T258">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC258">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23513,7 +23513,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6920433</v>
+        <v>7361159</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23525,58 +23525,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
         <v>55</v>
       </c>
       <c r="K259">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M259">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N259">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O259">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P259">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S259">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T259">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U259">
         <v>1.925</v>
       </c>
       <c r="V259">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W259">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23585,16 +23585,16 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC259">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23602,7 +23602,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7361159</v>
+        <v>6920433</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23614,58 +23614,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G260" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
         <v>55</v>
       </c>
       <c r="K260">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L260">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M260">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N260">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O260">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P260">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q260">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S260">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T260">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U260">
         <v>1.925</v>
       </c>
       <c r="V260">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W260">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X260">
         <v>-1</v>
@@ -23674,16 +23674,16 @@
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA260">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,76 +24237,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G267" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H267">
         <v>2</v>
       </c>
       <c r="I267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K267">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L267">
         <v>4</v>
       </c>
       <c r="M267">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N267">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O267">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P267">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q267">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T267">
         <v>3.25</v>
       </c>
       <c r="U267">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X267">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA267">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,76 +24326,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H268">
         <v>2</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K268">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L268">
         <v>4</v>
       </c>
       <c r="M268">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N268">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O268">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P268">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q268">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S268">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T268">
         <v>3.25</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W268">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC268">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24492,7 +24492,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6920445</v>
+        <v>6920446</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24504,76 +24504,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G270" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K270">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L270">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M270">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N270">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O270">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P270">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="Q270">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R270">
+        <v>1.875</v>
+      </c>
+      <c r="S270">
+        <v>1.975</v>
+      </c>
+      <c r="T270">
+        <v>3.25</v>
+      </c>
+      <c r="U270">
         <v>1.95</v>
       </c>
-      <c r="S270">
+      <c r="V270">
         <v>1.9</v>
       </c>
-      <c r="T270">
-        <v>3.75</v>
-      </c>
-      <c r="U270">
-        <v>1.975</v>
-      </c>
-      <c r="V270">
-        <v>1.875</v>
-      </c>
       <c r="W270">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24581,7 +24581,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6920446</v>
+        <v>6920445</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24593,76 +24593,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G271" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I271">
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K271">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M271">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N271">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O271">
+        <v>5.75</v>
+      </c>
+      <c r="P271">
+        <v>9</v>
+      </c>
+      <c r="Q271">
+        <v>-2</v>
+      </c>
+      <c r="R271">
+        <v>1.95</v>
+      </c>
+      <c r="S271">
+        <v>1.9</v>
+      </c>
+      <c r="T271">
         <v>3.75</v>
       </c>
-      <c r="P271">
-        <v>1.95</v>
-      </c>
-      <c r="Q271">
-        <v>0.5</v>
-      </c>
-      <c r="R271">
+      <c r="U271">
+        <v>1.975</v>
+      </c>
+      <c r="V271">
         <v>1.875</v>
       </c>
-      <c r="S271">
-        <v>1.975</v>
-      </c>
-      <c r="T271">
-        <v>3.25</v>
-      </c>
-      <c r="U271">
-        <v>1.95</v>
-      </c>
-      <c r="V271">
-        <v>1.9</v>
-      </c>
       <c r="W271">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X271">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24670,7 +24670,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24682,76 +24682,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G272" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>53</v>
+      </c>
+      <c r="K272">
+        <v>2.25</v>
+      </c>
+      <c r="L272">
+        <v>3.6</v>
+      </c>
+      <c r="M272">
+        <v>2.55</v>
+      </c>
+      <c r="N272">
+        <v>2.375</v>
+      </c>
+      <c r="O272">
+        <v>3.75</v>
+      </c>
+      <c r="P272">
+        <v>2.4</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
         <v>3</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
-      <c r="J272" t="s">
-        <v>55</v>
-      </c>
-      <c r="K272">
-        <v>1.125</v>
-      </c>
-      <c r="L272">
-        <v>7.5</v>
-      </c>
-      <c r="M272">
-        <v>11</v>
-      </c>
-      <c r="N272">
-        <v>1.222</v>
-      </c>
-      <c r="O272">
-        <v>5.5</v>
-      </c>
-      <c r="P272">
-        <v>8.5</v>
-      </c>
-      <c r="Q272">
-        <v>-2</v>
-      </c>
-      <c r="R272">
-        <v>1.925</v>
-      </c>
-      <c r="S272">
-        <v>1.875</v>
-      </c>
-      <c r="T272">
-        <v>4</v>
-      </c>
       <c r="U272">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V272">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W272">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X272">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA272">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB272">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24759,7 +24759,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24771,76 +24771,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G273" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K273">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L273">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M273">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N273">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O273">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P273">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q273">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R273">
+        <v>1.925</v>
+      </c>
+      <c r="S273">
         <v>1.875</v>
       </c>
-      <c r="S273">
+      <c r="T273">
+        <v>4</v>
+      </c>
+      <c r="U273">
         <v>1.925</v>
       </c>
-      <c r="T273">
-        <v>3</v>
-      </c>
-      <c r="U273">
-        <v>1.775</v>
-      </c>
       <c r="V273">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X273">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB273">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC273">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,56 +25038,56 @@
         <v>45240.625</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G276" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H276">
         <v>1</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J276" t="s">
         <v>54</v>
       </c>
       <c r="K276">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M276">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N276">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O276">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P276">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R276">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T276">
         <v>3.25</v>
       </c>
       <c r="U276">
+        <v>1.875</v>
+      </c>
+      <c r="V276">
         <v>1.925</v>
       </c>
-      <c r="V276">
-        <v>1.875</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
@@ -25095,19 +25095,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB276">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC276">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,56 +25127,56 @@
         <v>45240.625</v>
       </c>
       <c r="F277" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H277">
         <v>1</v>
       </c>
       <c r="I277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J277" t="s">
         <v>54</v>
       </c>
       <c r="K277">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L277">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M277">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N277">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O277">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P277">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q277">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S277">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T277">
         <v>3.25</v>
       </c>
       <c r="U277">
+        <v>1.925</v>
+      </c>
+      <c r="V277">
         <v>1.875</v>
       </c>
-      <c r="V277">
-        <v>1.925</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
@@ -25184,19 +25184,19 @@
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB277">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6920460</v>
+        <v>6920573</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,76 +25750,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G284" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284">
+        <v>5</v>
+      </c>
+      <c r="J284" t="s">
+        <v>54</v>
+      </c>
+      <c r="K284">
+        <v>7</v>
+      </c>
+      <c r="L284">
+        <v>5</v>
+      </c>
+      <c r="M284">
+        <v>1.3</v>
+      </c>
+      <c r="N284">
+        <v>4.2</v>
+      </c>
+      <c r="O284">
+        <v>4</v>
+      </c>
+      <c r="P284">
+        <v>1.6</v>
+      </c>
+      <c r="Q284">
         <v>1</v>
       </c>
-      <c r="J284" t="s">
-        <v>55</v>
-      </c>
-      <c r="K284">
-        <v>1.909</v>
-      </c>
-      <c r="L284">
-        <v>4</v>
-      </c>
-      <c r="M284">
+      <c r="R284">
+        <v>1.775</v>
+      </c>
+      <c r="S284">
+        <v>2.025</v>
+      </c>
+      <c r="T284">
         <v>3</v>
-      </c>
-      <c r="N284">
-        <v>1.571</v>
-      </c>
-      <c r="O284">
-        <v>4.5</v>
-      </c>
-      <c r="P284">
-        <v>4</v>
-      </c>
-      <c r="Q284">
-        <v>-1</v>
-      </c>
-      <c r="R284">
-        <v>2.05</v>
-      </c>
-      <c r="S284">
-        <v>1.8</v>
-      </c>
-      <c r="T284">
-        <v>3.25</v>
       </c>
       <c r="U284">
         <v>1.95</v>
       </c>
       <c r="V284">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W284">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB284">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC284">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6920573</v>
+        <v>6920460</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,76 +25839,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G285" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K285">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L285">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M285">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N285">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="O285">
+        <v>4.5</v>
+      </c>
+      <c r="P285">
         <v>4</v>
       </c>
-      <c r="P285">
-        <v>1.6</v>
-      </c>
       <c r="Q285">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R285">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T285">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U285">
         <v>1.95</v>
       </c>
       <c r="V285">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA285">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB285">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26806,7 +26806,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26818,46 +26818,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H296">
         <v>1</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K296">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M296">
+        <v>3</v>
+      </c>
+      <c r="N296">
+        <v>2.05</v>
+      </c>
+      <c r="O296">
         <v>3.75</v>
       </c>
-      <c r="N296">
-        <v>1.8</v>
-      </c>
-      <c r="O296">
-        <v>3.8</v>
-      </c>
       <c r="P296">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q296">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R296">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T296">
         <v>3</v>
@@ -26869,19 +26869,19 @@
         <v>1.925</v>
       </c>
       <c r="W296">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA296">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB296">
         <v>-1</v>
@@ -26895,7 +26895,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26907,46 +26907,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G297" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H297">
         <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K297">
+        <v>1.666</v>
+      </c>
+      <c r="L297">
+        <v>4</v>
+      </c>
+      <c r="M297">
+        <v>3.75</v>
+      </c>
+      <c r="N297">
+        <v>1.8</v>
+      </c>
+      <c r="O297">
+        <v>3.8</v>
+      </c>
+      <c r="P297">
+        <v>3.25</v>
+      </c>
+      <c r="Q297">
+        <v>-0.5</v>
+      </c>
+      <c r="R297">
+        <v>1.85</v>
+      </c>
+      <c r="S297">
         <v>1.95</v>
-      </c>
-      <c r="L297">
-        <v>3.75</v>
-      </c>
-      <c r="M297">
-        <v>3</v>
-      </c>
-      <c r="N297">
-        <v>2.05</v>
-      </c>
-      <c r="O297">
-        <v>3.75</v>
-      </c>
-      <c r="P297">
-        <v>2.8</v>
-      </c>
-      <c r="Q297">
-        <v>-0.25</v>
-      </c>
-      <c r="R297">
-        <v>1.9</v>
-      </c>
-      <c r="S297">
-        <v>1.9</v>
       </c>
       <c r="T297">
         <v>3</v>
@@ -26958,19 +26958,19 @@
         <v>1.925</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X297">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA297">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
         <v>-1</v>
@@ -28853,7 +28853,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6920503</v>
+        <v>7830717</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28865,13 +28865,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G319" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H319">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -28880,40 +28880,40 @@
         <v>55</v>
       </c>
       <c r="K319">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L319">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M319">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N319">
         <v>1.85</v>
       </c>
       <c r="O319">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P319">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q319">
         <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S319">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T319">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U319">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V319">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W319">
         <v>0.8500000000000001</v>
@@ -28925,16 +28925,16 @@
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA319">
         <v>-1</v>
       </c>
       <c r="AB319">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -29031,7 +29031,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7830717</v>
+        <v>6920503</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29043,13 +29043,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F321" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G321" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -29058,40 +29058,40 @@
         <v>55</v>
       </c>
       <c r="K321">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L321">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M321">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N321">
         <v>1.85</v>
       </c>
       <c r="O321">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P321">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q321">
         <v>-0.5</v>
       </c>
       <c r="R321">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T321">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U321">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V321">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W321">
         <v>0.8500000000000001</v>
@@ -29103,16 +29103,682 @@
         <v>-1</v>
       </c>
       <c r="Z321">
+        <v>0.925</v>
+      </c>
+      <c r="AA321">
+        <v>-1</v>
+      </c>
+      <c r="AB321">
         <v>1</v>
       </c>
-      <c r="AA321">
-        <v>-1</v>
-      </c>
-      <c r="AB321">
-        <v>-1</v>
-      </c>
       <c r="AC321">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>6920511</v>
+      </c>
+      <c r="C322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45345.60416666666</v>
+      </c>
+      <c r="F322" t="s">
+        <v>52</v>
+      </c>
+      <c r="G322" t="s">
+        <v>45</v>
+      </c>
+      <c r="K322">
+        <v>3.75</v>
+      </c>
+      <c r="L322">
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <v>1.666</v>
+      </c>
+      <c r="N322">
+        <v>4.333</v>
+      </c>
+      <c r="O322">
+        <v>4.2</v>
+      </c>
+      <c r="P322">
+        <v>1.55</v>
+      </c>
+      <c r="Q322">
+        <v>1</v>
+      </c>
+      <c r="R322">
+        <v>1.85</v>
+      </c>
+      <c r="S322">
+        <v>2</v>
+      </c>
+      <c r="T322">
+        <v>3.25</v>
+      </c>
+      <c r="U322">
+        <v>1.975</v>
+      </c>
+      <c r="V322">
+        <v>1.875</v>
+      </c>
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>6919341</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45346.33333333334</v>
+      </c>
+      <c r="F323" t="s">
+        <v>37</v>
+      </c>
+      <c r="G323" t="s">
+        <v>33</v>
+      </c>
+      <c r="K323">
+        <v>2.1</v>
+      </c>
+      <c r="L323">
+        <v>4</v>
+      </c>
+      <c r="M323">
+        <v>2.6</v>
+      </c>
+      <c r="N323">
+        <v>1.95</v>
+      </c>
+      <c r="O323">
+        <v>4</v>
+      </c>
+      <c r="P323">
+        <v>2.875</v>
+      </c>
+      <c r="Q323">
+        <v>-0.5</v>
+      </c>
+      <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.825</v>
+      </c>
+      <c r="T323">
+        <v>3.5</v>
+      </c>
+      <c r="U323">
+        <v>1.95</v>
+      </c>
+      <c r="V323">
+        <v>1.9</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>7136647</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F324" t="s">
+        <v>34</v>
+      </c>
+      <c r="G324" t="s">
+        <v>40</v>
+      </c>
+      <c r="K324">
+        <v>1.571</v>
+      </c>
+      <c r="L324">
+        <v>4</v>
+      </c>
+      <c r="M324">
+        <v>4.5</v>
+      </c>
+      <c r="N324">
+        <v>1.666</v>
+      </c>
+      <c r="O324">
+        <v>3.8</v>
+      </c>
+      <c r="P324">
+        <v>4</v>
+      </c>
+      <c r="Q324">
+        <v>-0.75</v>
+      </c>
+      <c r="R324">
+        <v>1.9</v>
+      </c>
+      <c r="S324">
+        <v>1.95</v>
+      </c>
+      <c r="T324">
+        <v>3.5</v>
+      </c>
+      <c r="U324">
+        <v>1.925</v>
+      </c>
+      <c r="V324">
+        <v>1.925</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>6920508</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F325" t="s">
+        <v>46</v>
+      </c>
+      <c r="G325" t="s">
+        <v>42</v>
+      </c>
+      <c r="K325">
+        <v>1.5</v>
+      </c>
+      <c r="L325">
+        <v>4</v>
+      </c>
+      <c r="M325">
+        <v>5</v>
+      </c>
+      <c r="N325">
+        <v>1.4</v>
+      </c>
+      <c r="O325">
+        <v>4.2</v>
+      </c>
+      <c r="P325">
+        <v>5.75</v>
+      </c>
+      <c r="Q325">
+        <v>-1.25</v>
+      </c>
+      <c r="R325">
+        <v>2</v>
+      </c>
+      <c r="S325">
+        <v>1.85</v>
+      </c>
+      <c r="T325">
+        <v>3.25</v>
+      </c>
+      <c r="U325">
+        <v>2.1</v>
+      </c>
+      <c r="V325">
+        <v>1.775</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>6920507</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F326" t="s">
+        <v>32</v>
+      </c>
+      <c r="G326" t="s">
+        <v>51</v>
+      </c>
+      <c r="K326">
+        <v>2.5</v>
+      </c>
+      <c r="L326">
+        <v>3.75</v>
+      </c>
+      <c r="M326">
+        <v>2.25</v>
+      </c>
+      <c r="N326">
+        <v>3.75</v>
+      </c>
+      <c r="O326">
+        <v>3.8</v>
+      </c>
+      <c r="P326">
+        <v>1.75</v>
+      </c>
+      <c r="Q326">
+        <v>0.75</v>
+      </c>
+      <c r="R326">
+        <v>1.825</v>
+      </c>
+      <c r="S326">
+        <v>2.025</v>
+      </c>
+      <c r="T326">
+        <v>3</v>
+      </c>
+      <c r="U326">
+        <v>2</v>
+      </c>
+      <c r="V326">
+        <v>1.85</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>6920510</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F327" t="s">
+        <v>48</v>
+      </c>
+      <c r="G327" t="s">
+        <v>39</v>
+      </c>
+      <c r="K327">
+        <v>1.444</v>
+      </c>
+      <c r="L327">
+        <v>4.333</v>
+      </c>
+      <c r="M327">
+        <v>5.25</v>
+      </c>
+      <c r="N327">
+        <v>1.55</v>
+      </c>
+      <c r="O327">
+        <v>4.2</v>
+      </c>
+      <c r="P327">
+        <v>4.333</v>
+      </c>
+      <c r="Q327">
+        <v>-1</v>
+      </c>
+      <c r="R327">
+        <v>1.975</v>
+      </c>
+      <c r="S327">
+        <v>1.875</v>
+      </c>
+      <c r="T327">
+        <v>3.25</v>
+      </c>
+      <c r="U327">
+        <v>1.875</v>
+      </c>
+      <c r="V327">
+        <v>1.975</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>6920513</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F328" t="s">
+        <v>44</v>
+      </c>
+      <c r="G328" t="s">
+        <v>50</v>
+      </c>
+      <c r="K328">
+        <v>1.363</v>
+      </c>
+      <c r="L328">
+        <v>4.75</v>
+      </c>
+      <c r="M328">
+        <v>6</v>
+      </c>
+      <c r="N328">
+        <v>1.3</v>
+      </c>
+      <c r="O328">
+        <v>5</v>
+      </c>
+      <c r="P328">
+        <v>7</v>
+      </c>
+      <c r="Q328">
+        <v>-1.5</v>
+      </c>
+      <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
+        <v>2.025</v>
+      </c>
+      <c r="T328">
+        <v>3.25</v>
+      </c>
+      <c r="U328">
+        <v>1.875</v>
+      </c>
+      <c r="V328">
+        <v>1.975</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>6920512</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F329" t="s">
+        <v>29</v>
+      </c>
+      <c r="G329" t="s">
+        <v>35</v>
+      </c>
+      <c r="K329">
+        <v>1.615</v>
+      </c>
+      <c r="L329">
+        <v>4</v>
+      </c>
+      <c r="M329">
+        <v>4</v>
+      </c>
+      <c r="N329">
+        <v>1.6</v>
+      </c>
+      <c r="O329">
+        <v>4</v>
+      </c>
+      <c r="P329">
+        <v>4.2</v>
+      </c>
+      <c r="Q329">
+        <v>-1</v>
+      </c>
+      <c r="R329">
+        <v>2.025</v>
+      </c>
+      <c r="S329">
+        <v>1.825</v>
+      </c>
+      <c r="T329">
+        <v>3.25</v>
+      </c>
+      <c r="U329">
+        <v>1.975</v>
+      </c>
+      <c r="V329">
+        <v>1.875</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>6920514</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F330" t="s">
+        <v>49</v>
+      </c>
+      <c r="G330" t="s">
+        <v>38</v>
+      </c>
+      <c r="K330">
+        <v>4</v>
+      </c>
+      <c r="L330">
+        <v>4</v>
+      </c>
+      <c r="M330">
+        <v>1.615</v>
+      </c>
+      <c r="N330">
+        <v>5.5</v>
+      </c>
+      <c r="O330">
+        <v>4.5</v>
+      </c>
+      <c r="P330">
+        <v>1.4</v>
+      </c>
+      <c r="Q330">
+        <v>1.25</v>
+      </c>
+      <c r="R330">
+        <v>2</v>
+      </c>
+      <c r="S330">
+        <v>1.85</v>
+      </c>
+      <c r="T330">
+        <v>3</v>
+      </c>
+      <c r="U330">
+        <v>1.825</v>
+      </c>
+      <c r="V330">
+        <v>2.025</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -109,25 +109,25 @@
     <t>Werder Bremen II</t>
   </si>
   <si>
+    <t>Kickers Emden</t>
+  </si>
+  <si>
     <t>Hamburg SV II</t>
   </si>
   <si>
     <t>Holstein Kiel II</t>
   </si>
   <si>
-    <t>Kickers Emden</t>
+    <t>Hannover II</t>
   </si>
   <si>
-    <t>Hannover II</t>
+    <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>Bremer SV</t>
   </si>
   <si>
     <t>VfV Borussia 06 Hildesheim</t>
-  </si>
-  <si>
-    <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>SV DrochtersenAssel</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC330"/>
+  <dimension ref="A1:AC326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5397721</v>
+        <v>5397720</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5397724</v>
+        <v>5397721</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -922,55 +922,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>55</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
         <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -979,16 +979,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5397720</v>
+        <v>5397724</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1011,73 +1011,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="N6">
-        <v>5.75</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
+        <v>3.5</v>
+      </c>
+      <c r="P6">
         <v>4.333</v>
       </c>
-      <c r="P6">
-        <v>1.444</v>
-      </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5397719</v>
+        <v>5397725</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,13 +1186,13 @@
         <v>44962.41666666666</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1201,34 +1201,34 @@
         <v>55</v>
       </c>
       <c r="K8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
         <v>1.8</v>
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="W8">
-        <v>0.95</v>
+        <v>1.8</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1246,16 +1246,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1263,7 +1263,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5397722</v>
+        <v>5397719</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,70 +1275,70 @@
         <v>44962.41666666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="N9">
+        <v>1.95</v>
+      </c>
+      <c r="O9">
         <v>3.6</v>
       </c>
-      <c r="O9">
-        <v>3.2</v>
-      </c>
       <c r="P9">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>1.8</v>
       </c>
       <c r="V9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>0.8</v>
@@ -1352,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5397723</v>
+        <v>5397722</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1367,31 +1367,31 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
         <v>1.909</v>
@@ -1400,40 +1400,40 @@
         <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1441,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5397725</v>
+        <v>5397723</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1456,37 +1456,37 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="N11">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <v>1.825</v>
@@ -1495,19 +1495,19 @@
         <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1519,10 +1519,10 @@
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1631,10 +1631,10 @@
         <v>44965.64583333334</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5397734</v>
+        <v>5397735</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,76 +2165,76 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>6.5</v>
+      </c>
+      <c r="N19">
+        <v>1.166</v>
+      </c>
+      <c r="O19">
+        <v>6.5</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>-2.25</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1.8</v>
+      </c>
+      <c r="T19">
         <v>3.5</v>
       </c>
-      <c r="M19">
-        <v>2.375</v>
-      </c>
-      <c r="N19">
-        <v>2.5</v>
-      </c>
-      <c r="O19">
-        <v>3.6</v>
-      </c>
-      <c r="P19">
-        <v>2.4</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.975</v>
-      </c>
-      <c r="S19">
-        <v>1.875</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5397735</v>
+        <v>5397734</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2254,76 +2254,76 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="N20">
-        <v>1.166</v>
+        <v>2.5</v>
       </c>
       <c r="O20">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="Q20">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X20">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2343,7 +2343,7 @@
         <v>44974.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2432,10 +2432,10 @@
         <v>44974.625</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3055,7 +3055,7 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3322,7 +3322,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3414,7 +3414,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3503,7 +3503,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3589,10 +3589,10 @@
         <v>44983.375</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3767,7 +3767,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3859,7 +3859,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -4479,10 +4479,10 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
@@ -4657,10 +4657,10 @@
         <v>44997.375</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4746,7 +4746,7 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -5016,7 +5016,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5191,10 +5191,10 @@
         <v>45003.375</v>
       </c>
       <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
         <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5725,10 +5725,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -6173,7 +6173,7 @@
         <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6348,10 +6348,10 @@
         <v>45011.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>45018.375</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>40</v>
@@ -6882,10 +6882,10 @@
         <v>45018.375</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7149,10 +7149,10 @@
         <v>45021.52083333334</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>45021.59375</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7419,7 +7419,7 @@
         <v>47</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7686,7 +7686,7 @@
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -7864,7 +7864,7 @@
         <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7950,7 +7950,7 @@
         <v>45032.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8217,7 +8217,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
         <v>45</v>
@@ -8306,7 +8306,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8395,7 +8395,7 @@
         <v>45034.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
@@ -8576,7 +8576,7 @@
         <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8843,7 +8843,7 @@
         <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9018,7 +9018,7 @@
         <v>45039.375</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9107,10 +9107,10 @@
         <v>45039.375</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9285,7 +9285,7 @@
         <v>45042.55208333334</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
@@ -9362,7 +9362,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6446311</v>
+        <v>6471246</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9374,76 +9374,76 @@
         <v>45042.5625</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K100">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>3</v>
       </c>
-      <c r="U100">
-        <v>1.875</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
-      <c r="W100">
-        <v>0.75</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9451,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6471246</v>
+        <v>6446311</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9463,76 +9463,76 @@
         <v>45042.5625</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K101">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L101">
         <v>3.75</v>
       </c>
       <c r="M101">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q101">
+        <v>-0.5</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.875</v>
+      </c>
+      <c r="V101">
+        <v>1.925</v>
+      </c>
+      <c r="W101">
         <v>0.75</v>
       </c>
-      <c r="R101">
-        <v>1.85</v>
-      </c>
-      <c r="S101">
-        <v>2</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
       <c r="X101">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9730,7 +9730,7 @@
         <v>45045.375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>42</v>
@@ -9819,7 +9819,7 @@
         <v>45045.375</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -9911,7 +9911,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10086,7 +10086,7 @@
         <v>45046.375</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10175,7 +10175,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10264,7 +10264,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
         <v>45</v>
@@ -10445,7 +10445,7 @@
         <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10519,7 +10519,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5470293</v>
+        <v>5466670</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10531,76 +10531,76 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M113">
-        <v>1.833</v>
+        <v>8</v>
       </c>
       <c r="N113">
-        <v>4.5</v>
+        <v>1.181</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P113">
-        <v>1.615</v>
+        <v>13</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10608,7 +10608,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5466670</v>
+        <v>5470293</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10620,76 +10620,76 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="L114">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>8</v>
+        <v>1.833</v>
       </c>
       <c r="N114">
-        <v>1.181</v>
+        <v>4.5</v>
       </c>
       <c r="O114">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>13</v>
+        <v>1.615</v>
       </c>
       <c r="Q114">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10890,7 +10890,7 @@
         <v>46</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10976,7 +10976,7 @@
         <v>45053.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -11068,7 +11068,7 @@
         <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11332,7 +11332,7 @@
         <v>45058.54166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>43</v>
@@ -11421,10 +11421,10 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11955,7 +11955,7 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
         <v>42</v>
@@ -12044,7 +12044,7 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
         <v>30</v>
@@ -12133,10 +12133,10 @@
         <v>45062.5625</v>
       </c>
       <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s">
         <v>33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12225,7 +12225,7 @@
         <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12403,7 +12403,7 @@
         <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12759,7 +12759,7 @@
         <v>46</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12934,10 +12934,10 @@
         <v>45067.375</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -13023,7 +13023,7 @@
         <v>45072.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
         <v>46</v>
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5534348</v>
+        <v>5534347</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45073.375</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143" t="s">
+        <v>54</v>
+      </c>
+      <c r="K143">
+        <v>1.363</v>
+      </c>
+      <c r="L143">
+        <v>4.75</v>
+      </c>
+      <c r="M143">
         <v>6</v>
       </c>
-      <c r="I143">
-        <v>2</v>
-      </c>
-      <c r="J143" t="s">
-        <v>55</v>
-      </c>
-      <c r="K143">
-        <v>1.5</v>
-      </c>
-      <c r="L143">
-        <v>4</v>
-      </c>
-      <c r="M143">
-        <v>5</v>
-      </c>
       <c r="N143">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="O143">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5534347</v>
+        <v>5534348</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45073.375</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K144">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L144">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="O144">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13379,7 +13379,7 @@
         <v>45073.375</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13646,7 +13646,7 @@
         <v>45073.375</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>47</v>
@@ -13735,10 +13735,10 @@
         <v>45073.375</v>
       </c>
       <c r="F149" t="s">
+        <v>36</v>
+      </c>
+      <c r="G149" t="s">
         <v>35</v>
-      </c>
-      <c r="G149" t="s">
-        <v>37</v>
       </c>
       <c r="H149">
         <v>5</v>
@@ -14005,7 +14005,7 @@
         <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14079,7 +14079,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6920334</v>
+        <v>6920333</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14091,34 +14091,34 @@
         <v>45137.375</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N153">
         <v>1.8</v>
       </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P153">
         <v>3.3</v>
@@ -14145,10 +14145,10 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z153">
         <v>-1</v>
@@ -14157,10 +14157,10 @@
         <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14168,7 +14168,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6920335</v>
+        <v>6920334</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14180,76 +14180,76 @@
         <v>45137.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N154">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O154">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P154">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
         <v>1.95</v>
-      </c>
-      <c r="S154">
-        <v>1.85</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y154">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14257,7 +14257,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14269,55 +14269,55 @@
         <v>45137.375</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J155" t="s">
         <v>54</v>
       </c>
       <c r="K155">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L155">
         <v>4</v>
       </c>
       <c r="M155">
+        <v>6</v>
+      </c>
+      <c r="N155">
+        <v>2.55</v>
+      </c>
+      <c r="O155">
         <v>3.25</v>
       </c>
-      <c r="N155">
-        <v>1.8</v>
-      </c>
-      <c r="O155">
-        <v>4</v>
-      </c>
       <c r="P155">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
         <v>1.85</v>
-      </c>
-      <c r="S155">
-        <v>1.95</v>
       </c>
       <c r="T155">
         <v>3</v>
       </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
         <v>-1</v>
@@ -14326,19 +14326,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14447,7 +14447,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>52</v>
@@ -14714,7 +14714,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
         <v>44</v>
@@ -14803,10 +14803,10 @@
         <v>45144.375</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -15251,7 +15251,7 @@
         <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15426,7 +15426,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>38</v>
@@ -15607,7 +15607,7 @@
         <v>48</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -16138,7 +16138,7 @@
         <v>45157.375</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>49</v>
@@ -16316,10 +16316,10 @@
         <v>45157.5</v>
       </c>
       <c r="F178" t="s">
+        <v>33</v>
+      </c>
+      <c r="G178" t="s">
         <v>32</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6920359</v>
+        <v>6920360</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,55 +16405,55 @@
         <v>45158.375</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
         <v>54</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L179">
+        <v>3.75</v>
+      </c>
+      <c r="M179">
+        <v>1.571</v>
+      </c>
+      <c r="N179">
+        <v>5.25</v>
+      </c>
+      <c r="O179">
         <v>4</v>
       </c>
-      <c r="M179">
-        <v>2.6</v>
-      </c>
-      <c r="N179">
-        <v>1.7</v>
-      </c>
-      <c r="O179">
-        <v>4.2</v>
-      </c>
       <c r="P179">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
         <v>3.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16462,19 +16462,19 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6920360</v>
+        <v>6920359</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,55 +16494,55 @@
         <v>45158.375</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>54</v>
       </c>
       <c r="K180">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N180">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q180">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>3.25</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
         <v>-1</v>
@@ -16551,19 +16551,19 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.8</v>
-      </c>
-      <c r="AB180">
-        <v>-0.5</v>
-      </c>
-      <c r="AC180">
-        <v>0.45</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16583,7 +16583,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
         <v>40</v>
@@ -16761,10 +16761,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16850,7 +16850,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>38</v>
@@ -17120,7 +17120,7 @@
         <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17476,7 +17476,7 @@
         <v>51</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17918,10 +17918,10 @@
         <v>45172.375</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -18096,7 +18096,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18277,7 +18277,7 @@
         <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -18719,10 +18719,10 @@
         <v>45179.375</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18989,7 +18989,7 @@
         <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -19167,7 +19167,7 @@
         <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19345,7 +19345,7 @@
         <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19431,7 +19431,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
         <v>49</v>
@@ -19698,7 +19698,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
         <v>38</v>
@@ -19876,7 +19876,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
         <v>34</v>
@@ -20054,7 +20054,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>50</v>
@@ -20232,10 +20232,10 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -20410,7 +20410,7 @@
         <v>45193.375</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
         <v>34</v>
@@ -20855,7 +20855,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
         <v>49</v>
@@ -21036,7 +21036,7 @@
         <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21303,7 +21303,7 @@
         <v>46</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -21481,7 +21481,7 @@
         <v>51</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21567,7 +21567,7 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
         <v>34</v>
@@ -21745,7 +21745,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
         <v>42</v>
@@ -21923,7 +21923,7 @@
         <v>45207.375</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
         <v>50</v>
@@ -22190,7 +22190,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G244" t="s">
         <v>51</v>
@@ -22460,7 +22460,7 @@
         <v>34</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H247">
         <v>4</v>
@@ -22727,7 +22727,7 @@
         <v>39</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23169,7 +23169,7 @@
         <v>45220.375</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
         <v>50</v>
@@ -23347,7 +23347,7 @@
         <v>45221.375</v>
       </c>
       <c r="F257" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G257" t="s">
         <v>42</v>
@@ -23525,7 +23525,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
         <v>52</v>
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6920437</v>
+        <v>6920441</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,70 +23881,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J263" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K263">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L263">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M263">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N263">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O263">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P263">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q263">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T263">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U263">
         <v>1.975</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W263">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z263">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB263">
         <v>0.9750000000000001</v>
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6920441</v>
+        <v>6920437</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,70 +23970,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K264">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L264">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M264">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N264">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O264">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P264">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S264">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T264">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U264">
         <v>1.975</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA264">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
         <v>0.9750000000000001</v>
@@ -24240,7 +24240,7 @@
         <v>50</v>
       </c>
       <c r="G267" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H267">
         <v>2</v>
@@ -24329,7 +24329,7 @@
         <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24504,7 +24504,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G270" t="s">
         <v>46</v>
@@ -24593,7 +24593,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F271" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G271" t="s">
         <v>42</v>
@@ -24682,7 +24682,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,56 +25038,56 @@
         <v>45240.625</v>
       </c>
       <c r="F276" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H276">
         <v>1</v>
       </c>
       <c r="I276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
         <v>54</v>
       </c>
       <c r="K276">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L276">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M276">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N276">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O276">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P276">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q276">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S276">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T276">
         <v>3.25</v>
       </c>
       <c r="U276">
+        <v>1.925</v>
+      </c>
+      <c r="V276">
         <v>1.875</v>
       </c>
-      <c r="V276">
-        <v>1.925</v>
-      </c>
       <c r="W276">
         <v>-1</v>
       </c>
@@ -25095,19 +25095,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB276">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25115,7 +25115,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25127,56 +25127,56 @@
         <v>45240.625</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G277" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H277">
         <v>1</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J277" t="s">
         <v>54</v>
       </c>
       <c r="K277">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L277">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M277">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N277">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O277">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P277">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R277">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
         <v>3.25</v>
       </c>
       <c r="U277">
+        <v>1.875</v>
+      </c>
+      <c r="V277">
         <v>1.925</v>
       </c>
-      <c r="V277">
-        <v>1.875</v>
-      </c>
       <c r="W277">
         <v>-1</v>
       </c>
@@ -25184,19 +25184,19 @@
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC277">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25219,7 +25219,7 @@
         <v>42</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H278">
         <v>5</v>
@@ -25308,7 +25308,7 @@
         <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -25575,7 +25575,7 @@
         <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H282">
         <v>2</v>
@@ -25839,7 +25839,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G285" t="s">
         <v>45</v>
@@ -26106,7 +26106,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G288" t="s">
         <v>48</v>
@@ -26287,7 +26287,7 @@
         <v>46</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26554,7 +26554,7 @@
         <v>52</v>
       </c>
       <c r="G293" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -26729,7 +26729,7 @@
         <v>45256.375</v>
       </c>
       <c r="F295" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G295" t="s">
         <v>44</v>
@@ -26818,7 +26818,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G296" t="s">
         <v>40</v>
@@ -27174,7 +27174,7 @@
         <v>45270.4375</v>
       </c>
       <c r="F300" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G300" t="s">
         <v>49</v>
@@ -27263,7 +27263,7 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G301" t="s">
         <v>29</v>
@@ -27444,7 +27444,7 @@
         <v>48</v>
       </c>
       <c r="G303" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27622,7 +27622,7 @@
         <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -27708,7 +27708,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F306" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G306" t="s">
         <v>48</v>
@@ -27886,7 +27886,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
         <v>40</v>
@@ -28153,10 +28153,10 @@
         <v>45333.375</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G311" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H311">
         <v>2</v>
@@ -28512,7 +28512,7 @@
         <v>49</v>
       </c>
       <c r="G315" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -28601,7 +28601,7 @@
         <v>38</v>
       </c>
       <c r="G316" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H316">
         <v>2</v>
@@ -28865,7 +28865,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
         <v>29</v>
@@ -28954,10 +28954,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G320" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -29209,7 +29209,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6919341</v>
+        <v>6920510</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29218,49 +29218,49 @@
         <v>28</v>
       </c>
       <c r="E323" s="2">
-        <v>45346.33333333334</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F323" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G323" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K323">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M323">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N323">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O323">
         <v>4</v>
       </c>
       <c r="P323">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
         <v>1.825</v>
       </c>
-      <c r="S323">
+      <c r="T323">
+        <v>3</v>
+      </c>
+      <c r="U323">
+        <v>1.825</v>
+      </c>
+      <c r="V323">
         <v>2.025</v>
-      </c>
-      <c r="T323">
-        <v>3.5</v>
-      </c>
-      <c r="U323">
-        <v>2</v>
-      </c>
-      <c r="V323">
-        <v>1.85</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7136647</v>
+        <v>6920512</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29292,49 +29292,49 @@
         <v>28</v>
       </c>
       <c r="E324" s="2">
-        <v>45346.375</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F324" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G324" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K324">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L324">
         <v>4</v>
       </c>
       <c r="M324">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N324">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O324">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P324">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q324">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R324">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S324">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T324">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U324">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V324">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W324">
         <v>0</v>
@@ -29357,7 +29357,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6920507</v>
+        <v>6920513</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29366,49 +29366,49 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45346.375</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F325" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G325" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K325">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L325">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M325">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N325">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="O325">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P325">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="Q325">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R325">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S325">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T325">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U325">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V325">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29431,7 +29431,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6920508</v>
+        <v>6920514</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29440,49 +29440,49 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45346.375</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G326" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K326">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L326">
         <v>4</v>
       </c>
       <c r="M326">
+        <v>1.615</v>
+      </c>
+      <c r="N326">
+        <v>6.5</v>
+      </c>
+      <c r="O326">
         <v>5</v>
       </c>
-      <c r="N326">
-        <v>1.4</v>
-      </c>
-      <c r="O326">
-        <v>4.5</v>
-      </c>
       <c r="P326">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q326">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R326">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T326">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U326">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V326">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29497,302 +29497,6 @@
         <v>0</v>
       </c>
       <c r="AA326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:29">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="B327">
-        <v>6920510</v>
-      </c>
-      <c r="C327" t="s">
-        <v>28</v>
-      </c>
-      <c r="D327" t="s">
-        <v>28</v>
-      </c>
-      <c r="E327" s="2">
-        <v>45346.45833333334</v>
-      </c>
-      <c r="F327" t="s">
-        <v>48</v>
-      </c>
-      <c r="G327" t="s">
-        <v>39</v>
-      </c>
-      <c r="K327">
-        <v>1.444</v>
-      </c>
-      <c r="L327">
-        <v>4.333</v>
-      </c>
-      <c r="M327">
-        <v>5.25</v>
-      </c>
-      <c r="N327">
-        <v>1.55</v>
-      </c>
-      <c r="O327">
-        <v>4.2</v>
-      </c>
-      <c r="P327">
-        <v>4.333</v>
-      </c>
-      <c r="Q327">
-        <v>-1</v>
-      </c>
-      <c r="R327">
-        <v>1.925</v>
-      </c>
-      <c r="S327">
-        <v>1.925</v>
-      </c>
-      <c r="T327">
-        <v>3.25</v>
-      </c>
-      <c r="U327">
-        <v>1.875</v>
-      </c>
-      <c r="V327">
-        <v>1.975</v>
-      </c>
-      <c r="W327">
-        <v>0</v>
-      </c>
-      <c r="X327">
-        <v>0</v>
-      </c>
-      <c r="Y327">
-        <v>0</v>
-      </c>
-      <c r="Z327">
-        <v>0</v>
-      </c>
-      <c r="AA327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:29">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="B328">
-        <v>6920513</v>
-      </c>
-      <c r="C328" t="s">
-        <v>28</v>
-      </c>
-      <c r="D328" t="s">
-        <v>28</v>
-      </c>
-      <c r="E328" s="2">
-        <v>45347.41666666666</v>
-      </c>
-      <c r="F328" t="s">
-        <v>44</v>
-      </c>
-      <c r="G328" t="s">
-        <v>50</v>
-      </c>
-      <c r="K328">
-        <v>1.363</v>
-      </c>
-      <c r="L328">
-        <v>4.75</v>
-      </c>
-      <c r="M328">
-        <v>6</v>
-      </c>
-      <c r="N328">
-        <v>1.3</v>
-      </c>
-      <c r="O328">
-        <v>5</v>
-      </c>
-      <c r="P328">
-        <v>7</v>
-      </c>
-      <c r="Q328">
-        <v>-1.5</v>
-      </c>
-      <c r="R328">
-        <v>1.825</v>
-      </c>
-      <c r="S328">
-        <v>2.025</v>
-      </c>
-      <c r="T328">
-        <v>3.25</v>
-      </c>
-      <c r="U328">
-        <v>1.875</v>
-      </c>
-      <c r="V328">
-        <v>1.975</v>
-      </c>
-      <c r="W328">
-        <v>0</v>
-      </c>
-      <c r="X328">
-        <v>0</v>
-      </c>
-      <c r="Y328">
-        <v>0</v>
-      </c>
-      <c r="Z328">
-        <v>0</v>
-      </c>
-      <c r="AA328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:29">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="B329">
-        <v>6920512</v>
-      </c>
-      <c r="C329" t="s">
-        <v>28</v>
-      </c>
-      <c r="D329" t="s">
-        <v>28</v>
-      </c>
-      <c r="E329" s="2">
-        <v>45347.41666666666</v>
-      </c>
-      <c r="F329" t="s">
-        <v>29</v>
-      </c>
-      <c r="G329" t="s">
-        <v>35</v>
-      </c>
-      <c r="K329">
-        <v>1.615</v>
-      </c>
-      <c r="L329">
-        <v>4</v>
-      </c>
-      <c r="M329">
-        <v>4</v>
-      </c>
-      <c r="N329">
-        <v>1.6</v>
-      </c>
-      <c r="O329">
-        <v>4</v>
-      </c>
-      <c r="P329">
-        <v>4.2</v>
-      </c>
-      <c r="Q329">
-        <v>-1</v>
-      </c>
-      <c r="R329">
-        <v>2.025</v>
-      </c>
-      <c r="S329">
-        <v>1.825</v>
-      </c>
-      <c r="T329">
-        <v>3.25</v>
-      </c>
-      <c r="U329">
-        <v>1.975</v>
-      </c>
-      <c r="V329">
-        <v>1.875</v>
-      </c>
-      <c r="W329">
-        <v>0</v>
-      </c>
-      <c r="X329">
-        <v>0</v>
-      </c>
-      <c r="Y329">
-        <v>0</v>
-      </c>
-      <c r="Z329">
-        <v>0</v>
-      </c>
-      <c r="AA329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:29">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="B330">
-        <v>6920514</v>
-      </c>
-      <c r="C330" t="s">
-        <v>28</v>
-      </c>
-      <c r="D330" t="s">
-        <v>28</v>
-      </c>
-      <c r="E330" s="2">
-        <v>45347.45833333334</v>
-      </c>
-      <c r="F330" t="s">
-        <v>49</v>
-      </c>
-      <c r="G330" t="s">
-        <v>38</v>
-      </c>
-      <c r="K330">
-        <v>4</v>
-      </c>
-      <c r="L330">
-        <v>4</v>
-      </c>
-      <c r="M330">
-        <v>1.615</v>
-      </c>
-      <c r="N330">
-        <v>6.5</v>
-      </c>
-      <c r="O330">
-        <v>5</v>
-      </c>
-      <c r="P330">
-        <v>1.333</v>
-      </c>
-      <c r="Q330">
-        <v>1.5</v>
-      </c>
-      <c r="R330">
-        <v>1.875</v>
-      </c>
-      <c r="S330">
-        <v>1.975</v>
-      </c>
-      <c r="T330">
-        <v>3</v>
-      </c>
-      <c r="U330">
-        <v>1.825</v>
-      </c>
-      <c r="V330">
-        <v>2.025</v>
-      </c>
-      <c r="W330">
-        <v>0</v>
-      </c>
-      <c r="X330">
-        <v>0</v>
-      </c>
-      <c r="Y330">
-        <v>0</v>
-      </c>
-      <c r="Z330">
-        <v>0</v>
-      </c>
-      <c r="AA330">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -112,13 +112,13 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
-    <t>TSV Havelse</t>
+    <t>Hamburg SV II</t>
   </si>
   <si>
     <t>St Pauli II</t>
   </si>
   <si>
-    <t>Hamburg SV II</t>
+    <t>TSV Havelse</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
@@ -133,13 +133,13 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
-    <t>Eintracht Norderstedt</t>
+    <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>Eimsbutteler TV</t>
   </si>
   <si>
-    <t>FC Teutonia 05</t>
+    <t>Eintracht Norderstedt</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,52 +904,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>2.55</v>
+      </c>
+      <c r="O5">
         <v>3.25</v>
       </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
-      </c>
-      <c r="S5">
-        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -958,19 +958,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920335</v>
+        <v>6920333</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.85</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6920343</v>
+        <v>6919324</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1628,43 +1628,43 @@
         <v>47</v>
       </c>
       <c r="K13">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U13">
+        <v>1.975</v>
+      </c>
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>1.975</v>
-      </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,7 +1673,7 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1682,7 +1682,7 @@
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6919324</v>
+        <v>6920343</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,10 +1794,10 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1806,43 +1806,43 @@
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N15">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1.8</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
         <v>1.975</v>
       </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.975</v>
-      </c>
-      <c r="V15">
-        <v>1.825</v>
-      </c>
       <c r="W15">
-        <v>0.2849999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2236,7 +2236,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920369</v>
+        <v>6920364</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,55 +3927,55 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
         <v>3.4</v>
       </c>
-      <c r="P39">
-        <v>2.8</v>
-      </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3984,16 +3984,16 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4016,7 +4016,7 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920364</v>
+        <v>6920369</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,55 +4105,55 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
         <v>3.6</v>
       </c>
       <c r="M41">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
         <v>3.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,16 +4162,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
+        <v>0.8</v>
+      </c>
+      <c r="AB41">
         <v>0.925</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,73 +4639,73 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
+        <v>3.75</v>
+      </c>
+      <c r="M47">
+        <v>2.55</v>
+      </c>
+      <c r="N47">
+        <v>2.7</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>4.5</v>
-      </c>
-      <c r="N47">
-        <v>1.4</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.925</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>3.25</v>
+      </c>
+      <c r="U47">
+        <v>1.95</v>
+      </c>
+      <c r="V47">
         <v>1.9</v>
       </c>
-      <c r="S47">
-        <v>1.95</v>
-      </c>
-      <c r="T47">
-        <v>3.5</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>0.95</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4731,7 +4731,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6919327</v>
+        <v>6920376</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49">
+        <v>1.571</v>
+      </c>
+      <c r="L49">
         <v>4</v>
       </c>
-      <c r="I49">
+      <c r="M49">
+        <v>4.5</v>
+      </c>
+      <c r="N49">
+        <v>1.4</v>
+      </c>
+      <c r="O49">
+        <v>4.75</v>
+      </c>
+      <c r="P49">
+        <v>5.25</v>
+      </c>
+      <c r="Q49">
+        <v>-1.25</v>
+      </c>
+      <c r="R49">
+        <v>1.9</v>
+      </c>
+      <c r="S49">
+        <v>1.95</v>
+      </c>
+      <c r="T49">
+        <v>3.5</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1.85</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>3.75</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.95</v>
+      </c>
+      <c r="AB49">
         <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49">
-        <v>2.2</v>
-      </c>
-      <c r="L49">
-        <v>3.75</v>
-      </c>
-      <c r="M49">
-        <v>2.55</v>
-      </c>
-      <c r="N49">
-        <v>2.7</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>2.05</v>
-      </c>
-      <c r="Q49">
-        <v>0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.925</v>
-      </c>
-      <c r="S49">
-        <v>1.925</v>
-      </c>
-      <c r="T49">
-        <v>3.25</v>
-      </c>
-      <c r="U49">
-        <v>1.95</v>
-      </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
-      <c r="W49">
-        <v>1.7</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.925</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.95</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4909,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,10 +5084,10 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s">
         <v>39</v>
-      </c>
-      <c r="G52" t="s">
-        <v>41</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,7 +5173,7 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6920382</v>
+        <v>6920381</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6920381</v>
+        <v>6920382</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,7 +5529,7 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6920385</v>
+        <v>6920384</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,73 +5707,73 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>4</v>
-      </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="L59">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O59">
         <v>4</v>
       </c>
       <c r="P59">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920384</v>
+        <v>6920385</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,73 +5796,73 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>5.5</v>
+      </c>
+      <c r="M60">
+        <v>1.222</v>
+      </c>
+      <c r="N60">
         <v>5</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60">
-        <v>2.9</v>
-      </c>
-      <c r="L60">
-        <v>3.75</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-      <c r="N60">
-        <v>3.5</v>
       </c>
       <c r="O60">
         <v>4</v>
       </c>
       <c r="P60">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
         <v>1.8</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
         <v>0.8</v>
       </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,7 +6864,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6920399</v>
+        <v>6920400</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,40 +7220,40 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
+        <v>1.7</v>
+      </c>
+      <c r="L76">
+        <v>4.2</v>
+      </c>
+      <c r="M76">
         <v>3.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>1.85</v>
-      </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
         <v>1.9</v>
@@ -7262,22 +7262,22 @@
         <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,40 +7398,40 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N78">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
         <v>1.9</v>
@@ -7440,22 +7440,22 @@
         <v>1.9</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7464,10 +7464,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7264186</v>
+        <v>6920402</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L80">
         <v>3.75</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6920402</v>
+        <v>7264186</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O81">
         <v>3.6</v>
       </c>
       <c r="P81">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8733,7 +8733,7 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8822,7 +8822,7 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6920416</v>
+        <v>6920415</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,55 +8911,55 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>48</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
         <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N95">
         <v>4.5</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,19 +8968,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920417</v>
+        <v>6920416</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
         <v>4</v>
       </c>
       <c r="P96">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6920415</v>
+        <v>6920417</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,73 +9089,73 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N97">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9270,7 +9270,7 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N106">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P106">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O107">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z107">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10157,7 +10157,7 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10246,7 +10246,7 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
         <v>44</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7361159</v>
+        <v>6920433</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>47</v>
       </c>
       <c r="K111">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N111">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O111">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q111">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
         <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,16 +10395,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6920433</v>
+        <v>7361159</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M112">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P112">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U112">
         <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
+        <v>4.2</v>
+      </c>
+      <c r="M121">
         <v>4.75</v>
       </c>
-      <c r="M121">
-        <v>6</v>
-      </c>
       <c r="N121">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O121">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920447</v>
+        <v>6920446</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11329,61 +11329,61 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
         <v>1.975</v>
       </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920446</v>
+        <v>6920445</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O123">
+        <v>5.75</v>
+      </c>
+      <c r="P123">
+        <v>9</v>
+      </c>
+      <c r="Q123">
+        <v>-2</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
         <v>3.75</v>
       </c>
-      <c r="P123">
-        <v>1.95</v>
-      </c>
-      <c r="Q123">
-        <v>0.5</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
-      <c r="T123">
-        <v>3.25</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,73 +11495,73 @@
         <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>49</v>
+      </c>
+      <c r="K124">
+        <v>2.25</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.55</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>2.4</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>1.125</v>
-      </c>
-      <c r="L124">
-        <v>7.5</v>
-      </c>
-      <c r="M124">
-        <v>11</v>
-      </c>
-      <c r="N124">
-        <v>1.222</v>
-      </c>
-      <c r="O124">
-        <v>5.5</v>
-      </c>
-      <c r="P124">
-        <v>8.5</v>
-      </c>
-      <c r="Q124">
-        <v>-2</v>
-      </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>4</v>
-      </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M125">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P125">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R125">
+        <v>1.925</v>
+      </c>
+      <c r="S125">
         <v>1.875</v>
       </c>
-      <c r="S125">
+      <c r="T125">
+        <v>4</v>
+      </c>
+      <c r="U125">
         <v>1.925</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X125">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,56 +11848,56 @@
         <v>45240.625</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O128">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
         <v>1.875</v>
       </c>
-      <c r="V128">
-        <v>1.925</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,56 +11937,56 @@
         <v>45240.625</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N129">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
         <v>3.25</v>
       </c>
       <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="V129">
-        <v>1.875</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
@@ -11994,19 +11994,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12382,10 +12382,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13097,7 +13097,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,46 +13628,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>2.05</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
       <c r="P148">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13679,19 +13679,19 @@
         <v>1.925</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,46 +13717,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K149">
+        <v>1.666</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>3.75</v>
+      </c>
+      <c r="N149">
+        <v>1.8</v>
+      </c>
+      <c r="O149">
+        <v>3.8</v>
+      </c>
+      <c r="P149">
+        <v>3.25</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
         <v>1.95</v>
-      </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>3</v>
-      </c>
-      <c r="N149">
-        <v>2.05</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>2.8</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3</v>
@@ -13768,19 +13768,19 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
         <v>35</v>
@@ -14073,10 +14073,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" t="s">
         <v>41</v>
-      </c>
-      <c r="G153" t="s">
-        <v>39</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6920496</v>
+        <v>6920497</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,34 +15052,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>1</v>
-      </c>
-      <c r="I164">
-        <v>4</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
         <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N164">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
         <v>2.5</v>
@@ -15088,19 +15088,19 @@
         <v>0</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15115,13 +15115,13 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6920497</v>
+        <v>6920496</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,34 +15141,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
         <v>3.75</v>
       </c>
       <c r="M165">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
         <v>2.5</v>
@@ -15177,19 +15177,19 @@
         <v>0</v>
       </c>
       <c r="R165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15204,13 +15204,13 @@
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15322,7 +15322,7 @@
         <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6920506</v>
+        <v>7830717</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,46 +15675,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L171">
         <v>4</v>
       </c>
       <c r="M171">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N171">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
         <v>2.75</v>
@@ -15723,19 +15723,19 @@
         <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15744,7 +15744,7 @@
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7830717</v>
+        <v>6920506</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,46 +15853,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
+        <v>2.1</v>
+      </c>
+      <c r="N173">
+        <v>3.8</v>
+      </c>
+      <c r="O173">
         <v>4</v>
       </c>
-      <c r="N173">
-        <v>1.85</v>
-      </c>
-      <c r="O173">
-        <v>3.5</v>
-      </c>
       <c r="P173">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.75</v>
@@ -15901,19 +15901,19 @@
         <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15922,7 +15922,7 @@
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16387,7 +16387,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
-    <t>Hamburg SV II</t>
+    <t>TSV Havelse</t>
   </si>
   <si>
     <t>St Pauli II</t>
   </si>
   <si>
-    <t>TSV Havelse</t>
+    <t>Hamburg SV II</t>
+  </si>
+  <si>
+    <t>Bremer SV</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
-  </si>
-  <si>
-    <t>Bremer SV</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -136,10 +136,10 @@
     <t>FC Teutonia 05</t>
   </si>
   <si>
-    <t>Eimsbutteler TV</t>
+    <t>Eintracht Norderstedt</t>
   </si>
   <si>
-    <t>Eintracht Norderstedt</t>
+    <t>Eimsbutteler TV</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920335</v>
+        <v>6920333</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,52 +904,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -958,19 +958,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>2.55</v>
+      </c>
+      <c r="O7">
         <v>3.25</v>
       </c>
-      <c r="N7">
-        <v>1.8</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
         <v>1.85</v>
-      </c>
-      <c r="S7">
-        <v>1.95</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.475</v>
+      </c>
+      <c r="AA9">
         <v>-0.5</v>
       </c>
-      <c r="AA9">
-        <v>0.45</v>
-      </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6920344</v>
+        <v>6920343</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,43 +1705,43 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>1.5</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14">
-        <v>2.25</v>
-      </c>
-      <c r="L14">
-        <v>4.1</v>
-      </c>
       <c r="M14">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
         <v>3</v>
@@ -1753,25 +1753,25 @@
         <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>0.825</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6920343</v>
+        <v>6920344</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,43 +1794,43 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
+        <v>4.1</v>
+      </c>
+      <c r="M15">
+        <v>2.35</v>
+      </c>
+      <c r="N15">
+        <v>3.6</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="M15">
-        <v>5.25</v>
-      </c>
-      <c r="N15">
-        <v>1.444</v>
-      </c>
-      <c r="O15">
-        <v>4.2</v>
-      </c>
       <c r="P15">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
         <v>3</v>
@@ -1842,25 +1842,25 @@
         <v>1.975</v>
       </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
+        <v>2.25</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.05</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>2.75</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>1.615</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.775</v>
-      </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1.775</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>2.75</v>
       </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>1.775</v>
+      </c>
+      <c r="V21">
+        <v>2.025</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
-      <c r="W21">
-        <v>1.05</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2592,7 +2592,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920364</v>
+        <v>6920369</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,55 +3927,55 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
         <v>3.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3984,16 +3984,16 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
+        <v>0.8</v>
+      </c>
+      <c r="AB39">
         <v>0.925</v>
-      </c>
-      <c r="AB39">
-        <v>1</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920366</v>
+        <v>6920364</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
         <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
         <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920369</v>
+        <v>6920366</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41">
+        <v>1.75</v>
+      </c>
+      <c r="L41">
+        <v>3.75</v>
+      </c>
+      <c r="M41">
+        <v>3.6</v>
+      </c>
+      <c r="N41">
+        <v>1.533</v>
+      </c>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="J41" t="s">
-        <v>48</v>
-      </c>
-      <c r="K41">
-        <v>2.1</v>
-      </c>
-      <c r="L41">
-        <v>3.6</v>
-      </c>
-      <c r="M41">
-        <v>2.8</v>
-      </c>
-      <c r="N41">
-        <v>2.25</v>
-      </c>
-      <c r="O41">
-        <v>3.4</v>
-      </c>
       <c r="P41">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y41">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4728,10 +4728,10 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4906,10 +4906,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,7 +5084,7 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>39</v>
@@ -5173,7 +5173,7 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6920381</v>
+        <v>6920382</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6920382</v>
+        <v>6920381</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920386</v>
+        <v>6920384</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,43 +5618,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="L58">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
         <v>2</v>
@@ -5666,10 +5666,10 @@
         <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6920384</v>
+        <v>6920385</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,73 +5707,73 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>5.5</v>
+      </c>
+      <c r="M59">
+        <v>1.222</v>
+      </c>
+      <c r="N59">
         <v>5</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59">
-        <v>2.9</v>
-      </c>
-      <c r="L59">
-        <v>3.75</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59">
-        <v>3.5</v>
       </c>
       <c r="O59">
         <v>4</v>
       </c>
       <c r="P59">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
         <v>1.8</v>
-      </c>
-      <c r="S59">
-        <v>2</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
         <v>0.8</v>
       </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920385</v>
+        <v>6920386</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="L60">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6920392</v>
+        <v>6920393</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65">
+        <v>2.3</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.5</v>
+      </c>
+      <c r="N65">
+        <v>2.1</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.8</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>1.9</v>
+      </c>
+      <c r="T65">
+        <v>3.25</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>1.8</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>1.8</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB65">
         <v>1</v>
       </c>
-      <c r="J65" t="s">
-        <v>47</v>
-      </c>
-      <c r="K65">
-        <v>1.125</v>
-      </c>
-      <c r="L65">
-        <v>7.5</v>
-      </c>
-      <c r="M65">
-        <v>11</v>
-      </c>
-      <c r="N65">
-        <v>1.3</v>
-      </c>
-      <c r="O65">
-        <v>4.75</v>
-      </c>
-      <c r="P65">
-        <v>7.5</v>
-      </c>
-      <c r="Q65">
-        <v>-1.75</v>
-      </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.875</v>
-      </c>
-      <c r="T65">
-        <v>3.75</v>
-      </c>
-      <c r="U65">
-        <v>1.8</v>
-      </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
-      <c r="W65">
-        <v>0.3</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.875</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6920393</v>
+        <v>6920392</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M66">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>1</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,10 +6864,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,40 +7220,40 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L76">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N76">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
         <v>1.9</v>
@@ -7262,22 +7262,22 @@
         <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6919330</v>
+        <v>6920400</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,73 +7309,73 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L77">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
+        <v>3.5</v>
+      </c>
+      <c r="N77">
+        <v>1.666</v>
+      </c>
+      <c r="O77">
+        <v>4.2</v>
+      </c>
+      <c r="P77">
+        <v>3.75</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
+        <v>1.9</v>
+      </c>
+      <c r="T77">
         <v>3.25</v>
       </c>
-      <c r="N77">
-        <v>1.75</v>
-      </c>
-      <c r="O77">
-        <v>4.5</v>
-      </c>
-      <c r="P77">
+      <c r="U77">
+        <v>1.975</v>
+      </c>
+      <c r="V77">
+        <v>1.825</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>3.2</v>
       </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.8</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>3.5</v>
-      </c>
-      <c r="U77">
-        <v>1.8</v>
-      </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6920399</v>
+        <v>6919330</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,55 +7398,55 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
         <v>48</v>
       </c>
       <c r="K78">
+        <v>1.85</v>
+      </c>
+      <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
+        <v>3.25</v>
+      </c>
+      <c r="N78">
+        <v>1.75</v>
+      </c>
+      <c r="O78">
+        <v>4.5</v>
+      </c>
+      <c r="P78">
+        <v>3.2</v>
+      </c>
+      <c r="Q78">
+        <v>-0.5</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
         <v>3.5</v>
       </c>
-      <c r="L78">
-        <v>3.5</v>
-      </c>
-      <c r="M78">
-        <v>1.85</v>
-      </c>
-      <c r="N78">
-        <v>2.1</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
-      <c r="P78">
-        <v>3</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7455,19 +7455,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7665,10 +7665,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
         <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8199,10 +8199,10 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
         <v>40</v>
-      </c>
-      <c r="G87" t="s">
-        <v>41</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6922683</v>
+        <v>6920414</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N93">
+        <v>2.2</v>
+      </c>
+      <c r="O93">
+        <v>3.6</v>
+      </c>
+      <c r="P93">
+        <v>2.6</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>1.775</v>
+      </c>
+      <c r="T93">
+        <v>3.5</v>
+      </c>
+      <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
+        <v>1.925</v>
+      </c>
+      <c r="W93">
         <v>1.2</v>
       </c>
-      <c r="O93">
-        <v>5.75</v>
-      </c>
-      <c r="P93">
-        <v>9.5</v>
-      </c>
-      <c r="Q93">
-        <v>-2</v>
-      </c>
-      <c r="R93">
-        <v>2</v>
-      </c>
-      <c r="S93">
-        <v>1.8</v>
-      </c>
-      <c r="T93">
-        <v>3.75</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
       <c r="X93">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6920414</v>
+        <v>6922683</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
         <v>41</v>
       </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
       <c r="H94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6920415</v>
+        <v>6920417</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,73 +8911,73 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
         <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N95">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9000,7 +9000,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>42</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6920417</v>
+        <v>6920415</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,73 +9089,73 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N106">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O106">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB106">
         <v>-0.5</v>
       </c>
-      <c r="AB106">
-        <v>0.825</v>
-      </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M107">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N107">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P107">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>4.2</v>
+      </c>
+      <c r="M109">
+        <v>1.6</v>
+      </c>
+      <c r="N109">
+        <v>2.45</v>
+      </c>
+      <c r="O109">
+        <v>4</v>
+      </c>
+      <c r="P109">
+        <v>2.2</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
         <v>1.8</v>
       </c>
-      <c r="L109">
-        <v>4</v>
-      </c>
-      <c r="M109">
-        <v>3.25</v>
-      </c>
-      <c r="N109">
-        <v>1.5</v>
-      </c>
-      <c r="O109">
-        <v>4.333</v>
-      </c>
-      <c r="P109">
-        <v>4.75</v>
-      </c>
-      <c r="Q109">
-        <v>-1</v>
-      </c>
-      <c r="R109">
-        <v>1.825</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110">
+        <v>1.8</v>
+      </c>
+      <c r="L110">
         <v>4</v>
       </c>
-      <c r="L110">
-        <v>4.2</v>
-      </c>
       <c r="M110">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6920433</v>
+        <v>7361159</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>47</v>
       </c>
       <c r="K111">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M111">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P111">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U111">
         <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,16 +10395,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7361159</v>
+        <v>6920433</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N112">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q112">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>9</v>
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11047,10 +11047,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
         <v>34</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11136,10 +11136,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920447</v>
+        <v>6920445</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L121">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N121">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
         <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>3.5</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
       </c>
       <c r="V121">
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>33</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L123">
+        <v>4.2</v>
+      </c>
+      <c r="M123">
         <v>4.75</v>
       </c>
-      <c r="M123">
-        <v>6</v>
-      </c>
       <c r="N123">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q123">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11492,10 +11492,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,56 +11848,56 @@
         <v>45240.625</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N128">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P128">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
         <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="V128">
-        <v>1.875</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,56 +11937,56 @@
         <v>45240.625</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
         <v>3.25</v>
       </c>
       <c r="U129">
+        <v>1.925</v>
+      </c>
+      <c r="V129">
         <v>1.875</v>
       </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
@@ -11994,19 +11994,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12382,7 +12382,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6920460</v>
+        <v>6920573</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136" t="s">
+        <v>48</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136">
+        <v>1.3</v>
+      </c>
+      <c r="N136">
+        <v>4.2</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>1.6</v>
+      </c>
+      <c r="Q136">
         <v>1</v>
       </c>
-      <c r="J136" t="s">
-        <v>47</v>
-      </c>
-      <c r="K136">
-        <v>1.909</v>
-      </c>
-      <c r="L136">
-        <v>4</v>
-      </c>
-      <c r="M136">
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
         <v>3</v>
-      </c>
-      <c r="N136">
-        <v>1.571</v>
-      </c>
-      <c r="O136">
-        <v>4.5</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
-      <c r="Q136">
-        <v>-1</v>
-      </c>
-      <c r="R136">
-        <v>2.05</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>3.25</v>
       </c>
       <c r="U136">
         <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6920573</v>
+        <v>6920460</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
         <v>4</v>
       </c>
-      <c r="P137">
-        <v>1.6</v>
-      </c>
       <c r="Q137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
         <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13806,10 +13806,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14343,7 +14343,7 @@
         <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14610,7 +14610,7 @@
         <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15052,7 +15052,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6920496</v>
+        <v>6920498</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
+        <v>2.6</v>
+      </c>
+      <c r="N165">
         <v>2.25</v>
       </c>
-      <c r="N165">
-        <v>2.375</v>
-      </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,16 +15198,16 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920498</v>
+        <v>6920496</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N166">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,16 +15287,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15319,7 +15319,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7830717</v>
+        <v>6920503</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,13 +15675,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15690,40 +15690,40 @@
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M171">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N171">
         <v>1.85</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q171">
         <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>0.8500000000000001</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
+        <v>0.925</v>
+      </c>
+      <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
         <v>1</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6920503</v>
+        <v>6920506</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,40 +15764,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>49</v>
+      </c>
+      <c r="K172">
+        <v>2.6</v>
+      </c>
+      <c r="L172">
         <v>4</v>
       </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172" t="s">
-        <v>47</v>
-      </c>
-      <c r="K172">
-        <v>1.666</v>
-      </c>
-      <c r="L172">
-        <v>4.2</v>
-      </c>
       <c r="M172">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N172">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="O172">
         <v>4</v>
       </c>
       <c r="P172">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
         <v>1.925</v>
@@ -15806,19 +15806,19 @@
         <v>1.925</v>
       </c>
       <c r="T172">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -15830,10 +15830,10 @@
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6920506</v>
+        <v>7830717</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,46 +15853,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q173">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T173">
         <v>2.75</v>
@@ -15901,19 +15901,19 @@
         <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X173">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15922,7 +15922,7 @@
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7136647</v>
+        <v>6920508</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45346.375</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X176">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6920508</v>
+        <v>7136647</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45346.375</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N177">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16387,10 +16387,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16546,6 +16546,850 @@
       </c>
       <c r="AC180">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>7764321</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45350.60416666666</v>
+      </c>
+      <c r="F181" t="s">
+        <v>44</v>
+      </c>
+      <c r="G181" t="s">
+        <v>39</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>47</v>
+      </c>
+      <c r="K181">
+        <v>1.8</v>
+      </c>
+      <c r="L181">
+        <v>3.75</v>
+      </c>
+      <c r="M181">
+        <v>3.4</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>3</v>
+      </c>
+      <c r="Q181">
+        <v>-0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.825</v>
+      </c>
+      <c r="S181">
+        <v>2.025</v>
+      </c>
+      <c r="T181">
+        <v>3.25</v>
+      </c>
+      <c r="U181">
+        <v>1.975</v>
+      </c>
+      <c r="V181">
+        <v>1.875</v>
+      </c>
+      <c r="W181">
+        <v>1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.825</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7764325</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45350.64583333334</v>
+      </c>
+      <c r="F182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" t="s">
+        <v>45</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182" t="s">
+        <v>48</v>
+      </c>
+      <c r="K182">
+        <v>1.5</v>
+      </c>
+      <c r="L182">
+        <v>4.5</v>
+      </c>
+      <c r="M182">
+        <v>4.5</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182">
+        <v>3.75</v>
+      </c>
+      <c r="P182">
+        <v>2.9</v>
+      </c>
+      <c r="Q182">
+        <v>-0.25</v>
+      </c>
+      <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
+        <v>1.975</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.8</v>
+      </c>
+      <c r="V182">
+        <v>2</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>1.9</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB182">
+        <v>0.4</v>
+      </c>
+      <c r="AC182">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>6920516</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F183" t="s">
+        <v>37</v>
+      </c>
+      <c r="G183" t="s">
+        <v>34</v>
+      </c>
+      <c r="K183">
+        <v>1.3</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183">
+        <v>7</v>
+      </c>
+      <c r="N183">
+        <v>1.363</v>
+      </c>
+      <c r="O183">
+        <v>4.75</v>
+      </c>
+      <c r="P183">
+        <v>6</v>
+      </c>
+      <c r="Q183">
+        <v>-1.5</v>
+      </c>
+      <c r="R183">
+        <v>1.975</v>
+      </c>
+      <c r="S183">
+        <v>1.875</v>
+      </c>
+      <c r="T183">
+        <v>3.5</v>
+      </c>
+      <c r="U183">
+        <v>1.975</v>
+      </c>
+      <c r="V183">
+        <v>1.875</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>6920515</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F184" t="s">
+        <v>44</v>
+      </c>
+      <c r="G184" t="s">
+        <v>36</v>
+      </c>
+      <c r="K184">
+        <v>1.222</v>
+      </c>
+      <c r="L184">
+        <v>5.5</v>
+      </c>
+      <c r="M184">
+        <v>9</v>
+      </c>
+      <c r="N184">
+        <v>1.111</v>
+      </c>
+      <c r="O184">
+        <v>9</v>
+      </c>
+      <c r="P184">
+        <v>15</v>
+      </c>
+      <c r="Q184">
+        <v>-2.5</v>
+      </c>
+      <c r="R184">
+        <v>1.95</v>
+      </c>
+      <c r="S184">
+        <v>1.9</v>
+      </c>
+      <c r="T184">
+        <v>3.75</v>
+      </c>
+      <c r="U184">
+        <v>1.875</v>
+      </c>
+      <c r="V184">
+        <v>1.975</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>6920521</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45353.41666666666</v>
+      </c>
+      <c r="F185" t="s">
+        <v>46</v>
+      </c>
+      <c r="G185" t="s">
+        <v>38</v>
+      </c>
+      <c r="K185">
+        <v>1.909</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>3</v>
+      </c>
+      <c r="N185">
+        <v>1.85</v>
+      </c>
+      <c r="O185">
+        <v>4</v>
+      </c>
+      <c r="P185">
+        <v>3.1</v>
+      </c>
+      <c r="Q185">
+        <v>-0.5</v>
+      </c>
+      <c r="R185">
+        <v>1.925</v>
+      </c>
+      <c r="S185">
+        <v>1.925</v>
+      </c>
+      <c r="T185">
+        <v>3.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>1.85</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>6920522</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F186" t="s">
+        <v>41</v>
+      </c>
+      <c r="G186" t="s">
+        <v>30</v>
+      </c>
+      <c r="K186">
+        <v>3.75</v>
+      </c>
+      <c r="L186">
+        <v>4</v>
+      </c>
+      <c r="M186">
+        <v>1.666</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186">
+        <v>4.2</v>
+      </c>
+      <c r="P186">
+        <v>1.6</v>
+      </c>
+      <c r="Q186">
+        <v>0.75</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.8</v>
+      </c>
+      <c r="T186">
+        <v>3.25</v>
+      </c>
+      <c r="U186">
+        <v>1.925</v>
+      </c>
+      <c r="V186">
+        <v>1.925</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>6920518</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>45</v>
+      </c>
+      <c r="G187" t="s">
+        <v>31</v>
+      </c>
+      <c r="K187">
+        <v>2.3</v>
+      </c>
+      <c r="L187">
+        <v>3.75</v>
+      </c>
+      <c r="M187">
+        <v>2.4</v>
+      </c>
+      <c r="N187">
+        <v>3.2</v>
+      </c>
+      <c r="O187">
+        <v>4</v>
+      </c>
+      <c r="P187">
+        <v>1.833</v>
+      </c>
+      <c r="Q187">
+        <v>0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>3</v>
+      </c>
+      <c r="U187">
+        <v>1.925</v>
+      </c>
+      <c r="V187">
+        <v>1.925</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>6920519</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45353.58333333334</v>
+      </c>
+      <c r="F188" t="s">
+        <v>29</v>
+      </c>
+      <c r="G188" t="s">
+        <v>43</v>
+      </c>
+      <c r="K188">
+        <v>1.333</v>
+      </c>
+      <c r="L188">
+        <v>5</v>
+      </c>
+      <c r="M188">
+        <v>6</v>
+      </c>
+      <c r="N188">
+        <v>1.4</v>
+      </c>
+      <c r="O188">
+        <v>4.75</v>
+      </c>
+      <c r="P188">
+        <v>5</v>
+      </c>
+      <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>1.925</v>
+      </c>
+      <c r="T188">
+        <v>3.25</v>
+      </c>
+      <c r="U188">
+        <v>1.925</v>
+      </c>
+      <c r="V188">
+        <v>1.925</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>6920520</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189">
+        <v>2.25</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
+      </c>
+      <c r="M189">
+        <v>2.4</v>
+      </c>
+      <c r="N189">
+        <v>2.15</v>
+      </c>
+      <c r="O189">
+        <v>4</v>
+      </c>
+      <c r="P189">
+        <v>2.55</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>1.825</v>
+      </c>
+      <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
+        <v>1.925</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>6920517</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>42</v>
+      </c>
+      <c r="G190" t="s">
+        <v>40</v>
+      </c>
+      <c r="K190">
+        <v>1.4</v>
+      </c>
+      <c r="L190">
+        <v>4.5</v>
+      </c>
+      <c r="M190">
+        <v>5.5</v>
+      </c>
+      <c r="N190">
+        <v>1.5</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
+        <v>4.75</v>
+      </c>
+      <c r="Q190">
+        <v>-1.25</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>1.775</v>
+      </c>
+      <c r="T190">
+        <v>3.5</v>
+      </c>
+      <c r="U190">
+        <v>2.125</v>
+      </c>
+      <c r="V190">
+        <v>1.75</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>6919342</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>35</v>
+      </c>
+      <c r="G191" t="s">
+        <v>39</v>
+      </c>
+      <c r="K191">
+        <v>3.75</v>
+      </c>
+      <c r="L191">
+        <v>4</v>
+      </c>
+      <c r="M191">
+        <v>1.666</v>
+      </c>
+      <c r="N191">
+        <v>4.2</v>
+      </c>
+      <c r="O191">
+        <v>4.2</v>
+      </c>
+      <c r="P191">
+        <v>1.571</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1.825</v>
+      </c>
+      <c r="S191">
+        <v>2.025</v>
+      </c>
+      <c r="T191">
+        <v>3.25</v>
+      </c>
+      <c r="U191">
+        <v>2</v>
+      </c>
+      <c r="V191">
+        <v>1.85</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
-    <t>TSV Havelse</t>
+    <t>St Pauli II</t>
   </si>
   <si>
-    <t>St Pauli II</t>
+    <t>TSV Havelse</t>
   </si>
   <si>
     <t>Hamburg SV II</t>
   </si>
   <si>
-    <t>Bremer SV</t>
+    <t>SC SpelleVenhaus</t>
   </si>
   <si>
-    <t>SC SpelleVenhaus</t>
+    <t>Bremer SV</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -136,10 +136,10 @@
     <t>FC Teutonia 05</t>
   </si>
   <si>
-    <t>Eintracht Norderstedt</t>
+    <t>Eimsbutteler TV</t>
   </si>
   <si>
-    <t>Eimsbutteler TV</t>
+    <t>Eintracht Norderstedt</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920333</v>
+        <v>6920334</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,31 +904,31 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
         <v>1.8</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
         <v>3.3</v>
@@ -955,10 +955,10 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y5">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -967,10 +967,10 @@
         <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920334</v>
+        <v>6920333</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,31 +993,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
         <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>3.3</v>
@@ -1044,10 +1044,10 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,10 +1056,10 @@
         <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.475</v>
+      </c>
+      <c r="AA8">
         <v>-0.5</v>
       </c>
-      <c r="AA8">
-        <v>0.45</v>
-      </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6920343</v>
+        <v>6920344</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,43 +1705,43 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
+        <v>4.1</v>
+      </c>
+      <c r="M14">
+        <v>2.35</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14">
         <v>4</v>
       </c>
-      <c r="M14">
-        <v>5.25</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4.2</v>
-      </c>
       <c r="P14">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3</v>
@@ -1753,25 +1753,25 @@
         <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6920344</v>
+        <v>6920343</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,43 +1794,43 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>1.5</v>
+      </c>
+      <c r="L15">
         <v>4</v>
       </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <v>2.25</v>
-      </c>
-      <c r="L15">
-        <v>4.1</v>
-      </c>
       <c r="M15">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
         <v>3</v>
@@ -1842,25 +1842,25 @@
         <v>1.975</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB15">
-        <v>0.825</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3215,7 +3215,7 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3304,7 +3304,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920369</v>
+        <v>6920364</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,55 +3927,55 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
         <v>3.4</v>
       </c>
-      <c r="P39">
-        <v>2.8</v>
-      </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3984,16 +3984,16 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920364</v>
+        <v>6920366</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
         <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R40">
         <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920366</v>
+        <v>6920369</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>1.8</v>
+      </c>
+      <c r="T41">
+        <v>3.25</v>
+      </c>
+      <c r="U41">
         <v>1.925</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.875</v>
       </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41">
-        <v>1.775</v>
-      </c>
-      <c r="V41">
-        <v>2.025</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6919327</v>
+        <v>6920377</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,13 +4639,13 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4654,43 +4654,43 @@
         <v>47</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
         <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4699,13 +4699,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920377</v>
+        <v>6920376</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O48">
         <v>4.75</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
+        <v>3.75</v>
+      </c>
+      <c r="M49">
+        <v>2.55</v>
+      </c>
+      <c r="N49">
+        <v>2.7</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="M49">
-        <v>4.5</v>
-      </c>
-      <c r="N49">
-        <v>1.4</v>
-      </c>
-      <c r="O49">
-        <v>4.75</v>
-      </c>
       <c r="P49">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
+        <v>3.25</v>
+      </c>
+      <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
         <v>1.9</v>
       </c>
-      <c r="S49">
-        <v>1.95</v>
-      </c>
-      <c r="T49">
-        <v>3.5</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X49">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.95</v>
-      </c>
-      <c r="AB49">
-        <v>1</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,10 +4906,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,7 +5084,7 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>39</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
         <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920384</v>
+        <v>6920386</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,43 +5618,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
         <v>2</v>
@@ -5666,10 +5666,10 @@
         <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920386</v>
+        <v>6920384</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,43 +5796,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5844,10 +5844,10 @@
         <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6333,7 +6333,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6920399</v>
+        <v>6920400</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,40 +7220,40 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
+        <v>1.7</v>
+      </c>
+      <c r="L76">
+        <v>4.2</v>
+      </c>
+      <c r="M76">
         <v>3.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>1.85</v>
-      </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
         <v>1.9</v>
@@ -7262,22 +7262,22 @@
         <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,40 +7309,40 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N77">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
         <v>1.9</v>
@@ -7351,22 +7351,22 @@
         <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z77">
         <v>-1</v>
@@ -7375,10 +7375,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7665,10 +7665,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
         <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>34</v>
@@ -8199,10 +8199,10 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" t="s">
         <v>41</v>
-      </c>
-      <c r="G87" t="s">
-        <v>40</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8733,10 +8733,10 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8825,7 +8825,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6920417</v>
+        <v>6920416</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
         <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O95">
         <v>4</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920416</v>
+        <v>6920417</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N96">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
         <v>4</v>
       </c>
       <c r="P96">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>2</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>3</v>
       </c>
-      <c r="U96">
-        <v>1.975</v>
-      </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,10 +9089,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9270,7 +9270,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9359,7 +9359,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -9982,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>5</v>
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
         <v>4</v>
       </c>
-      <c r="L109">
-        <v>4.2</v>
-      </c>
       <c r="M109">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N109">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>4.2</v>
+      </c>
+      <c r="M110">
+        <v>1.6</v>
+      </c>
+      <c r="N110">
+        <v>2.45</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>2.2</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
         <v>1.8</v>
       </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>3.25</v>
-      </c>
-      <c r="N110">
-        <v>1.5</v>
-      </c>
-      <c r="O110">
-        <v>4.333</v>
-      </c>
-      <c r="P110">
-        <v>4.75</v>
-      </c>
-      <c r="Q110">
-        <v>-1</v>
-      </c>
-      <c r="R110">
-        <v>1.825</v>
-      </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10691,7 +10691,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>46</v>
@@ -10783,7 +10783,7 @@
         <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>9</v>
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11228,7 +11228,7 @@
         <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R124">
+        <v>1.925</v>
+      </c>
+      <c r="S124">
         <v>1.875</v>
       </c>
-      <c r="S124">
+      <c r="T124">
+        <v>4</v>
+      </c>
+      <c r="U124">
         <v>1.925</v>
       </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.775</v>
-      </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125">
+        <v>2.25</v>
+      </c>
+      <c r="L125">
+        <v>3.6</v>
+      </c>
+      <c r="M125">
+        <v>2.55</v>
+      </c>
+      <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>2.4</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125">
-        <v>1.125</v>
-      </c>
-      <c r="L125">
-        <v>7.5</v>
-      </c>
-      <c r="M125">
-        <v>11</v>
-      </c>
-      <c r="N125">
-        <v>1.222</v>
-      </c>
-      <c r="O125">
-        <v>5.5</v>
-      </c>
-      <c r="P125">
-        <v>8.5</v>
-      </c>
-      <c r="Q125">
-        <v>-2</v>
-      </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>4</v>
-      </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12382,7 +12382,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>44</v>
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13094,7 +13094,7 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,46 +13628,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K148">
+        <v>1.666</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>3.75</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
+        <v>3.8</v>
+      </c>
+      <c r="P148">
+        <v>3.25</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
         <v>1.95</v>
-      </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>2.05</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
-      <c r="P148">
-        <v>2.8</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.9</v>
-      </c>
-      <c r="S148">
-        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13679,19 +13679,19 @@
         <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,46 +13717,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>2.05</v>
+      </c>
+      <c r="O149">
         <v>3.75</v>
       </c>
-      <c r="N149">
-        <v>1.8</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
-      </c>
       <c r="P149">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3</v>
@@ -13768,19 +13768,19 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13806,10 +13806,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13987,7 +13987,7 @@
         <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14340,10 +14340,10 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -15052,7 +15052,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15144,7 +15144,7 @@
         <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15230,7 +15230,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
         <v>37</v>
@@ -15319,7 +15319,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15678,7 +15678,7 @@
         <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>4</v>
@@ -15764,7 +15764,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>34</v>
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16387,10 +16387,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6920516</v>
+        <v>6920515</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,46 +16743,46 @@
         <v>45353.375</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K183">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O183">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P183">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q183">
-        <v>-1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R183">
+        <v>1.875</v>
+      </c>
+      <c r="S183">
         <v>1.975</v>
       </c>
-      <c r="S183">
-        <v>1.875</v>
-      </c>
       <c r="T183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920515</v>
+        <v>6920516</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,46 +16817,46 @@
         <v>45353.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K184">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.111</v>
+        <v>1.5</v>
       </c>
       <c r="O184">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="Q184">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U184">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16906,31 +16906,31 @@
         <v>3</v>
       </c>
       <c r="N185">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P185">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16965,7 +16965,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -16980,31 +16980,31 @@
         <v>1.666</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O186">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P186">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q186">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R186">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T186">
         <v>3.25</v>
       </c>
       <c r="U186">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V186">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17060,25 +17060,25 @@
         <v>4</v>
       </c>
       <c r="P187">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="Q187">
         <v>0.5</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
         <v>3</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V187">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17128,31 +17128,31 @@
         <v>6</v>
       </c>
       <c r="N188">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P188">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17187,10 +17187,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F189" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189" t="s">
         <v>33</v>
-      </c>
-      <c r="G189" t="s">
-        <v>32</v>
       </c>
       <c r="K189">
         <v>2.25</v>
@@ -17202,31 +17202,31 @@
         <v>2.4</v>
       </c>
       <c r="N189">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O189">
         <v>4</v>
       </c>
       <c r="P189">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
         <v>3</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17264,7 +17264,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K190">
         <v>1.4</v>
@@ -17276,31 +17276,31 @@
         <v>5.5</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P190">
         <v>4.75</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17335,7 +17335,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17353,7 +17353,7 @@
         <v>4.2</v>
       </c>
       <c r="O191">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P191">
         <v>1.571</v>
@@ -17362,19 +17362,19 @@
         <v>1</v>
       </c>
       <c r="R191">
+        <v>1.85</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>3</v>
+      </c>
+      <c r="U191">
         <v>1.825</v>
       </c>
-      <c r="S191">
+      <c r="V191">
         <v>2.025</v>
-      </c>
-      <c r="T191">
-        <v>3.25</v>
-      </c>
-      <c r="U191">
-        <v>2</v>
-      </c>
-      <c r="V191">
-        <v>1.85</v>
       </c>
       <c r="W191">
         <v>0</v>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
+    <t>Hamburg SV II</t>
+  </si>
+  <si>
     <t>St Pauli II</t>
   </si>
   <si>
     <t>TSV Havelse</t>
   </si>
   <si>
-    <t>Hamburg SV II</t>
+    <t>Bremer SV</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
-  </si>
-  <si>
-    <t>Bremer SV</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920334</v>
+        <v>6920335</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
-      </c>
-      <c r="S5">
-        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920333</v>
+        <v>6920334</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,31 +993,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
         <v>1.8</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
         <v>3.3</v>
@@ -1044,10 +1044,10 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,10 +1056,10 @@
         <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920335</v>
+        <v>6920333</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.85</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.475</v>
+      </c>
+      <c r="AA9">
         <v>-0.5</v>
       </c>
-      <c r="AA9">
-        <v>0.45</v>
-      </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>2.75</v>
       </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
+      <c r="U20">
+        <v>1.775</v>
+      </c>
+      <c r="V20">
+        <v>2.025</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>1.05</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
+        <v>2.25</v>
+      </c>
+      <c r="L21">
+        <v>3.75</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <v>2.05</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>2.75</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>1.615</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.775</v>
-      </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3304,7 +3304,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3571,10 +3571,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3930,7 +3930,7 @@
         <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6920377</v>
+        <v>6920376</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,73 +4639,73 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O47">
         <v>4.75</v>
       </c>
       <c r="P47">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920376</v>
+        <v>6920377</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
+        <v>1.909</v>
+      </c>
+      <c r="N48">
         <v>4.5</v>
-      </c>
-      <c r="N48">
-        <v>1.4</v>
       </c>
       <c r="O48">
         <v>4.75</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T48">
+        <v>3.25</v>
+      </c>
+      <c r="U48">
+        <v>1.875</v>
+      </c>
+      <c r="V48">
+        <v>1.925</v>
+      </c>
+      <c r="W48">
         <v>3.5</v>
       </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4906,7 +4906,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>33</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5707,7 +5707,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6333,7 +6333,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,7 +6864,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,40 +7220,40 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L76">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N76">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
         <v>1.9</v>
@@ -7262,22 +7262,22 @@
         <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6920399</v>
+        <v>6919330</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,55 +7309,55 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
         <v>48</v>
       </c>
       <c r="K77">
+        <v>1.85</v>
+      </c>
+      <c r="L77">
+        <v>3.8</v>
+      </c>
+      <c r="M77">
+        <v>3.25</v>
+      </c>
+      <c r="N77">
+        <v>1.75</v>
+      </c>
+      <c r="O77">
+        <v>4.5</v>
+      </c>
+      <c r="P77">
+        <v>3.2</v>
+      </c>
+      <c r="Q77">
+        <v>-0.5</v>
+      </c>
+      <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
+        <v>2</v>
+      </c>
+      <c r="T77">
         <v>3.5</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>1.85</v>
-      </c>
-      <c r="N77">
-        <v>2.1</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.9</v>
-      </c>
-      <c r="S77">
-        <v>1.9</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7366,19 +7366,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6919330</v>
+        <v>6920400</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,73 +7398,73 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
+        <v>3.5</v>
+      </c>
+      <c r="N78">
+        <v>1.666</v>
+      </c>
+      <c r="O78">
+        <v>4.2</v>
+      </c>
+      <c r="P78">
+        <v>3.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.75</v>
+      </c>
+      <c r="R78">
+        <v>1.9</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
         <v>3.25</v>
       </c>
-      <c r="N78">
-        <v>1.75</v>
-      </c>
-      <c r="O78">
-        <v>4.5</v>
-      </c>
-      <c r="P78">
+      <c r="U78">
+        <v>1.975</v>
+      </c>
+      <c r="V78">
+        <v>1.825</v>
+      </c>
+      <c r="W78">
+        <v>-1</v>
+      </c>
+      <c r="X78">
         <v>3.2</v>
       </c>
-      <c r="Q78">
-        <v>-0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.8</v>
-      </c>
-      <c r="S78">
-        <v>2</v>
-      </c>
-      <c r="T78">
-        <v>3.5</v>
-      </c>
-      <c r="U78">
-        <v>1.8</v>
-      </c>
-      <c r="V78">
-        <v>2</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>-1</v>
-      </c>
       <c r="Y78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6920402</v>
+        <v>7264186</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
         <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7264186</v>
+        <v>6920402</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N81">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
         <v>3.6</v>
       </c>
       <c r="P81">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
         <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8736,7 +8736,7 @@
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8911,7 +8911,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>42</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920417</v>
+        <v>6920415</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,73 +9000,73 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6920415</v>
+        <v>6920417</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,73 +9089,73 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N97">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9270,7 +9270,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N106">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P106">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O107">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z107">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>4.2</v>
+      </c>
+      <c r="M109">
+        <v>1.6</v>
+      </c>
+      <c r="N109">
+        <v>2.45</v>
+      </c>
+      <c r="O109">
+        <v>4</v>
+      </c>
+      <c r="P109">
+        <v>2.2</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
         <v>1.8</v>
       </c>
-      <c r="L109">
-        <v>4</v>
-      </c>
-      <c r="M109">
-        <v>3.25</v>
-      </c>
-      <c r="N109">
-        <v>1.5</v>
-      </c>
-      <c r="O109">
-        <v>4.333</v>
-      </c>
-      <c r="P109">
-        <v>4.75</v>
-      </c>
-      <c r="Q109">
-        <v>-1</v>
-      </c>
-      <c r="R109">
-        <v>1.825</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110">
+        <v>1.8</v>
+      </c>
+      <c r="L110">
         <v>4</v>
       </c>
-      <c r="L110">
-        <v>4.2</v>
-      </c>
       <c r="M110">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>43</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6920441</v>
+        <v>6920437</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,70 +10691,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M115">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U115">
         <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>0.9750000000000001</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6920437</v>
+        <v>6920441</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,70 +10780,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L116">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
         <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
         <v>0.9750000000000001</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
+        <v>4.2</v>
+      </c>
+      <c r="M121">
         <v>4.75</v>
       </c>
-      <c r="M121">
-        <v>6</v>
-      </c>
       <c r="N121">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O121">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920447</v>
+        <v>6920445</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P123">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>3.75</v>
+      </c>
+      <c r="U123">
         <v>1.975</v>
-      </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
-      <c r="T123">
-        <v>3.5</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>49</v>
+      </c>
+      <c r="K124">
+        <v>2.25</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.55</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>2.4</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>1.125</v>
-      </c>
-      <c r="L124">
-        <v>7.5</v>
-      </c>
-      <c r="M124">
-        <v>11</v>
-      </c>
-      <c r="N124">
-        <v>1.222</v>
-      </c>
-      <c r="O124">
-        <v>5.5</v>
-      </c>
-      <c r="P124">
-        <v>8.5</v>
-      </c>
-      <c r="Q124">
-        <v>-2</v>
-      </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>4</v>
-      </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M125">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P125">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R125">
+        <v>1.925</v>
+      </c>
+      <c r="S125">
         <v>1.875</v>
       </c>
-      <c r="S125">
+      <c r="T125">
+        <v>4</v>
+      </c>
+      <c r="U125">
         <v>1.925</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X125">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12382,7 +12382,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>44</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6920497</v>
+        <v>6920498</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,52 +15052,52 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
         <v>1.925</v>
-      </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
       </c>
       <c r="V164">
         <v>1.925</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6920498</v>
+        <v>6920496</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,55 +15141,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15198,16 +15198,16 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920496</v>
+        <v>6920497</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,34 +15230,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
         <v>1</v>
-      </c>
-      <c r="I166">
-        <v>4</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L166">
         <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N166">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P166">
         <v>2.5</v>
@@ -15266,19 +15266,19 @@
         <v>0</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15293,13 +15293,13 @@
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,7 +15319,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6920503</v>
+        <v>7830717</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,13 +15675,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15690,40 +15690,40 @@
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L171">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M171">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N171">
         <v>1.85</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
         <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
         <v>0.8500000000000001</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15764,10 +15764,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7830717</v>
+        <v>6920503</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,13 +15853,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15868,40 +15868,40 @@
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N173">
         <v>1.85</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
         <v>0.8500000000000001</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>0.925</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
         <v>1</v>
       </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16387,7 +16387,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6920515</v>
+        <v>6920516</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,61 +16743,76 @@
         <v>45353.375</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L183">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N183">
-        <v>1.166</v>
+        <v>1.55</v>
       </c>
       <c r="O183">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q183">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
+        <v>3.5</v>
+      </c>
+      <c r="U183">
+        <v>1.925</v>
+      </c>
+      <c r="V183">
         <v>1.875</v>
       </c>
-      <c r="S183">
-        <v>1.975</v>
-      </c>
-      <c r="T183">
-        <v>3.75</v>
-      </c>
-      <c r="U183">
-        <v>1.9</v>
-      </c>
-      <c r="V183">
-        <v>1.95</v>
-      </c>
       <c r="W183">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA183">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16805,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920516</v>
+        <v>6920515</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,61 +16832,76 @@
         <v>45353.375</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P184">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>3.75</v>
+      </c>
+      <c r="U184">
         <v>1.875</v>
       </c>
-      <c r="S184">
+      <c r="V184">
         <v>1.975</v>
       </c>
-      <c r="T184">
-        <v>3.5</v>
-      </c>
-      <c r="U184">
-        <v>1.925</v>
-      </c>
-      <c r="V184">
-        <v>1.925</v>
-      </c>
       <c r="W184">
-        <v>0</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16896,6 +16926,15 @@
       <c r="G185" t="s">
         <v>38</v>
       </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185" t="s">
+        <v>48</v>
+      </c>
       <c r="K185">
         <v>1.909</v>
       </c>
@@ -16906,46 +16945,52 @@
         <v>3</v>
       </c>
       <c r="N185">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O185">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="AB185">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC185">
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16970,6 +17015,15 @@
       <c r="G186" t="s">
         <v>30</v>
       </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>49</v>
+      </c>
       <c r="K186">
         <v>3.75</v>
       </c>
@@ -16983,43 +17037,49 @@
         <v>5.5</v>
       </c>
       <c r="O186">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="Q186">
         <v>1.25</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T186">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U186">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17044,6 +17104,15 @@
       <c r="G187" t="s">
         <v>31</v>
       </c>
+      <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>47</v>
+      </c>
       <c r="K187">
         <v>2.3</v>
       </c>
@@ -17054,46 +17123,52 @@
         <v>2.4</v>
       </c>
       <c r="N187">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O187">
         <v>4</v>
       </c>
       <c r="P187">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q187">
         <v>0.5</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB187">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC187">
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17118,6 +17193,15 @@
       <c r="G188" t="s">
         <v>43</v>
       </c>
+      <c r="H188">
+        <v>3</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>47</v>
+      </c>
       <c r="K188">
         <v>1.333</v>
       </c>
@@ -17128,25 +17212,25 @@
         <v>6</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O188">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U188">
         <v>1.975</v>
@@ -17155,19 +17239,25 @@
         <v>1.875</v>
       </c>
       <c r="W188">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0</v>
       </c>
-      <c r="X188">
-        <v>0</v>
-      </c>
-      <c r="Y188">
-        <v>0</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
-        <v>0</v>
+      <c r="AC188">
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17175,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6920520</v>
+        <v>6920517</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17187,46 +17277,46 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M189">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N189">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17249,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6920517</v>
+        <v>6920520</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17261,46 +17351,46 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K190">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="O190">
         <v>4</v>
       </c>
       <c r="P190">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17335,7 +17425,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17350,31 +17440,31 @@
         <v>1.666</v>
       </c>
       <c r="N191">
+        <v>4.75</v>
+      </c>
+      <c r="O191">
         <v>4.2</v>
       </c>
-      <c r="O191">
-        <v>4</v>
-      </c>
       <c r="P191">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="Q191">
         <v>1</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
         <v>3</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
         <v>0</v>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
+    <t>TSV Havelse</t>
+  </si>
+  <si>
     <t>Hamburg SV II</t>
   </si>
   <si>
     <t>St Pauli II</t>
   </si>
   <si>
-    <t>TSV Havelse</t>
+    <t>SC SpelleVenhaus</t>
   </si>
   <si>
     <t>Bremer SV</t>
-  </si>
-  <si>
-    <t>SC SpelleVenhaus</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -133,13 +133,13 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
-    <t>FC Teutonia 05</t>
+    <t>Eintracht Norderstedt</t>
   </si>
   <si>
     <t>Eimsbutteler TV</t>
   </si>
   <si>
-    <t>Eintracht Norderstedt</t>
+    <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920335</v>
+        <v>6920333</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,52 +904,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -958,19 +958,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920334</v>
+        <v>6920335</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
         <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>1.95</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920333</v>
+        <v>6920334</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,31 +1082,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
         <v>1.8</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
         <v>3.3</v>
@@ -1133,10 +1133,10 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y7">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1145,10 +1145,10 @@
         <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.475</v>
+      </c>
+      <c r="AA8">
         <v>-0.5</v>
       </c>
-      <c r="AA8">
-        <v>0.45</v>
-      </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6919324</v>
+        <v>6920343</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1628,43 +1628,43 @@
         <v>47</v>
       </c>
       <c r="K13">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N13">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q13">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="S13">
-        <v>1.825</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>0.2849999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,16 +1673,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6920343</v>
+        <v>6919324</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,10 +1794,10 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1806,43 +1806,43 @@
         <v>47</v>
       </c>
       <c r="K15">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="O15">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
+        <v>1.975</v>
+      </c>
+      <c r="V15">
         <v>1.825</v>
       </c>
-      <c r="V15">
-        <v>1.975</v>
-      </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,7 +1851,7 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1860,7 +1860,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
+        <v>2.25</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.05</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>2.75</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>1.615</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.775</v>
-      </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1.775</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>2.75</v>
       </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>1.775</v>
+      </c>
+      <c r="V21">
+        <v>2.025</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
-      <c r="W21">
-        <v>1.05</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2948,10 +2948,10 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3304,7 +3304,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920364</v>
+        <v>6920366</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
         <v>3.6</v>
       </c>
       <c r="N39">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
         <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920366</v>
+        <v>6920364</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
         <v>34</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
         <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
         <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,73 +4639,73 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
+        <v>3.75</v>
+      </c>
+      <c r="M47">
+        <v>2.55</v>
+      </c>
+      <c r="N47">
+        <v>2.7</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>4.5</v>
-      </c>
-      <c r="N47">
-        <v>1.4</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.925</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>3.25</v>
+      </c>
+      <c r="U47">
+        <v>1.95</v>
+      </c>
+      <c r="V47">
         <v>1.9</v>
       </c>
-      <c r="S47">
-        <v>1.95</v>
-      </c>
-      <c r="T47">
-        <v>3.5</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>0.95</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920377</v>
+        <v>6920376</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O48">
         <v>4.75</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6919327</v>
+        <v>6920377</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,13 +4817,13 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4832,43 +4832,43 @@
         <v>47</v>
       </c>
       <c r="K49">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
         <v>3.75</v>
       </c>
       <c r="M49">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N49">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P49">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T49">
         <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4877,13 +4877,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,10 +4906,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,10 +5084,10 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
         <v>41</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
         <v>34</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5529,10 +5529,10 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920386</v>
+        <v>6920384</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,43 +5618,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="L58">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
         <v>2</v>
@@ -5666,10 +5666,10 @@
         <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6920385</v>
+        <v>6920386</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="L59">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M59">
-        <v>1.222</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920384</v>
+        <v>6920385</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,73 +5796,73 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>5.5</v>
+      </c>
+      <c r="M60">
+        <v>1.222</v>
+      </c>
+      <c r="N60">
         <v>5</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
-      <c r="K60">
-        <v>2.9</v>
-      </c>
-      <c r="L60">
-        <v>3.75</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-      <c r="N60">
-        <v>3.5</v>
       </c>
       <c r="O60">
         <v>4</v>
       </c>
       <c r="P60">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
         <v>1.8</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
         <v>0.8</v>
       </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6333,7 +6333,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,7 +6864,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6920399</v>
+        <v>6919330</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,55 +7220,55 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>48</v>
       </c>
       <c r="K76">
+        <v>1.85</v>
+      </c>
+      <c r="L76">
+        <v>3.8</v>
+      </c>
+      <c r="M76">
+        <v>3.25</v>
+      </c>
+      <c r="N76">
+        <v>1.75</v>
+      </c>
+      <c r="O76">
+        <v>4.5</v>
+      </c>
+      <c r="P76">
+        <v>3.2</v>
+      </c>
+      <c r="Q76">
+        <v>-0.5</v>
+      </c>
+      <c r="R76">
+        <v>1.8</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>1.85</v>
-      </c>
-      <c r="N76">
-        <v>2.1</v>
-      </c>
-      <c r="O76">
-        <v>3.25</v>
-      </c>
-      <c r="P76">
-        <v>3</v>
-      </c>
-      <c r="Q76">
-        <v>-0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.9</v>
-      </c>
-      <c r="S76">
-        <v>1.9</v>
-      </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,19 +7277,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6919330</v>
+        <v>6920399</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,55 +7309,55 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>48</v>
       </c>
       <c r="K77">
+        <v>3.5</v>
+      </c>
+      <c r="L77">
+        <v>3.5</v>
+      </c>
+      <c r="M77">
         <v>1.85</v>
       </c>
-      <c r="L77">
-        <v>3.8</v>
-      </c>
-      <c r="M77">
+      <c r="N77">
+        <v>2.1</v>
+      </c>
+      <c r="O77">
         <v>3.25</v>
       </c>
-      <c r="N77">
-        <v>1.75</v>
-      </c>
-      <c r="O77">
-        <v>4.5</v>
-      </c>
       <c r="P77">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7366,19 +7366,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>45</v>
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7264186</v>
+        <v>6920402</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L80">
         <v>3.75</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6920402</v>
+        <v>7264186</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O81">
         <v>3.6</v>
       </c>
       <c r="P81">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
         <v>33</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8733,10 +8733,10 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8822,7 +8822,7 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
         <v>40</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6920416</v>
+        <v>6920415</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,52 +8914,52 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
         <v>48</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L95">
         <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N95">
         <v>4.5</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,19 +8968,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920415</v>
+        <v>6920416</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,52 +9003,52 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>48</v>
       </c>
       <c r="K96">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
         <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,19 +9057,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9359,7 +9359,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9979,7 +9979,7 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,73 +10160,73 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
         <v>4</v>
       </c>
-      <c r="L109">
-        <v>4.2</v>
-      </c>
       <c r="M109">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N109">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,73 +10249,73 @@
         <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>4.2</v>
+      </c>
+      <c r="M110">
+        <v>1.6</v>
+      </c>
+      <c r="N110">
+        <v>2.45</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>2.2</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
         <v>1.8</v>
       </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>3.25</v>
-      </c>
-      <c r="N110">
-        <v>1.5</v>
-      </c>
-      <c r="O110">
-        <v>4.333</v>
-      </c>
-      <c r="P110">
-        <v>4.75</v>
-      </c>
-      <c r="Q110">
-        <v>-1</v>
-      </c>
-      <c r="R110">
-        <v>1.825</v>
-      </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7361159</v>
+        <v>6920433</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>47</v>
       </c>
       <c r="K111">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N111">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O111">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q111">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
         <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,16 +10395,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6920433</v>
+        <v>7361159</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M112">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P112">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U112">
         <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>9</v>
@@ -10780,7 +10780,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920447</v>
+        <v>6920445</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L121">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N121">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
         <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>3.5</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
       </c>
       <c r="V121">
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L123">
+        <v>4.2</v>
+      </c>
+      <c r="M123">
         <v>4.75</v>
       </c>
-      <c r="M123">
-        <v>6</v>
-      </c>
       <c r="N123">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q123">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,73 +11495,73 @@
         <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R124">
+        <v>1.925</v>
+      </c>
+      <c r="S124">
         <v>1.875</v>
       </c>
-      <c r="S124">
+      <c r="T124">
+        <v>4</v>
+      </c>
+      <c r="U124">
         <v>1.925</v>
       </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.775</v>
-      </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125">
+        <v>2.25</v>
+      </c>
+      <c r="L125">
+        <v>3.6</v>
+      </c>
+      <c r="M125">
+        <v>2.55</v>
+      </c>
+      <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>2.4</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125">
-        <v>1.125</v>
-      </c>
-      <c r="L125">
-        <v>7.5</v>
-      </c>
-      <c r="M125">
-        <v>11</v>
-      </c>
-      <c r="N125">
-        <v>1.222</v>
-      </c>
-      <c r="O125">
-        <v>5.5</v>
-      </c>
-      <c r="P125">
-        <v>8.5</v>
-      </c>
-      <c r="Q125">
-        <v>-2</v>
-      </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>4</v>
-      </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12382,10 +12382,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>44</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13094,10 +13094,10 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,46 +13628,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>2.05</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
       <c r="P148">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13679,19 +13679,19 @@
         <v>1.925</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,46 +13717,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K149">
+        <v>1.666</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>3.75</v>
+      </c>
+      <c r="N149">
+        <v>1.8</v>
+      </c>
+      <c r="O149">
+        <v>3.8</v>
+      </c>
+      <c r="P149">
+        <v>3.25</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
         <v>1.95</v>
-      </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>3</v>
-      </c>
-      <c r="N149">
-        <v>2.05</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>2.8</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3</v>
@@ -13768,19 +13768,19 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13809,7 +13809,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14073,10 +14073,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>41</v>
+      </c>
+      <c r="G153" t="s">
         <v>39</v>
-      </c>
-      <c r="G153" t="s">
-        <v>41</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14340,7 +14340,7 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15055,7 +15055,7 @@
         <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6920496</v>
+        <v>6920497</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,34 +15141,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
         <v>1</v>
-      </c>
-      <c r="I165">
-        <v>4</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L165">
         <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N165">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
         <v>2.5</v>
@@ -15177,19 +15177,19 @@
         <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15204,13 +15204,13 @@
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920497</v>
+        <v>6920496</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,34 +15230,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
         <v>3.75</v>
       </c>
       <c r="M166">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N166">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
         <v>2.5</v>
@@ -15266,19 +15266,19 @@
         <v>0</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15293,13 +15293,13 @@
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15319,10 +15319,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7830717</v>
+        <v>6920506</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,46 +15675,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L171">
         <v>4</v>
       </c>
       <c r="M171">
+        <v>2.1</v>
+      </c>
+      <c r="N171">
+        <v>3.8</v>
+      </c>
+      <c r="O171">
         <v>4</v>
       </c>
-      <c r="N171">
-        <v>1.85</v>
-      </c>
-      <c r="O171">
-        <v>3.5</v>
-      </c>
       <c r="P171">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
         <v>2.75</v>
@@ -15723,19 +15723,19 @@
         <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15744,7 +15744,7 @@
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6920506</v>
+        <v>6920503</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,40 +15764,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M172">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N172">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="O172">
         <v>4</v>
       </c>
       <c r="P172">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
         <v>1.925</v>
@@ -15806,19 +15806,19 @@
         <v>1.925</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -15830,10 +15830,10 @@
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6920503</v>
+        <v>7830717</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,13 +15853,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15868,40 +15868,40 @@
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N173">
         <v>1.85</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T173">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
         <v>0.8500000000000001</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16031,7 +16031,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6920508</v>
+        <v>7136647</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45346.375</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N176">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7136647</v>
+        <v>6920508</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45346.375</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O177">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X177">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16568,7 +16568,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6920516</v>
+        <v>6920515</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,13 +16743,13 @@
         <v>45353.375</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16758,43 +16758,43 @@
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>1.55</v>
+        <v>1.166</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P183">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.55</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920515</v>
+        <v>6920516</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,13 +16832,13 @@
         <v>45353.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16847,43 +16847,43 @@
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.166</v>
+        <v>1.55</v>
       </c>
       <c r="O184">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q184">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R184">
+        <v>1.9</v>
+      </c>
+      <c r="S184">
+        <v>1.9</v>
+      </c>
+      <c r="T184">
+        <v>3.5</v>
+      </c>
+      <c r="U184">
         <v>1.925</v>
       </c>
-      <c r="S184">
-        <v>1.925</v>
-      </c>
-      <c r="T184">
-        <v>3.75</v>
-      </c>
-      <c r="U184">
+      <c r="V184">
         <v>1.875</v>
       </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6920517</v>
+        <v>6920520</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,61 +17277,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M189">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17339,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6920520</v>
+        <v>6920517</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,61 +17366,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="H190">
+        <v>5</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M190">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N190">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P190">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
         <v>2</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
         <v>2</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>1</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17425,10 +17455,19 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>47</v>
       </c>
       <c r="K191">
         <v>3.75</v>
@@ -17443,7 +17482,7 @@
         <v>4.75</v>
       </c>
       <c r="O191">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P191">
         <v>1.533</v>
@@ -17452,33 +17491,972 @@
         <v>1</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
         <v>1.925</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
         <v>1.875</v>
       </c>
       <c r="W191">
+        <v>3.75</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
+        <v>0.875</v>
+      </c>
+      <c r="AA191">
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7476605</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45357.41666666666</v>
+      </c>
+      <c r="F192" t="s">
+        <v>46</v>
+      </c>
+      <c r="G192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192" t="s">
+        <v>49</v>
+      </c>
+      <c r="K192">
+        <v>2.25</v>
+      </c>
+      <c r="L192">
+        <v>3.75</v>
+      </c>
+      <c r="M192">
+        <v>2.5</v>
+      </c>
+      <c r="N192">
+        <v>2.7</v>
+      </c>
+      <c r="O192">
+        <v>3.75</v>
+      </c>
+      <c r="P192">
+        <v>2.1</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
+        <v>1.9</v>
+      </c>
+      <c r="S192">
+        <v>1.9</v>
+      </c>
+      <c r="T192">
+        <v>3.25</v>
+      </c>
+      <c r="U192">
+        <v>1.875</v>
+      </c>
+      <c r="V192">
+        <v>1.925</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>2.75</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>0.45</v>
+      </c>
+      <c r="AA192">
+        <v>-0.5</v>
+      </c>
+      <c r="AB192">
+        <v>0.875</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7764324</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45357.625</v>
+      </c>
+      <c r="F193" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193">
         <v>0</v>
       </c>
-      <c r="X191">
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193" t="s">
+        <v>48</v>
+      </c>
+      <c r="K193">
+        <v>2.1</v>
+      </c>
+      <c r="L193">
+        <v>3.75</v>
+      </c>
+      <c r="M193">
+        <v>2.7</v>
+      </c>
+      <c r="N193">
+        <v>2.6</v>
+      </c>
+      <c r="O193">
+        <v>3.5</v>
+      </c>
+      <c r="P193">
+        <v>2.25</v>
+      </c>
+      <c r="Q193">
+        <v>0.25</v>
+      </c>
+      <c r="R193">
+        <v>1.775</v>
+      </c>
+      <c r="S193">
+        <v>2.025</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1.8</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>1.25</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>1.025</v>
+      </c>
+      <c r="AB193">
         <v>0</v>
       </c>
-      <c r="Y191">
+      <c r="AC193">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7764322</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45357.625</v>
+      </c>
+      <c r="F194" t="s">
+        <v>35</v>
+      </c>
+      <c r="G194" t="s">
+        <v>45</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194" t="s">
+        <v>48</v>
+      </c>
+      <c r="K194">
+        <v>3.25</v>
+      </c>
+      <c r="L194">
+        <v>3.8</v>
+      </c>
+      <c r="M194">
+        <v>1.85</v>
+      </c>
+      <c r="N194">
+        <v>2.8</v>
+      </c>
+      <c r="O194">
+        <v>3.6</v>
+      </c>
+      <c r="P194">
+        <v>2.15</v>
+      </c>
+      <c r="Q194">
+        <v>0.25</v>
+      </c>
+      <c r="R194">
+        <v>1.8</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.775</v>
+      </c>
+      <c r="V194">
+        <v>2.025</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>1.15</v>
+      </c>
+      <c r="Z194">
+        <v>-1</v>
+      </c>
+      <c r="AA194">
+        <v>1</v>
+      </c>
+      <c r="AB194">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC194">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6920524</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45359.64583333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" t="s">
+        <v>40</v>
+      </c>
+      <c r="K195">
+        <v>1.615</v>
+      </c>
+      <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
+        <v>1.363</v>
+      </c>
+      <c r="O195">
+        <v>4.5</v>
+      </c>
+      <c r="P195">
+        <v>6.5</v>
+      </c>
+      <c r="Q195">
+        <v>-1.5</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>1.85</v>
+      </c>
+      <c r="T195">
+        <v>3</v>
+      </c>
+      <c r="U195">
+        <v>1.85</v>
+      </c>
+      <c r="V195">
+        <v>2</v>
+      </c>
+      <c r="W195">
         <v>0</v>
       </c>
-      <c r="Z191">
+      <c r="X195">
         <v>0</v>
       </c>
-      <c r="AA191">
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6920523</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45359.64583333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>38</v>
+      </c>
+      <c r="G196" t="s">
+        <v>36</v>
+      </c>
+      <c r="K196">
+        <v>1.333</v>
+      </c>
+      <c r="L196">
+        <v>5</v>
+      </c>
+      <c r="M196">
+        <v>6</v>
+      </c>
+      <c r="N196">
+        <v>1.333</v>
+      </c>
+      <c r="O196">
+        <v>5</v>
+      </c>
+      <c r="P196">
+        <v>6.5</v>
+      </c>
+      <c r="Q196">
+        <v>-1.5</v>
+      </c>
+      <c r="R196">
+        <v>1.975</v>
+      </c>
+      <c r="S196">
+        <v>1.875</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
+        <v>2.025</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6919343</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>41</v>
+      </c>
+      <c r="G197" t="s">
+        <v>42</v>
+      </c>
+      <c r="K197">
+        <v>2.1</v>
+      </c>
+      <c r="L197">
+        <v>4</v>
+      </c>
+      <c r="M197">
+        <v>2.6</v>
+      </c>
+      <c r="N197">
+        <v>2.7</v>
+      </c>
+      <c r="O197">
+        <v>3.8</v>
+      </c>
+      <c r="P197">
+        <v>2.1</v>
+      </c>
+      <c r="Q197">
+        <v>0.25</v>
+      </c>
+      <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+      <c r="U197">
+        <v>2.025</v>
+      </c>
+      <c r="V197">
+        <v>1.825</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6920526</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F198" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" t="s">
+        <v>44</v>
+      </c>
+      <c r="K198">
+        <v>5.5</v>
+      </c>
+      <c r="L198">
+        <v>4.2</v>
+      </c>
+      <c r="M198">
+        <v>1.444</v>
+      </c>
+      <c r="N198">
+        <v>6.5</v>
+      </c>
+      <c r="O198">
+        <v>4.75</v>
+      </c>
+      <c r="P198">
+        <v>1.333</v>
+      </c>
+      <c r="Q198">
+        <v>1.5</v>
+      </c>
+      <c r="R198">
+        <v>1.925</v>
+      </c>
+      <c r="S198">
+        <v>1.925</v>
+      </c>
+      <c r="T198">
+        <v>3.5</v>
+      </c>
+      <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
+        <v>1.875</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6920525</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F199" t="s">
+        <v>33</v>
+      </c>
+      <c r="G199" t="s">
+        <v>45</v>
+      </c>
+      <c r="K199">
+        <v>1.8</v>
+      </c>
+      <c r="L199">
+        <v>3.75</v>
+      </c>
+      <c r="M199">
+        <v>3.4</v>
+      </c>
+      <c r="N199">
+        <v>1.833</v>
+      </c>
+      <c r="O199">
+        <v>3.4</v>
+      </c>
+      <c r="P199">
+        <v>3.6</v>
+      </c>
+      <c r="Q199">
+        <v>-0.5</v>
+      </c>
+      <c r="R199">
+        <v>1.925</v>
+      </c>
+      <c r="S199">
+        <v>1.925</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>2</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6920528</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F200" t="s">
+        <v>39</v>
+      </c>
+      <c r="G200" t="s">
+        <v>37</v>
+      </c>
+      <c r="K200">
+        <v>3.1</v>
+      </c>
+      <c r="L200">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>1.833</v>
+      </c>
+      <c r="N200">
+        <v>4.333</v>
+      </c>
+      <c r="O200">
+        <v>4.5</v>
+      </c>
+      <c r="P200">
+        <v>1.5</v>
+      </c>
+      <c r="Q200">
+        <v>1</v>
+      </c>
+      <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
+        <v>1.825</v>
+      </c>
+      <c r="T200">
+        <v>3.5</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
+        <v>2.025</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6920527</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" t="s">
+        <v>34</v>
+      </c>
+      <c r="K201">
+        <v>1.6</v>
+      </c>
+      <c r="L201">
+        <v>4</v>
+      </c>
+      <c r="M201">
+        <v>4.2</v>
+      </c>
+      <c r="N201">
+        <v>1.7</v>
+      </c>
+      <c r="O201">
+        <v>3.75</v>
+      </c>
+      <c r="P201">
+        <v>4</v>
+      </c>
+      <c r="Q201">
+        <v>-0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>3.25</v>
+      </c>
+      <c r="U201">
+        <v>2.025</v>
+      </c>
+      <c r="V201">
+        <v>1.825</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6920529</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>32</v>
+      </c>
+      <c r="G202" t="s">
+        <v>29</v>
+      </c>
+      <c r="K202">
+        <v>1.8</v>
+      </c>
+      <c r="L202">
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>3.25</v>
+      </c>
+      <c r="N202">
+        <v>1.727</v>
+      </c>
+      <c r="O202">
+        <v>3.8</v>
+      </c>
+      <c r="P202">
+        <v>3.6</v>
+      </c>
+      <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>2.025</v>
+      </c>
+      <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
+        <v>3</v>
+      </c>
+      <c r="U202">
+        <v>2.025</v>
+      </c>
+      <c r="V202">
+        <v>1.825</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6920530</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>46</v>
+      </c>
+      <c r="K203">
+        <v>5.25</v>
+      </c>
+      <c r="L203">
+        <v>4.333</v>
+      </c>
+      <c r="M203">
+        <v>1.444</v>
+      </c>
+      <c r="N203">
+        <v>6</v>
+      </c>
+      <c r="O203">
+        <v>4.5</v>
+      </c>
+      <c r="P203">
+        <v>1.363</v>
+      </c>
+      <c r="Q203">
+        <v>1.5</v>
+      </c>
+      <c r="R203">
+        <v>1.875</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
+        <v>3.5</v>
+      </c>
+      <c r="U203">
+        <v>1.875</v>
+      </c>
+      <c r="V203">
+        <v>1.975</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -115,16 +115,16 @@
     <t>TSV Havelse</t>
   </si>
   <si>
+    <t>St Pauli II</t>
+  </si>
+  <si>
     <t>Hamburg SV II</t>
   </si>
   <si>
-    <t>St Pauli II</t>
+    <t>Bremer SV</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
-  </si>
-  <si>
-    <t>Bremer SV</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -133,13 +133,13 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
+    <t>FC Teutonia 05</t>
+  </si>
+  <si>
     <t>Eintracht Norderstedt</t>
   </si>
   <si>
     <t>Eimsbutteler TV</t>
-  </si>
-  <si>
-    <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920335</v>
+        <v>6920334</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
         <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920334</v>
+        <v>6920335</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
         <v>1.85</v>
-      </c>
-      <c r="S7">
-        <v>1.95</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.475</v>
+      </c>
+      <c r="AA9">
         <v>-0.5</v>
       </c>
-      <c r="AA9">
-        <v>0.45</v>
-      </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,7 +1524,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6920343</v>
+        <v>6919324</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1628,43 +1628,43 @@
         <v>47</v>
       </c>
       <c r="K13">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U13">
+        <v>1.975</v>
+      </c>
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>1.975</v>
-      </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,7 +1673,7 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1682,7 +1682,7 @@
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6920344</v>
+        <v>6920343</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,43 +1705,43 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>1.5</v>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14">
-        <v>2.25</v>
-      </c>
-      <c r="L14">
-        <v>4.1</v>
-      </c>
       <c r="M14">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
         <v>3</v>
@@ -1753,25 +1753,25 @@
         <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>0.825</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6919324</v>
+        <v>6920344</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1797,70 +1797,70 @@
         <v>33</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>2.25</v>
+      </c>
+      <c r="L15">
+        <v>4.1</v>
+      </c>
+      <c r="M15">
+        <v>2.35</v>
+      </c>
+      <c r="N15">
+        <v>3.6</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>1.727</v>
+      </c>
+      <c r="Q15">
+        <v>0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>1.975</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15">
-        <v>2.2</v>
-      </c>
-      <c r="L15">
-        <v>3.6</v>
-      </c>
-      <c r="M15">
-        <v>2.625</v>
-      </c>
-      <c r="N15">
-        <v>1.285</v>
-      </c>
-      <c r="O15">
-        <v>6</v>
-      </c>
-      <c r="P15">
-        <v>6.5</v>
-      </c>
-      <c r="Q15">
-        <v>-1.75</v>
-      </c>
-      <c r="R15">
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
         <v>1.975</v>
       </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.975</v>
-      </c>
-      <c r="V15">
-        <v>1.825</v>
-      </c>
       <c r="W15">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>2.75</v>
       </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
+      <c r="U20">
+        <v>1.775</v>
+      </c>
+      <c r="V20">
+        <v>2.025</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>1.05</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
+        <v>2.25</v>
+      </c>
+      <c r="L21">
+        <v>3.75</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <v>2.05</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>2.75</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>1.615</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.775</v>
-      </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2948,10 +2948,10 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -3304,7 +3304,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920366</v>
+        <v>6920369</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>1.8</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
         <v>1.925</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.875</v>
       </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.775</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920364</v>
+        <v>6920366</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
         <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R40">
         <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920369</v>
+        <v>6920364</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,55 +4105,55 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
         <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N41">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
+        <v>3.6</v>
+      </c>
+      <c r="P41">
         <v>3.4</v>
       </c>
-      <c r="P41">
-        <v>2.8</v>
-      </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T41">
         <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,16 +4162,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6919327</v>
+        <v>6920376</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,73 +4639,73 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47">
+        <v>1.571</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="I47">
+      <c r="M47">
+        <v>4.5</v>
+      </c>
+      <c r="N47">
+        <v>1.4</v>
+      </c>
+      <c r="O47">
+        <v>4.75</v>
+      </c>
+      <c r="P47">
+        <v>5.25</v>
+      </c>
+      <c r="Q47">
+        <v>-1.25</v>
+      </c>
+      <c r="R47">
+        <v>1.9</v>
+      </c>
+      <c r="S47">
+        <v>1.95</v>
+      </c>
+      <c r="T47">
+        <v>3.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>1.85</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
+        <v>3.75</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
+        <v>0.95</v>
+      </c>
+      <c r="AB47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47">
-        <v>2.2</v>
-      </c>
-      <c r="L47">
-        <v>3.75</v>
-      </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.7</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
-      <c r="P47">
-        <v>2.05</v>
-      </c>
-      <c r="Q47">
-        <v>0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>3.25</v>
-      </c>
-      <c r="U47">
-        <v>1.95</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
-      <c r="W47">
-        <v>1.7</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>0.925</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>0.95</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920376</v>
+        <v>6920377</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
+        <v>1.909</v>
+      </c>
+      <c r="N48">
         <v>4.5</v>
-      </c>
-      <c r="N48">
-        <v>1.4</v>
       </c>
       <c r="O48">
         <v>4.75</v>
       </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T48">
+        <v>3.25</v>
+      </c>
+      <c r="U48">
+        <v>1.875</v>
+      </c>
+      <c r="V48">
+        <v>1.925</v>
+      </c>
+      <c r="W48">
         <v>3.5</v>
       </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
-      <c r="W48">
-        <v>-1</v>
-      </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6920377</v>
+        <v>6919327</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,13 +4817,13 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4832,43 +4832,43 @@
         <v>47</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
         <v>3.75</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N49">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
         <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4877,13 +4877,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,10 +4906,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,10 +5084,10 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s">
         <v>39</v>
-      </c>
-      <c r="G52" t="s">
-        <v>41</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5176,7 +5176,7 @@
         <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5529,10 +5529,10 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920384</v>
+        <v>6920385</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,73 +5618,73 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>5.5</v>
+      </c>
+      <c r="M58">
+        <v>1.222</v>
+      </c>
+      <c r="N58">
         <v>5</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>47</v>
-      </c>
-      <c r="K58">
-        <v>2.9</v>
-      </c>
-      <c r="L58">
-        <v>3.75</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-      <c r="N58">
-        <v>3.5</v>
       </c>
       <c r="O58">
         <v>4</v>
       </c>
       <c r="P58">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R58">
+        <v>2.05</v>
+      </c>
+      <c r="S58">
         <v>1.8</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
       </c>
       <c r="T58">
         <v>3.25</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>0.8</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920385</v>
+        <v>6920384</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,73 +5796,73 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="L60">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O60">
         <v>4</v>
       </c>
       <c r="P60">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6333,7 +6333,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,10 +6864,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7220,7 +7220,7 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6920399</v>
+        <v>6920400</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,40 +7309,40 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
+        <v>1.7</v>
+      </c>
+      <c r="L77">
+        <v>4.2</v>
+      </c>
+      <c r="M77">
         <v>3.5</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>1.85</v>
-      </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
         <v>1.9</v>
@@ -7351,22 +7351,22 @@
         <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
@@ -7375,10 +7375,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,40 +7398,40 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N78">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
         <v>1.9</v>
@@ -7440,22 +7440,22 @@
         <v>1.9</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7464,10 +7464,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7665,10 +7665,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
         <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
         <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8199,10 +8199,10 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
         <v>40</v>
-      </c>
-      <c r="G87" t="s">
-        <v>39</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6920414</v>
+        <v>6922683</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,73 +8736,73 @@
         <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6922683</v>
+        <v>6920414</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N94">
+        <v>2.2</v>
+      </c>
+      <c r="O94">
+        <v>3.6</v>
+      </c>
+      <c r="P94">
+        <v>2.6</v>
+      </c>
+      <c r="Q94">
+        <v>-0.25</v>
+      </c>
+      <c r="R94">
+        <v>2.025</v>
+      </c>
+      <c r="S94">
+        <v>1.775</v>
+      </c>
+      <c r="T94">
+        <v>3.5</v>
+      </c>
+      <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
+        <v>1.925</v>
+      </c>
+      <c r="W94">
         <v>1.2</v>
       </c>
-      <c r="O94">
-        <v>5.75</v>
-      </c>
-      <c r="P94">
-        <v>9.5</v>
-      </c>
-      <c r="Q94">
-        <v>-2</v>
-      </c>
-      <c r="R94">
-        <v>2</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>3.75</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6920415</v>
+        <v>6920417</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,73 +8911,73 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
         <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N95">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920416</v>
+        <v>6920415</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,52 +9003,52 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
         <v>48</v>
       </c>
       <c r="K96">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
         <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,19 +9057,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6920417</v>
+        <v>6920416</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N97">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
         <v>4</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9893,7 +9893,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9979,7 +9979,7 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10157,7 +10157,7 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10246,7 +10246,7 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
         <v>44</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6920433</v>
+        <v>7361159</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>47</v>
       </c>
       <c r="K111">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M111">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P111">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U111">
         <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,16 +10395,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7361159</v>
+        <v>6920433</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M112">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N112">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q112">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6920437</v>
+        <v>6920441</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,70 +10691,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N115">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
         <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
         <v>0.9750000000000001</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6920441</v>
+        <v>6920437</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,70 +10780,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P116">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U116">
         <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>0.9750000000000001</v>
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
+        <v>4.2</v>
+      </c>
+      <c r="M121">
         <v>4.75</v>
       </c>
-      <c r="M121">
-        <v>6</v>
-      </c>
       <c r="N121">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O121">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920447</v>
+        <v>6920445</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P123">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>3.75</v>
+      </c>
+      <c r="U123">
         <v>1.975</v>
-      </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
-      <c r="T123">
-        <v>3.5</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>49</v>
+      </c>
+      <c r="K124">
+        <v>2.25</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.55</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>2.4</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>1.125</v>
-      </c>
-      <c r="L124">
-        <v>7.5</v>
-      </c>
-      <c r="M124">
-        <v>11</v>
-      </c>
-      <c r="N124">
-        <v>1.222</v>
-      </c>
-      <c r="O124">
-        <v>5.5</v>
-      </c>
-      <c r="P124">
-        <v>8.5</v>
-      </c>
-      <c r="Q124">
-        <v>-2</v>
-      </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>4</v>
-      </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M125">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P125">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R125">
+        <v>1.925</v>
+      </c>
+      <c r="S125">
         <v>1.875</v>
       </c>
-      <c r="S125">
+      <c r="T125">
+        <v>4</v>
+      </c>
+      <c r="U125">
         <v>1.925</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X125">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12385,7 +12385,7 @@
         <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6920573</v>
+        <v>6920460</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
         <v>4</v>
       </c>
-      <c r="P136">
-        <v>1.6</v>
-      </c>
       <c r="Q136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
         <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6920460</v>
+        <v>6920573</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>1.3</v>
+      </c>
+      <c r="N137">
+        <v>4.2</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>1.6</v>
+      </c>
+      <c r="Q137">
         <v>1</v>
       </c>
-      <c r="J137" t="s">
-        <v>47</v>
-      </c>
-      <c r="K137">
-        <v>1.909</v>
-      </c>
-      <c r="L137">
-        <v>4</v>
-      </c>
-      <c r="M137">
+      <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
+        <v>2.025</v>
+      </c>
+      <c r="T137">
         <v>3</v>
-      </c>
-      <c r="N137">
-        <v>1.571</v>
-      </c>
-      <c r="O137">
-        <v>4.5</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
-      </c>
-      <c r="Q137">
-        <v>-1</v>
-      </c>
-      <c r="R137">
-        <v>2.05</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>3.25</v>
       </c>
       <c r="U137">
         <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13094,10 +13094,10 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,46 +13628,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K148">
+        <v>1.666</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>3.75</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
+        <v>3.8</v>
+      </c>
+      <c r="P148">
+        <v>3.25</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
         <v>1.95</v>
-      </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>2.05</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
-      <c r="P148">
-        <v>2.8</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.9</v>
-      </c>
-      <c r="S148">
-        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13679,19 +13679,19 @@
         <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,46 +13717,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>2.05</v>
+      </c>
+      <c r="O149">
         <v>3.75</v>
       </c>
-      <c r="N149">
-        <v>1.8</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
-      </c>
       <c r="P149">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3</v>
@@ -13768,19 +13768,19 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13806,10 +13806,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14073,10 +14073,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14340,10 +14340,10 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15055,7 +15055,7 @@
         <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
         <v>38</v>
@@ -15319,10 +15319,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15675,10 +15675,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15767,7 +15767,7 @@
         <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16031,7 +16031,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16390,7 +16390,7 @@
         <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16568,7 +16568,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16746,7 +16746,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17010,7 +17010,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6920520</v>
+        <v>6920517</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>47</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189">
+        <v>4.5</v>
+      </c>
+      <c r="M189">
+        <v>5.5</v>
+      </c>
+      <c r="N189">
+        <v>1.45</v>
+      </c>
+      <c r="O189">
+        <v>4.2</v>
+      </c>
+      <c r="P189">
+        <v>5.25</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>1.8</v>
+      </c>
+      <c r="W189">
+        <v>0.45</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
         <v>1</v>
       </c>
-      <c r="I189">
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
         <v>1</v>
       </c>
-      <c r="J189" t="s">
-        <v>49</v>
-      </c>
-      <c r="K189">
-        <v>2.25</v>
-      </c>
-      <c r="L189">
-        <v>4</v>
-      </c>
-      <c r="M189">
-        <v>2.4</v>
-      </c>
-      <c r="N189">
-        <v>2.15</v>
-      </c>
-      <c r="O189">
-        <v>3.8</v>
-      </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
-      <c r="Q189">
-        <v>-0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.975</v>
-      </c>
-      <c r="S189">
-        <v>1.875</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
-      <c r="V189">
-        <v>2</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>2.8</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
-      <c r="Z189">
-        <v>-0.5</v>
-      </c>
-      <c r="AA189">
-        <v>0.4375</v>
-      </c>
-      <c r="AB189">
-        <v>-1</v>
-      </c>
       <c r="AC189">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6920517</v>
+        <v>6920520</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>-0.5</v>
+      </c>
+      <c r="AA190">
+        <v>0.4375</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>1</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>1</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17455,10 +17455,10 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7764324</v>
+        <v>7764322</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,13 +17633,13 @@
         <v>45357.625</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>3</v>
@@ -17648,41 +17648,41 @@
         <v>48</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M193">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N193">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
       </c>
       <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
         <v>1.775</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>2.025</v>
       </c>
-      <c r="T193">
-        <v>3</v>
-      </c>
-      <c r="U193">
-        <v>2</v>
-      </c>
-      <c r="V193">
-        <v>1.8</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7764322</v>
+        <v>7764324</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,13 +17722,13 @@
         <v>45357.625</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>3</v>
@@ -17737,41 +17737,41 @@
         <v>48</v>
       </c>
       <c r="K194">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M194">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N194">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q194">
         <v>0.25</v>
       </c>
       <c r="R194">
+        <v>1.775</v>
+      </c>
+      <c r="S194">
+        <v>2.025</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
         <v>1.8</v>
       </c>
-      <c r="S194">
-        <v>2</v>
-      </c>
-      <c r="T194">
-        <v>2.75</v>
-      </c>
-      <c r="U194">
-        <v>1.775</v>
-      </c>
-      <c r="V194">
-        <v>2.025</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
@@ -17779,19 +17779,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB194">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,16 @@
         <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>47</v>
       </c>
       <c r="K195">
         <v>1.615</v>
@@ -17826,46 +17835,52 @@
         <v>4</v>
       </c>
       <c r="N195">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
         <v>3</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>0</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17903,16 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>47</v>
       </c>
       <c r="K196">
         <v>1.333</v>
@@ -17900,16 +17924,16 @@
         <v>6</v>
       </c>
       <c r="N196">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P196">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
         <v>1.975</v>
@@ -17918,28 +17942,34 @@
         <v>1.875</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB196">
+        <v>0.95</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17947,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6919343</v>
+        <v>6920526</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17956,49 +17986,49 @@
         <v>28</v>
       </c>
       <c r="E197" s="2">
-        <v>45360.41666666666</v>
+        <v>45360.47916666666</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K197">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M197">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="N197">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P197">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
         <v>1.9</v>
       </c>
-      <c r="S197">
-        <v>1.95</v>
-      </c>
       <c r="T197">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -18021,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6920526</v>
+        <v>6920525</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18030,49 +18060,49 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45360.47916666666</v>
+        <v>45361.375</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N198">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="O198">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q198">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W198">
         <v>0</v>
@@ -18095,7 +18125,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6920525</v>
+        <v>6920530</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18104,49 +18134,49 @@
         <v>28</v>
       </c>
       <c r="E199" s="2">
-        <v>45361.375</v>
+        <v>45361.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M199">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="N199">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R199">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>0</v>
@@ -18169,7 +18199,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6920528</v>
+        <v>6920529</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18181,31 +18211,31 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K200">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L200">
         <v>4</v>
       </c>
       <c r="M200">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N200">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O200">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P200">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q200">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
         <v>2.025</v>
@@ -18214,13 +18244,13 @@
         <v>1.825</v>
       </c>
       <c r="T200">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18243,7 +18273,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6920527</v>
+        <v>6920528</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18255,46 +18285,46 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K201">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L201">
         <v>4</v>
       </c>
       <c r="M201">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N201">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="O201">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U201">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18317,7 +18347,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6920529</v>
+        <v>6920527</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18329,46 +18359,46 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K202">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L202">
         <v>4</v>
       </c>
       <c r="M202">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N202">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O202">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
         <v>2.025</v>
-      </c>
-      <c r="S202">
-        <v>1.825</v>
       </c>
       <c r="T202">
         <v>3</v>
       </c>
       <c r="U202">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18383,80 +18413,6 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>6920530</v>
-      </c>
-      <c r="C203" t="s">
-        <v>28</v>
-      </c>
-      <c r="D203" t="s">
-        <v>28</v>
-      </c>
-      <c r="E203" s="2">
-        <v>45361.41666666666</v>
-      </c>
-      <c r="F203" t="s">
-        <v>35</v>
-      </c>
-      <c r="G203" t="s">
-        <v>46</v>
-      </c>
-      <c r="K203">
-        <v>5.25</v>
-      </c>
-      <c r="L203">
-        <v>4.333</v>
-      </c>
-      <c r="M203">
-        <v>1.444</v>
-      </c>
-      <c r="N203">
-        <v>6</v>
-      </c>
-      <c r="O203">
-        <v>4.5</v>
-      </c>
-      <c r="P203">
-        <v>1.363</v>
-      </c>
-      <c r="Q203">
-        <v>1.5</v>
-      </c>
-      <c r="R203">
-        <v>1.875</v>
-      </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
-      <c r="T203">
-        <v>3.5</v>
-      </c>
-      <c r="U203">
-        <v>1.875</v>
-      </c>
-      <c r="V203">
-        <v>1.975</v>
-      </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
-        <v>0</v>
-      </c>
-      <c r="Y203">
-        <v>0</v>
-      </c>
-      <c r="Z203">
-        <v>0</v>
-      </c>
-      <c r="AA203">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
-    <t>TSV Havelse</t>
+    <t>Hamburg SV II</t>
   </si>
   <si>
     <t>St Pauli II</t>
   </si>
   <si>
-    <t>Hamburg SV II</t>
+    <t>TSV Havelse</t>
   </si>
   <si>
     <t>Bremer SV</t>
@@ -133,13 +133,13 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
-    <t>FC Teutonia 05</t>
-  </si>
-  <si>
     <t>Eintracht Norderstedt</t>
   </si>
   <si>
     <t>Eimsbutteler TV</t>
+  </si>
+  <si>
+    <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,52 +904,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>2.55</v>
+      </c>
+      <c r="O5">
         <v>3.25</v>
       </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
-      </c>
-      <c r="S5">
-        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -958,19 +958,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920335</v>
+        <v>6920333</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.85</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1260,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1527,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6919324</v>
+        <v>6920343</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1628,43 +1628,43 @@
         <v>47</v>
       </c>
       <c r="K13">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N13">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q13">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="S13">
-        <v>1.825</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>0.2849999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1673,16 +1673,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6920343</v>
+        <v>6920344</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,43 +1705,43 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
+        <v>4.1</v>
+      </c>
+      <c r="M14">
+        <v>2.35</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14">
         <v>4</v>
       </c>
-      <c r="M14">
-        <v>5.25</v>
-      </c>
-      <c r="N14">
-        <v>1.444</v>
-      </c>
-      <c r="O14">
-        <v>4.2</v>
-      </c>
       <c r="P14">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3</v>
@@ -1753,25 +1753,25 @@
         <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6920344</v>
+        <v>6919324</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,73 +1794,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
+        <v>1.975</v>
+      </c>
+      <c r="S15">
         <v>1.825</v>
       </c>
-      <c r="S15">
+      <c r="T15">
+        <v>3.5</v>
+      </c>
+      <c r="U15">
         <v>1.975</v>
       </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.825</v>
       </c>
-      <c r="V15">
-        <v>1.975</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.825</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
+        <v>2.25</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.05</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>2.75</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>1.615</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.775</v>
-      </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1.775</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>2.75</v>
       </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>1.775</v>
+      </c>
+      <c r="V21">
+        <v>2.025</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
-      <c r="W21">
-        <v>1.05</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6920360</v>
+        <v>6920359</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,55 +3215,55 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
         <v>3.25</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3272,19 +3272,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.8</v>
-      </c>
-      <c r="AB31">
-        <v>-0.5</v>
-      </c>
-      <c r="AC31">
-        <v>0.45</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6920359</v>
+        <v>6920360</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,55 +3304,55 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>1.571</v>
+      </c>
+      <c r="N32">
+        <v>5.25</v>
+      </c>
+      <c r="O32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>2.6</v>
-      </c>
-      <c r="N32">
-        <v>1.7</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
         <v>3.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3361,19 +3361,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3927,7 +3927,7 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920366</v>
+        <v>6920364</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
         <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
         <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920364</v>
+        <v>6920366</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
         <v>3.6</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R41">
         <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,73 +4639,73 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
+        <v>3.75</v>
+      </c>
+      <c r="M47">
+        <v>2.55</v>
+      </c>
+      <c r="N47">
+        <v>2.7</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>4.5</v>
-      </c>
-      <c r="N47">
-        <v>1.4</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.925</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>3.25</v>
+      </c>
+      <c r="U47">
+        <v>1.95</v>
+      </c>
+      <c r="V47">
         <v>1.9</v>
       </c>
-      <c r="S47">
-        <v>1.95</v>
-      </c>
-      <c r="T47">
-        <v>3.5</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>0.95</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4728,10 +4728,10 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6919327</v>
+        <v>6920376</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49">
+        <v>1.571</v>
+      </c>
+      <c r="L49">
         <v>4</v>
       </c>
-      <c r="I49">
+      <c r="M49">
+        <v>4.5</v>
+      </c>
+      <c r="N49">
+        <v>1.4</v>
+      </c>
+      <c r="O49">
+        <v>4.75</v>
+      </c>
+      <c r="P49">
+        <v>5.25</v>
+      </c>
+      <c r="Q49">
+        <v>-1.25</v>
+      </c>
+      <c r="R49">
+        <v>1.9</v>
+      </c>
+      <c r="S49">
+        <v>1.95</v>
+      </c>
+      <c r="T49">
+        <v>3.5</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1.85</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>3.75</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.95</v>
+      </c>
+      <c r="AB49">
         <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49">
-        <v>2.2</v>
-      </c>
-      <c r="L49">
-        <v>3.75</v>
-      </c>
-      <c r="M49">
-        <v>2.55</v>
-      </c>
-      <c r="N49">
-        <v>2.7</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>2.05</v>
-      </c>
-      <c r="Q49">
-        <v>0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.925</v>
-      </c>
-      <c r="S49">
-        <v>1.925</v>
-      </c>
-      <c r="T49">
-        <v>3.25</v>
-      </c>
-      <c r="U49">
-        <v>1.95</v>
-      </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
-      <c r="W49">
-        <v>1.7</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.925</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.95</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4909,7 +4909,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,10 +5084,10 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,7 +5173,7 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5443,7 +5443,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>35</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920385</v>
+        <v>6920384</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,73 +5618,73 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="L58">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
         <v>4</v>
       </c>
       <c r="P58">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>3.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6920386</v>
+        <v>6920385</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>5.5</v>
+      </c>
+      <c r="M59">
+        <v>1.222</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>1.45</v>
+      </c>
+      <c r="Q59">
         <v>1</v>
       </c>
-      <c r="J59" t="s">
-        <v>47</v>
-      </c>
-      <c r="K59">
-        <v>4.75</v>
-      </c>
-      <c r="L59">
-        <v>4.2</v>
-      </c>
-      <c r="M59">
-        <v>1.5</v>
-      </c>
-      <c r="N59">
-        <v>1.95</v>
-      </c>
-      <c r="O59">
-        <v>4.2</v>
-      </c>
-      <c r="P59">
-        <v>2.7</v>
-      </c>
-      <c r="Q59">
-        <v>-0.25</v>
-      </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>3.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920384</v>
+        <v>6920386</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,43 +5796,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N60">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5844,10 +5844,10 @@
         <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6920393</v>
+        <v>6920392</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N65">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>1</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6920392</v>
+        <v>6920393</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66">
+        <v>2.3</v>
+      </c>
+      <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>2.5</v>
+      </c>
+      <c r="N66">
+        <v>2.1</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
+        <v>2.8</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>3.25</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <v>1.8</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>1.8</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB66">
         <v>1</v>
       </c>
-      <c r="J66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K66">
-        <v>1.125</v>
-      </c>
-      <c r="L66">
-        <v>7.5</v>
-      </c>
-      <c r="M66">
-        <v>11</v>
-      </c>
-      <c r="N66">
-        <v>1.3</v>
-      </c>
-      <c r="O66">
-        <v>4.75</v>
-      </c>
-      <c r="P66">
-        <v>7.5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.75</v>
-      </c>
-      <c r="R66">
-        <v>1.925</v>
-      </c>
-      <c r="S66">
-        <v>1.875</v>
-      </c>
-      <c r="T66">
-        <v>3.75</v>
-      </c>
-      <c r="U66">
-        <v>1.8</v>
-      </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
-      <c r="W66">
-        <v>0.3</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
-      <c r="AA66">
-        <v>0.875</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,10 +6864,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7220,7 +7220,7 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7309,7 +7309,7 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
         <v>45</v>
@@ -7398,7 +7398,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8199,10 +8199,10 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6922683</v>
+        <v>6920414</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,73 +8736,73 @@
         <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N93">
+        <v>2.2</v>
+      </c>
+      <c r="O93">
+        <v>3.6</v>
+      </c>
+      <c r="P93">
+        <v>2.6</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>1.775</v>
+      </c>
+      <c r="T93">
+        <v>3.5</v>
+      </c>
+      <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
+        <v>1.925</v>
+      </c>
+      <c r="W93">
         <v>1.2</v>
       </c>
-      <c r="O93">
-        <v>5.75</v>
-      </c>
-      <c r="P93">
-        <v>9.5</v>
-      </c>
-      <c r="Q93">
-        <v>-2</v>
-      </c>
-      <c r="R93">
-        <v>2</v>
-      </c>
-      <c r="S93">
-        <v>1.8</v>
-      </c>
-      <c r="T93">
-        <v>3.75</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
       <c r="X93">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6920414</v>
+        <v>6922683</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" t="s">
         <v>40</v>
       </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
       <c r="H94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920415</v>
+        <v>6920416</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,55 +9000,55 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>48</v>
       </c>
       <c r="K96">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
         <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,19 +9057,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6920416</v>
+        <v>6920415</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,55 +9089,55 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>48</v>
       </c>
       <c r="K97">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
         <v>4.5</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q97">
         <v>1</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9146,19 +9146,19 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10160,73 +10160,73 @@
         <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>4.2</v>
+      </c>
+      <c r="M109">
+        <v>1.6</v>
+      </c>
+      <c r="N109">
+        <v>2.45</v>
+      </c>
+      <c r="O109">
+        <v>4</v>
+      </c>
+      <c r="P109">
+        <v>2.2</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
         <v>1.8</v>
       </c>
-      <c r="L109">
-        <v>4</v>
-      </c>
-      <c r="M109">
-        <v>3.25</v>
-      </c>
-      <c r="N109">
-        <v>1.5</v>
-      </c>
-      <c r="O109">
-        <v>4.333</v>
-      </c>
-      <c r="P109">
-        <v>4.75</v>
-      </c>
-      <c r="Q109">
-        <v>-1</v>
-      </c>
-      <c r="R109">
-        <v>1.825</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110">
+        <v>1.8</v>
+      </c>
+      <c r="L110">
         <v>4</v>
       </c>
-      <c r="L110">
-        <v>4.2</v>
-      </c>
       <c r="M110">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
         <v>43</v>
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11047,10 +11047,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" t="s">
         <v>32</v>
-      </c>
-      <c r="G119" t="s">
-        <v>34</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11136,7 +11136,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11406,7 +11406,7 @@
         <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11492,10 +11492,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
         <v>43</v>
@@ -11940,7 +11940,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12382,10 +12382,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13097,7 +13097,7 @@
         <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13628,7 +13628,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
         <v>31</v>
@@ -13806,7 +13806,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13984,7 +13984,7 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
         <v>36</v>
@@ -14073,10 +14073,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>41</v>
+      </c>
+      <c r="G153" t="s">
         <v>39</v>
-      </c>
-      <c r="G153" t="s">
-        <v>40</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14343,7 +14343,7 @@
         <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6920498</v>
+        <v>6920497</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,52 +15052,52 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>1</v>
-      </c>
-      <c r="I164">
-        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
         <v>1.925</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.925</v>
-      </c>
-      <c r="AC164">
-        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6920497</v>
+        <v>6920496</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,34 +15141,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
         <v>3.75</v>
       </c>
       <c r="M165">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
         <v>2.5</v>
@@ -15177,19 +15177,19 @@
         <v>0</v>
       </c>
       <c r="R165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15204,13 +15204,13 @@
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920496</v>
+        <v>6920498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
+        <v>2.6</v>
+      </c>
+      <c r="N166">
         <v>2.25</v>
       </c>
-      <c r="N166">
-        <v>2.375</v>
-      </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,16 +15287,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15322,7 +15322,7 @@
         <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6920506</v>
+        <v>6920503</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,40 +15675,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M171">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N171">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="O171">
         <v>4</v>
       </c>
       <c r="P171">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
         <v>1.925</v>
@@ -15717,19 +15717,19 @@
         <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
@@ -15741,10 +15741,10 @@
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6920503</v>
+        <v>6920506</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,40 +15764,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>49</v>
+      </c>
+      <c r="K172">
+        <v>2.6</v>
+      </c>
+      <c r="L172">
         <v>4</v>
       </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172" t="s">
-        <v>47</v>
-      </c>
-      <c r="K172">
-        <v>1.666</v>
-      </c>
-      <c r="L172">
-        <v>4.2</v>
-      </c>
       <c r="M172">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N172">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="O172">
         <v>4</v>
       </c>
       <c r="P172">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
         <v>1.925</v>
@@ -15806,19 +15806,19 @@
         <v>1.925</v>
       </c>
       <c r="T172">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -15830,10 +15830,10 @@
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7136647</v>
+        <v>6920508</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45346.375</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X176">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6920508</v>
+        <v>7136647</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45346.375</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N177">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16387,10 +16387,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16568,7 +16568,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6920515</v>
+        <v>6920516</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,13 +16743,13 @@
         <v>45353.375</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16758,43 +16758,43 @@
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L183">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N183">
-        <v>1.166</v>
+        <v>1.55</v>
       </c>
       <c r="O183">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q183">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
+        <v>3.5</v>
+      </c>
+      <c r="U183">
         <v>1.925</v>
       </c>
-      <c r="S183">
-        <v>1.925</v>
-      </c>
-      <c r="T183">
-        <v>3.75</v>
-      </c>
-      <c r="U183">
+      <c r="V183">
         <v>1.875</v>
       </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
       <c r="W183">
-        <v>0.1659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920516</v>
+        <v>6920515</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,13 +16832,13 @@
         <v>45353.375</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16847,43 +16847,43 @@
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>1.55</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P184">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.55</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17280,7 +17280,7 @@
         <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>5</v>
@@ -17369,7 +17369,7 @@
         <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17458,7 +17458,7 @@
         <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7764322</v>
+        <v>7764324</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,13 +17633,13 @@
         <v>45357.625</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>3</v>
@@ -17648,41 +17648,41 @@
         <v>48</v>
       </c>
       <c r="K193">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N193">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
       </c>
       <c r="R193">
+        <v>1.775</v>
+      </c>
+      <c r="S193">
+        <v>2.025</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
         <v>1.8</v>
       </c>
-      <c r="S193">
-        <v>2</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.775</v>
-      </c>
-      <c r="V193">
-        <v>2.025</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB193">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7764324</v>
+        <v>7764322</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,13 +17722,13 @@
         <v>45357.625</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>3</v>
@@ -17737,41 +17737,41 @@
         <v>48</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M194">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N194">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P194">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q194">
         <v>0.25</v>
       </c>
       <c r="R194">
+        <v>1.8</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
         <v>1.775</v>
       </c>
-      <c r="S194">
+      <c r="V194">
         <v>2.025</v>
       </c>
-      <c r="T194">
-        <v>3</v>
-      </c>
-      <c r="U194">
-        <v>2</v>
-      </c>
-      <c r="V194">
-        <v>1.8</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
@@ -17779,19 +17779,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17977,7 +17977,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6920526</v>
+        <v>6919343</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17986,64 +17986,79 @@
         <v>28</v>
       </c>
       <c r="E197" s="2">
-        <v>45360.47916666666</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>47</v>
       </c>
       <c r="K197">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L197">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N197">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="O197">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="Q197">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>0.8</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18051,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6920525</v>
+        <v>6920526</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,64 +18075,79 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45361.375</v>
+        <v>45360.47916666666</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>49</v>
       </c>
       <c r="K198">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L198">
+        <v>4.2</v>
+      </c>
+      <c r="M198">
+        <v>1.444</v>
+      </c>
+      <c r="N198">
+        <v>8</v>
+      </c>
+      <c r="O198">
+        <v>4.75</v>
+      </c>
+      <c r="P198">
+        <v>1.285</v>
+      </c>
+      <c r="Q198">
+        <v>1.5</v>
+      </c>
+      <c r="R198">
+        <v>1.95</v>
+      </c>
+      <c r="S198">
+        <v>1.9</v>
+      </c>
+      <c r="T198">
+        <v>3.25</v>
+      </c>
+      <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
+        <v>1.875</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
         <v>3.75</v>
       </c>
-      <c r="M198">
-        <v>3.4</v>
-      </c>
-      <c r="N198">
-        <v>1.75</v>
-      </c>
-      <c r="O198">
-        <v>3.5</v>
-      </c>
-      <c r="P198">
-        <v>3.75</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.825</v>
-      </c>
-      <c r="S198">
-        <v>2.025</v>
-      </c>
-      <c r="T198">
-        <v>3</v>
-      </c>
-      <c r="U198">
-        <v>2.05</v>
-      </c>
-      <c r="V198">
-        <v>1.8</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
       <c r="Y198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC198">
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18125,7 +18155,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6920530</v>
+        <v>6920525</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18134,64 +18164,79 @@
         <v>28</v>
       </c>
       <c r="E199" s="2">
-        <v>45361.41666666666</v>
+        <v>45361.375</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="H199">
+        <v>4</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>47</v>
       </c>
       <c r="K199">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L199">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N199">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="O199">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q199">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
         <v>1.85</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
         <v>1.875</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.925</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18199,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6920529</v>
+        <v>6920530</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18211,61 +18256,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+      <c r="J200" t="s">
+        <v>48</v>
       </c>
       <c r="K200">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="L200">
+        <v>4.333</v>
+      </c>
+      <c r="M200">
+        <v>1.444</v>
+      </c>
+      <c r="N200">
+        <v>5.5</v>
+      </c>
+      <c r="O200">
         <v>4</v>
       </c>
-      <c r="M200">
+      <c r="P200">
+        <v>1.45</v>
+      </c>
+      <c r="Q200">
+        <v>1.25</v>
+      </c>
+      <c r="R200">
+        <v>1.825</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
         <v>3.25</v>
       </c>
-      <c r="N200">
-        <v>1.727</v>
-      </c>
-      <c r="O200">
-        <v>3.8</v>
-      </c>
-      <c r="P200">
-        <v>3.6</v>
-      </c>
-      <c r="Q200">
-        <v>-0.75</v>
-      </c>
-      <c r="R200">
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
         <v>2.025</v>
       </c>
-      <c r="S200">
-        <v>1.825</v>
-      </c>
-      <c r="T200">
-        <v>3</v>
-      </c>
-      <c r="U200">
-        <v>2</v>
-      </c>
-      <c r="V200">
-        <v>1.85</v>
-      </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB200">
+        <v>-0.5</v>
+      </c>
+      <c r="AC200">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18273,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6920528</v>
+        <v>6920527</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18285,61 +18345,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201" t="s">
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="L201">
         <v>4</v>
       </c>
       <c r="M201">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N201">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O201">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q201">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
         <v>1.825</v>
       </c>
-      <c r="S201">
-        <v>2.025</v>
-      </c>
       <c r="T201">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB201">
+        <v>0.875</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18347,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6920527</v>
+        <v>6920529</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18359,61 +18434,165 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>47</v>
       </c>
       <c r="K202">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L202">
         <v>4</v>
       </c>
       <c r="M202">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N202">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O202">
         <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q202">
         <v>-0.5</v>
       </c>
       <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
+        <v>1.975</v>
+      </c>
+      <c r="V202">
+        <v>1.875</v>
+      </c>
+      <c r="W202">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.925</v>
+      </c>
+      <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6920528</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>39</v>
+      </c>
+      <c r="G203" t="s">
+        <v>37</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="J203" t="s">
+        <v>48</v>
+      </c>
+      <c r="K203">
+        <v>3.1</v>
+      </c>
+      <c r="L203">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>1.833</v>
+      </c>
+      <c r="N203">
+        <v>4.5</v>
+      </c>
+      <c r="O203">
+        <v>4.5</v>
+      </c>
+      <c r="P203">
+        <v>1.5</v>
+      </c>
+      <c r="Q203">
+        <v>1.25</v>
+      </c>
+      <c r="R203">
         <v>1.825</v>
       </c>
-      <c r="S202">
-        <v>2.025</v>
-      </c>
-      <c r="T202">
-        <v>3</v>
-      </c>
-      <c r="U202">
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
+        <v>3.5</v>
+      </c>
+      <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
         <v>1.8</v>
       </c>
-      <c r="V202">
-        <v>2.05</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
-      <c r="AA202">
-        <v>0</v>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>0.5</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
-    <t>Hamburg SV II</t>
-  </si>
-  <si>
     <t>St Pauli II</t>
   </si>
   <si>
     <t>TSV Havelse</t>
   </si>
   <si>
-    <t>Bremer SV</t>
+    <t>Hamburg SV II</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
+  </si>
+  <si>
+    <t>Bremer SV</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -133,13 +133,13 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
-    <t>Eintracht Norderstedt</t>
-  </si>
-  <si>
     <t>Eimsbutteler TV</t>
   </si>
   <si>
     <t>FC Teutonia 05</t>
+  </si>
+  <si>
+    <t>Eintracht Norderstedt</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920335</v>
+        <v>6920334</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920334</v>
+        <v>6920333</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,31 +993,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
         <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>3.3</v>
@@ -1044,10 +1044,10 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,10 +1056,10 @@
         <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>2.55</v>
+      </c>
+      <c r="O7">
         <v>3.25</v>
       </c>
-      <c r="N7">
-        <v>1.8</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
         <v>1.85</v>
-      </c>
-      <c r="S7">
-        <v>1.95</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.475</v>
+      </c>
+      <c r="AA8">
         <v>-0.5</v>
       </c>
-      <c r="AA8">
-        <v>0.45</v>
-      </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6920343</v>
+        <v>6920344</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,43 +1616,43 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
+        <v>4.1</v>
+      </c>
+      <c r="M13">
+        <v>2.35</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>5.25</v>
-      </c>
-      <c r="N13">
-        <v>1.444</v>
-      </c>
-      <c r="O13">
-        <v>4.2</v>
-      </c>
       <c r="P13">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>3</v>
@@ -1664,25 +1664,25 @@
         <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6920344</v>
+        <v>6919324</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
         <v>1.825</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.975</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.825</v>
       </c>
-      <c r="V14">
-        <v>1.975</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.825</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6919324</v>
+        <v>6920343</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,10 +1794,10 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1806,43 +1806,43 @@
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N15">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1.8</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
         <v>1.975</v>
       </c>
-      <c r="S15">
-        <v>1.825</v>
-      </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.975</v>
-      </c>
-      <c r="V15">
-        <v>1.825</v>
-      </c>
       <c r="W15">
-        <v>0.2849999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,16 +1851,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2325,7 +2325,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2948,10 +2948,10 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3304,7 +3304,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3571,7 +3571,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3660,10 +3660,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920369</v>
+        <v>6920366</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>1.75</v>
+      </c>
+      <c r="L39">
+        <v>3.75</v>
+      </c>
+      <c r="M39">
+        <v>3.6</v>
+      </c>
+      <c r="N39">
+        <v>1.533</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
-      <c r="J39" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39">
-        <v>2.1</v>
-      </c>
-      <c r="L39">
-        <v>3.6</v>
-      </c>
-      <c r="M39">
-        <v>2.8</v>
-      </c>
-      <c r="N39">
-        <v>2.25</v>
-      </c>
-      <c r="O39">
-        <v>3.4</v>
-      </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920366</v>
+        <v>6920369</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>1.8</v>
+      </c>
+      <c r="T41">
+        <v>3.25</v>
+      </c>
+      <c r="U41">
         <v>1.925</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.875</v>
       </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41">
-        <v>1.775</v>
-      </c>
-      <c r="V41">
-        <v>2.025</v>
-      </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6919327</v>
+        <v>6920377</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,13 +4639,13 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4654,43 +4654,43 @@
         <v>47</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
         <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4699,13 +4699,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920377</v>
+        <v>6920376</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O48">
         <v>4.75</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
+        <v>3.75</v>
+      </c>
+      <c r="M49">
+        <v>2.55</v>
+      </c>
+      <c r="N49">
+        <v>2.7</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="M49">
-        <v>4.5</v>
-      </c>
-      <c r="N49">
-        <v>1.4</v>
-      </c>
-      <c r="O49">
-        <v>4.75</v>
-      </c>
       <c r="P49">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
+        <v>3.25</v>
+      </c>
+      <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
         <v>1.9</v>
       </c>
-      <c r="S49">
-        <v>1.95</v>
-      </c>
-      <c r="T49">
-        <v>3.5</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X49">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.95</v>
-      </c>
-      <c r="AB49">
-        <v>1</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,10 +4906,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,10 +5084,10 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6920382</v>
+        <v>6920381</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6920381</v>
+        <v>6920382</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,10 +5529,10 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5618,7 +5618,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>42</v>
@@ -5707,7 +5707,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6244,7 +6244,7 @@
         <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6330,7 +6330,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,10 +6864,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7220,7 +7220,7 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,40 +7309,40 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N77">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
         <v>1.9</v>
@@ -7351,22 +7351,22 @@
         <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z77">
         <v>-1</v>
@@ -7375,10 +7375,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6920399</v>
+        <v>6920400</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,40 +7398,40 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
+        <v>1.7</v>
+      </c>
+      <c r="L78">
+        <v>4.2</v>
+      </c>
+      <c r="M78">
         <v>3.5</v>
       </c>
-      <c r="L78">
-        <v>3.5</v>
-      </c>
-      <c r="M78">
-        <v>1.85</v>
-      </c>
       <c r="N78">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
         <v>1.9</v>
@@ -7440,22 +7440,22 @@
         <v>1.9</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7464,10 +7464,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7665,10 +7665,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
         <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8199,10 +8199,10 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8733,10 +8733,10 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8822,10 +8822,10 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920416</v>
+        <v>6920415</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,52 +9003,52 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
         <v>48</v>
       </c>
       <c r="K96">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
         <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,19 +9057,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6920415</v>
+        <v>6920416</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,52 +9092,52 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>48</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N97">
         <v>4.5</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q97">
         <v>1</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9146,19 +9146,19 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N106">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O106">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB106">
         <v>-0.5</v>
       </c>
-      <c r="AB106">
-        <v>0.825</v>
-      </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M107">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N107">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P107">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10157,7 +10157,7 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
         <v>44</v>
@@ -10246,7 +10246,7 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7361159</v>
+        <v>6920433</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,58 +10335,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
         <v>47</v>
       </c>
       <c r="K111">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="L111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N111">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="O111">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.75</v>
       </c>
       <c r="Q111">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
         <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10395,16 +10395,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6920433</v>
+        <v>7361159</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,58 +10424,58 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M112">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P112">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U112">
         <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10484,16 +10484,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC112">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6920441</v>
+        <v>6920437</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,70 +10691,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M115">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U115">
         <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>0.9750000000000001</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6920437</v>
+        <v>6920441</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,70 +10780,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L116">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
         <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
         <v>0.9750000000000001</v>
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11047,10 +11047,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" t="s">
         <v>34</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11136,10 +11136,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11406,7 +11406,7 @@
         <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H123">
         <v>4</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R124">
+        <v>1.925</v>
+      </c>
+      <c r="S124">
         <v>1.875</v>
       </c>
-      <c r="S124">
+      <c r="T124">
+        <v>4</v>
+      </c>
+      <c r="U124">
         <v>1.925</v>
       </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.775</v>
-      </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,73 +11584,73 @@
         <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125">
+        <v>2.25</v>
+      </c>
+      <c r="L125">
+        <v>3.6</v>
+      </c>
+      <c r="M125">
+        <v>2.55</v>
+      </c>
+      <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>2.4</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125">
-        <v>1.125</v>
-      </c>
-      <c r="L125">
-        <v>7.5</v>
-      </c>
-      <c r="M125">
-        <v>11</v>
-      </c>
-      <c r="N125">
-        <v>1.222</v>
-      </c>
-      <c r="O125">
-        <v>5.5</v>
-      </c>
-      <c r="P125">
-        <v>8.5</v>
-      </c>
-      <c r="Q125">
-        <v>-2</v>
-      </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>4</v>
-      </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12382,10 +12382,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6920460</v>
+        <v>6920573</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136" t="s">
+        <v>48</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136">
+        <v>1.3</v>
+      </c>
+      <c r="N136">
+        <v>4.2</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>1.6</v>
+      </c>
+      <c r="Q136">
         <v>1</v>
       </c>
-      <c r="J136" t="s">
-        <v>47</v>
-      </c>
-      <c r="K136">
-        <v>1.909</v>
-      </c>
-      <c r="L136">
-        <v>4</v>
-      </c>
-      <c r="M136">
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
         <v>3</v>
-      </c>
-      <c r="N136">
-        <v>1.571</v>
-      </c>
-      <c r="O136">
-        <v>4.5</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
-      <c r="Q136">
-        <v>-1</v>
-      </c>
-      <c r="R136">
-        <v>2.05</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>3.25</v>
       </c>
       <c r="U136">
         <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6920573</v>
+        <v>6920460</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
         <v>4</v>
       </c>
-      <c r="P137">
-        <v>1.6</v>
-      </c>
       <c r="Q137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
         <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13094,10 +13094,10 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,46 +13628,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>2.05</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
       <c r="P148">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13679,19 +13679,19 @@
         <v>1.925</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,46 +13717,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K149">
+        <v>1.666</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>3.75</v>
+      </c>
+      <c r="N149">
+        <v>1.8</v>
+      </c>
+      <c r="O149">
+        <v>3.8</v>
+      </c>
+      <c r="P149">
+        <v>3.25</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
         <v>1.95</v>
-      </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>3</v>
-      </c>
-      <c r="N149">
-        <v>2.05</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>2.8</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3</v>
@@ -13768,19 +13768,19 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13806,10 +13806,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14073,10 +14073,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>40</v>
+      </c>
+      <c r="G153" t="s">
         <v>41</v>
-      </c>
-      <c r="G153" t="s">
-        <v>39</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14340,10 +14340,10 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6920497</v>
+        <v>6920498</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,52 +15052,52 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
         <v>1.925</v>
-      </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
-      <c r="U164">
-        <v>1.875</v>
       </c>
       <c r="V164">
         <v>1.925</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6920496</v>
+        <v>6920497</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,34 +15141,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
         <v>1</v>
-      </c>
-      <c r="I165">
-        <v>4</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L165">
         <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N165">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
         <v>2.5</v>
@@ -15177,19 +15177,19 @@
         <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15204,13 +15204,13 @@
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920498</v>
+        <v>6920496</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N166">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,16 +15287,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15319,10 +15319,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15678,7 +15678,7 @@
         <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>4</v>
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6920506</v>
+        <v>7830717</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,46 +15764,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L172">
         <v>4</v>
       </c>
       <c r="M172">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N172">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="Q172">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
         <v>2.75</v>
@@ -15812,19 +15812,19 @@
         <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA172">
         <v>-1</v>
@@ -15833,7 +15833,7 @@
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7830717</v>
+        <v>6920506</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,46 +15853,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L173">
         <v>4</v>
       </c>
       <c r="M173">
+        <v>2.1</v>
+      </c>
+      <c r="N173">
+        <v>3.8</v>
+      </c>
+      <c r="O173">
         <v>4</v>
       </c>
-      <c r="N173">
-        <v>1.85</v>
-      </c>
-      <c r="O173">
-        <v>3.5</v>
-      </c>
       <c r="P173">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.75</v>
@@ -15901,19 +15901,19 @@
         <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15922,7 +15922,7 @@
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16031,7 +16031,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16387,10 +16387,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16568,7 +16568,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6920516</v>
+        <v>6920515</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,13 +16743,13 @@
         <v>45353.375</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16758,43 +16758,43 @@
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>1.55</v>
+        <v>1.166</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P183">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.55</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920515</v>
+        <v>6920516</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,13 +16832,13 @@
         <v>45353.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16847,43 +16847,43 @@
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.166</v>
+        <v>1.55</v>
       </c>
       <c r="O184">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q184">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R184">
+        <v>1.9</v>
+      </c>
+      <c r="S184">
+        <v>1.9</v>
+      </c>
+      <c r="T184">
+        <v>3.5</v>
+      </c>
+      <c r="U184">
         <v>1.925</v>
       </c>
-      <c r="S184">
-        <v>1.925</v>
-      </c>
-      <c r="T184">
-        <v>3.75</v>
-      </c>
-      <c r="U184">
+      <c r="V184">
         <v>1.875</v>
       </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17280,7 +17280,7 @@
         <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H189">
         <v>5</v>
@@ -17366,10 +17366,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
+        <v>32</v>
+      </c>
+      <c r="G190" t="s">
         <v>33</v>
-      </c>
-      <c r="G190" t="s">
-        <v>34</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17455,10 +17455,10 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7764324</v>
+        <v>7764322</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,13 +17633,13 @@
         <v>45357.625</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>3</v>
@@ -17648,41 +17648,41 @@
         <v>48</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M193">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N193">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
       </c>
       <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
         <v>1.775</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>2.025</v>
       </c>
-      <c r="T193">
-        <v>3</v>
-      </c>
-      <c r="U193">
-        <v>2</v>
-      </c>
-      <c r="V193">
-        <v>1.8</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7764322</v>
+        <v>7764324</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,13 +17722,13 @@
         <v>45357.625</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>3</v>
@@ -17737,41 +17737,41 @@
         <v>48</v>
       </c>
       <c r="K194">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M194">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N194">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q194">
         <v>0.25</v>
       </c>
       <c r="R194">
+        <v>1.775</v>
+      </c>
+      <c r="S194">
+        <v>2.025</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
         <v>1.8</v>
       </c>
-      <c r="S194">
-        <v>2</v>
-      </c>
-      <c r="T194">
-        <v>2.75</v>
-      </c>
-      <c r="U194">
-        <v>1.775</v>
-      </c>
-      <c r="V194">
-        <v>2.025</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
@@ -17779,19 +17779,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB194">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6920524</v>
+        <v>6920523</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,58 +17811,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
+        <v>1.875</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
         <v>1.95</v>
       </c>
-      <c r="T195">
-        <v>3</v>
-      </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17871,16 +17871,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6920523</v>
+        <v>6920524</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,58 +17900,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>4</v>
+      </c>
+      <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>4</v>
+      </c>
+      <c r="P196">
         <v>5</v>
       </c>
-      <c r="M196">
-        <v>6</v>
-      </c>
-      <c r="N196">
-        <v>1.4</v>
-      </c>
-      <c r="O196">
-        <v>4.5</v>
-      </c>
-      <c r="P196">
-        <v>6</v>
-      </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
         <v>1.975</v>
       </c>
-      <c r="S196">
-        <v>1.875</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.95</v>
-      </c>
-      <c r="V196">
-        <v>1.9</v>
-      </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,16 +17960,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
         <v>42</v>
@@ -18167,7 +18167,7 @@
         <v>45361.375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6920530</v>
+        <v>6920527</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,55 +18256,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J200" t="s">
         <v>48</v>
       </c>
       <c r="K200">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="L200">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N200">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q200">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
+        <v>1.975</v>
+      </c>
+      <c r="S200">
         <v>1.825</v>
       </c>
-      <c r="S200">
-        <v>2.025</v>
-      </c>
       <c r="T200">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -18313,19 +18313,19 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0.45</v>
+        <v>2.8</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB200">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6920527</v>
+        <v>6920528</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,55 +18345,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
         <v>3</v>
-      </c>
-      <c r="I201">
-        <v>4</v>
       </c>
       <c r="J201" t="s">
         <v>48</v>
       </c>
       <c r="K201">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L201">
         <v>4</v>
       </c>
       <c r="M201">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N201">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
         <v>1.975</v>
       </c>
-      <c r="S201">
-        <v>1.825</v>
-      </c>
       <c r="T201">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18402,16 +18402,16 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18434,7 +18434,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>29</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6920528</v>
+        <v>6920530</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,13 +18523,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>3</v>
@@ -18538,22 +18538,22 @@
         <v>48</v>
       </c>
       <c r="K203">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="L203">
+        <v>4.333</v>
+      </c>
+      <c r="M203">
+        <v>1.444</v>
+      </c>
+      <c r="N203">
+        <v>5.5</v>
+      </c>
+      <c r="O203">
         <v>4</v>
       </c>
-      <c r="M203">
-        <v>1.833</v>
-      </c>
-      <c r="N203">
-        <v>4.5</v>
-      </c>
-      <c r="O203">
-        <v>4.5</v>
-      </c>
       <c r="P203">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q203">
         <v>1.25</v>
@@ -18562,37 +18562,793 @@
         <v>1.825</v>
       </c>
       <c r="S203">
+        <v>2.025</v>
+      </c>
+      <c r="T203">
+        <v>3.25</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
+        <v>2.025</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>0.45</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
+        <v>1.025</v>
+      </c>
+      <c r="AB203">
+        <v>-0.5</v>
+      </c>
+      <c r="AC203">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6920537</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F204" t="s">
+        <v>39</v>
+      </c>
+      <c r="G204" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
+        <v>2.875</v>
+      </c>
+      <c r="L204">
+        <v>4.2</v>
+      </c>
+      <c r="M204">
+        <v>1.909</v>
+      </c>
+      <c r="N204">
+        <v>3.5</v>
+      </c>
+      <c r="O204">
+        <v>4.5</v>
+      </c>
+      <c r="P204">
+        <v>1.666</v>
+      </c>
+      <c r="Q204">
+        <v>0.75</v>
+      </c>
+      <c r="R204">
+        <v>1.95</v>
+      </c>
+      <c r="S204">
+        <v>1.85</v>
+      </c>
+      <c r="T204">
+        <v>3</v>
+      </c>
+      <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>1.8</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6920531</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" t="s">
+        <v>30</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>49</v>
+      </c>
+      <c r="K205">
+        <v>2.6</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>2.1</v>
+      </c>
+      <c r="N205">
+        <v>3.4</v>
+      </c>
+      <c r="O205">
+        <v>4.2</v>
+      </c>
+      <c r="P205">
+        <v>1.727</v>
+      </c>
+      <c r="Q205">
+        <v>0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.85</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>1.85</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>3.2</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6919344</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F206" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" t="s">
+        <v>40</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>47</v>
+      </c>
+      <c r="K206">
+        <v>1.444</v>
+      </c>
+      <c r="L206">
+        <v>4.333</v>
+      </c>
+      <c r="M206">
+        <v>5.25</v>
+      </c>
+      <c r="N206">
+        <v>1.727</v>
+      </c>
+      <c r="O206">
+        <v>3.8</v>
+      </c>
+      <c r="P206">
+        <v>3.6</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1.85</v>
+      </c>
+      <c r="T206">
+        <v>3</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.925</v>
+      </c>
+      <c r="W206">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.5</v>
+      </c>
+      <c r="AA206">
+        <v>-0.5</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6920532</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F207" t="s">
+        <v>44</v>
+      </c>
+      <c r="G207" t="s">
+        <v>33</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>47</v>
+      </c>
+      <c r="K207">
+        <v>1.666</v>
+      </c>
+      <c r="L207">
+        <v>4</v>
+      </c>
+      <c r="M207">
+        <v>3.75</v>
+      </c>
+      <c r="N207">
+        <v>1.7</v>
+      </c>
+      <c r="O207">
+        <v>3.75</v>
+      </c>
+      <c r="P207">
+        <v>3.8</v>
+      </c>
+      <c r="Q207">
+        <v>-0.75</v>
+      </c>
+      <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
+        <v>1.9</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
+        <v>2</v>
+      </c>
+      <c r="W207">
+        <v>0.7</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.95</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6920534</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45367.39583333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>43</v>
+      </c>
+      <c r="G208" t="s">
+        <v>35</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>49</v>
+      </c>
+      <c r="K208">
+        <v>1.727</v>
+      </c>
+      <c r="L208">
+        <v>4.2</v>
+      </c>
+      <c r="M208">
+        <v>3.4</v>
+      </c>
+      <c r="N208">
+        <v>1.833</v>
+      </c>
+      <c r="O208">
+        <v>4</v>
+      </c>
+      <c r="P208">
+        <v>3.2</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.925</v>
+      </c>
+      <c r="S208">
+        <v>1.925</v>
+      </c>
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>1.85</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>3</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.925</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6920535</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F209" t="s">
+        <v>45</v>
+      </c>
+      <c r="G209" t="s">
+        <v>41</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>48</v>
+      </c>
+      <c r="K209">
+        <v>1.75</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>3.4</v>
+      </c>
+      <c r="N209">
+        <v>2.15</v>
+      </c>
+      <c r="O209">
+        <v>3.4</v>
+      </c>
+      <c r="P209">
+        <v>2.8</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>1.85</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.8</v>
+      </c>
+      <c r="V209">
+        <v>2</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>1.8</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6920536</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
+        <v>31</v>
+      </c>
+      <c r="K210">
+        <v>1.615</v>
+      </c>
+      <c r="L210">
+        <v>4.333</v>
+      </c>
+      <c r="M210">
+        <v>3.75</v>
+      </c>
+      <c r="N210">
+        <v>2.2</v>
+      </c>
+      <c r="O210">
+        <v>3.75</v>
+      </c>
+      <c r="P210">
+        <v>2.55</v>
+      </c>
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
+        <v>2.025</v>
+      </c>
+      <c r="S210">
+        <v>1.825</v>
+      </c>
+      <c r="T210">
+        <v>2.75</v>
+      </c>
+      <c r="U210">
+        <v>1.85</v>
+      </c>
+      <c r="V210">
+        <v>2</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6920533</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>42</v>
+      </c>
+      <c r="G211" t="s">
+        <v>38</v>
+      </c>
+      <c r="K211">
+        <v>2.1</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>2.6</v>
+      </c>
+      <c r="N211">
+        <v>1.727</v>
+      </c>
+      <c r="O211">
+        <v>3.75</v>
+      </c>
+      <c r="P211">
+        <v>3.6</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.825</v>
+      </c>
+      <c r="S211">
+        <v>2.025</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
         <v>1.975</v>
       </c>
-      <c r="T203">
-        <v>3.5</v>
-      </c>
-      <c r="U203">
-        <v>2</v>
-      </c>
-      <c r="V203">
-        <v>1.8</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>0.5</v>
-      </c>
-      <c r="Z203">
-        <v>-1</v>
-      </c>
-      <c r="AA203">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB203">
-        <v>1</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
+      <c r="V211">
+        <v>1.875</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7963197</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>36</v>
+      </c>
+      <c r="G212" t="s">
+        <v>46</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
+      </c>
+      <c r="L212">
+        <v>4</v>
+      </c>
+      <c r="M212">
+        <v>1.615</v>
+      </c>
+      <c r="N212">
+        <v>3.6</v>
+      </c>
+      <c r="O212">
+        <v>3.8</v>
+      </c>
+      <c r="P212">
+        <v>1.727</v>
+      </c>
+      <c r="Q212">
+        <v>0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.85</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>3</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
+        <v>2</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
+    <t>Hamburg SV II</t>
+  </si>
+  <si>
     <t>St Pauli II</t>
   </si>
   <si>
     <t>TSV Havelse</t>
   </si>
   <si>
-    <t>Hamburg SV II</t>
+    <t>Bremer SV</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
-  </si>
-  <si>
-    <t>Bremer SV</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -133,10 +133,10 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
-    <t>Eimsbutteler TV</t>
+    <t>FC Teutonia 05</t>
   </si>
   <si>
-    <t>FC Teutonia 05</t>
+    <t>Eimsbutteler TV</t>
   </si>
   <si>
     <t>Eintracht Norderstedt</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC212"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920334</v>
+        <v>6920335</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
-      </c>
-      <c r="S5">
-        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920333</v>
+        <v>6920334</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,31 +993,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
         <v>1.8</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
         <v>3.3</v>
@@ -1044,10 +1044,10 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,10 +1056,10 @@
         <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920335</v>
+        <v>6920333</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.85</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.475</v>
+      </c>
+      <c r="AA9">
         <v>-0.5</v>
       </c>
-      <c r="AA9">
-        <v>0.45</v>
-      </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6920344</v>
+        <v>6919324</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,70 +1619,70 @@
         <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R13">
+        <v>1.975</v>
+      </c>
+      <c r="S13">
         <v>1.825</v>
       </c>
-      <c r="S13">
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.975</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>1.975</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.825</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6919324</v>
+        <v>6920344</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>2.25</v>
+      </c>
+      <c r="L14">
+        <v>4.1</v>
+      </c>
+      <c r="M14">
+        <v>2.35</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1.727</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>1.975</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14">
-        <v>2.2</v>
-      </c>
-      <c r="L14">
-        <v>3.6</v>
-      </c>
-      <c r="M14">
-        <v>2.625</v>
-      </c>
-      <c r="N14">
-        <v>1.285</v>
-      </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <v>6.5</v>
-      </c>
-      <c r="Q14">
-        <v>-1.75</v>
-      </c>
-      <c r="R14">
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.975</v>
-      </c>
-      <c r="V14">
-        <v>1.825</v>
-      </c>
       <c r="W14">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2325,7 +2325,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2948,10 +2948,10 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6920359</v>
+        <v>6920360</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,55 +3215,55 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
+        <v>3.75</v>
+      </c>
+      <c r="M31">
+        <v>1.571</v>
+      </c>
+      <c r="N31">
+        <v>5.25</v>
+      </c>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>2.6</v>
-      </c>
-      <c r="N31">
-        <v>1.7</v>
-      </c>
-      <c r="O31">
-        <v>4.2</v>
-      </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
         <v>3.25</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3272,19 +3272,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6920360</v>
+        <v>6920359</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,55 +3304,55 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>3.25</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3361,19 +3361,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.8</v>
-      </c>
-      <c r="AB32">
-        <v>-0.5</v>
-      </c>
-      <c r="AC32">
-        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P36">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920366</v>
+        <v>6920364</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
         <v>3.6</v>
       </c>
       <c r="N39">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
         <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920364</v>
+        <v>6920366</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
         <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R40">
         <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4639,10 +4639,10 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L48">
+        <v>3.75</v>
+      </c>
+      <c r="M48">
+        <v>2.55</v>
+      </c>
+      <c r="N48">
+        <v>2.7</v>
+      </c>
+      <c r="O48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>4.5</v>
-      </c>
-      <c r="N48">
-        <v>1.4</v>
-      </c>
-      <c r="O48">
-        <v>4.75</v>
-      </c>
       <c r="P48">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>3.25</v>
+      </c>
+      <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.9</v>
       </c>
-      <c r="S48">
-        <v>1.95</v>
-      </c>
-      <c r="T48">
-        <v>3.5</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X48">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
         <v>0.95</v>
-      </c>
-      <c r="AB48">
-        <v>1</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6919327</v>
+        <v>6920376</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49">
+        <v>1.571</v>
+      </c>
+      <c r="L49">
         <v>4</v>
       </c>
-      <c r="I49">
+      <c r="M49">
+        <v>4.5</v>
+      </c>
+      <c r="N49">
+        <v>1.4</v>
+      </c>
+      <c r="O49">
+        <v>4.75</v>
+      </c>
+      <c r="P49">
+        <v>5.25</v>
+      </c>
+      <c r="Q49">
+        <v>-1.25</v>
+      </c>
+      <c r="R49">
+        <v>1.9</v>
+      </c>
+      <c r="S49">
+        <v>1.95</v>
+      </c>
+      <c r="T49">
+        <v>3.5</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1.85</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>3.75</v>
+      </c>
+      <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.95</v>
+      </c>
+      <c r="AB49">
         <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49">
-        <v>2.2</v>
-      </c>
-      <c r="L49">
-        <v>3.75</v>
-      </c>
-      <c r="M49">
-        <v>2.55</v>
-      </c>
-      <c r="N49">
-        <v>2.7</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49">
-        <v>2.05</v>
-      </c>
-      <c r="Q49">
-        <v>0.25</v>
-      </c>
-      <c r="R49">
-        <v>1.925</v>
-      </c>
-      <c r="S49">
-        <v>1.925</v>
-      </c>
-      <c r="T49">
-        <v>3.25</v>
-      </c>
-      <c r="U49">
-        <v>1.95</v>
-      </c>
-      <c r="V49">
-        <v>1.9</v>
-      </c>
-      <c r="W49">
-        <v>1.7</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.925</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.95</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,7 +4906,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -5087,7 +5087,7 @@
         <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>33</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6920381</v>
+        <v>6920382</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6920382</v>
+        <v>6920381</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,10 +5529,10 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920384</v>
+        <v>6920386</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,43 +5618,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
         <v>2</v>
@@ -5666,10 +5666,10 @@
         <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920386</v>
+        <v>6920384</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,43 +5796,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5844,10 +5844,10 @@
         <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6244,7 +6244,7 @@
         <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6330,7 +6330,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,10 +6864,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6919330</v>
+        <v>6920399</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,55 +7220,55 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>48</v>
       </c>
       <c r="K76">
+        <v>3.5</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
         <v>1.85</v>
       </c>
-      <c r="L76">
-        <v>3.8</v>
-      </c>
-      <c r="M76">
+      <c r="N76">
+        <v>2.1</v>
+      </c>
+      <c r="O76">
         <v>3.25</v>
       </c>
-      <c r="N76">
-        <v>1.75</v>
-      </c>
-      <c r="O76">
-        <v>4.5</v>
-      </c>
       <c r="P76">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7277,19 +7277,19 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6920399</v>
+        <v>6919330</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,55 +7309,55 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
         <v>48</v>
       </c>
       <c r="K77">
+        <v>1.85</v>
+      </c>
+      <c r="L77">
+        <v>3.8</v>
+      </c>
+      <c r="M77">
+        <v>3.25</v>
+      </c>
+      <c r="N77">
+        <v>1.75</v>
+      </c>
+      <c r="O77">
+        <v>4.5</v>
+      </c>
+      <c r="P77">
+        <v>3.2</v>
+      </c>
+      <c r="Q77">
+        <v>-0.5</v>
+      </c>
+      <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
+        <v>2</v>
+      </c>
+      <c r="T77">
         <v>3.5</v>
       </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>1.85</v>
-      </c>
-      <c r="N77">
-        <v>2.1</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.9</v>
-      </c>
-      <c r="S77">
-        <v>1.9</v>
-      </c>
-      <c r="T77">
-        <v>3</v>
-      </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7366,19 +7366,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7665,10 +7665,10 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
         <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
         <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
         <v>41</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8736,7 +8736,7 @@
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8822,10 +8822,10 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
         <v>40</v>
-      </c>
-      <c r="G94" t="s">
-        <v>39</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920415</v>
+        <v>6920416</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9003,52 +9003,52 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>48</v>
       </c>
       <c r="K96">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
         <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,19 +9057,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6920416</v>
+        <v>6920415</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,52 +9092,52 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>48</v>
       </c>
       <c r="K97">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
         <v>3.75</v>
       </c>
       <c r="M97">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
         <v>4.5</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q97">
         <v>1</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9146,19 +9146,19 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9890,7 +9890,7 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>30</v>
@@ -9982,7 +9982,7 @@
         <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>5</v>
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10246,7 +10246,7 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10424,7 +10424,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6920437</v>
+        <v>6920441</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,70 +10691,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N115">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
         <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
         <v>0.9750000000000001</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6920441</v>
+        <v>6920437</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,70 +10780,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P116">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U116">
         <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>0.9750000000000001</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920446</v>
+        <v>6920445</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N122">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O122">
+        <v>5.75</v>
+      </c>
+      <c r="P122">
+        <v>9</v>
+      </c>
+      <c r="Q122">
+        <v>-2</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
         <v>3.75</v>
       </c>
-      <c r="P122">
-        <v>1.95</v>
-      </c>
-      <c r="Q122">
-        <v>0.5</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
         <v>1.875</v>
       </c>
-      <c r="S122">
-        <v>1.975</v>
-      </c>
-      <c r="T122">
-        <v>3.25</v>
-      </c>
-      <c r="U122">
-        <v>1.95</v>
-      </c>
-      <c r="V122">
-        <v>1.9</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X122">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920445</v>
+        <v>6920446</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="Q123">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>1.975</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
         <v>1.95</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.9</v>
       </c>
-      <c r="T123">
-        <v>3.75</v>
-      </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
       <c r="W123">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>49</v>
+      </c>
+      <c r="K124">
+        <v>2.25</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.55</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>2.4</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>1.125</v>
-      </c>
-      <c r="L124">
-        <v>7.5</v>
-      </c>
-      <c r="M124">
-        <v>11</v>
-      </c>
-      <c r="N124">
-        <v>1.222</v>
-      </c>
-      <c r="O124">
-        <v>5.5</v>
-      </c>
-      <c r="P124">
-        <v>8.5</v>
-      </c>
-      <c r="Q124">
-        <v>-2</v>
-      </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>4</v>
-      </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M125">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P125">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R125">
+        <v>1.925</v>
+      </c>
+      <c r="S125">
         <v>1.875</v>
       </c>
-      <c r="S125">
+      <c r="T125">
+        <v>4</v>
+      </c>
+      <c r="U125">
         <v>1.925</v>
       </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X125">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11940,7 +11940,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12382,10 +12382,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12560,7 +12560,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>44</v>
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13094,10 +13094,10 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,46 +13628,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K148">
+        <v>1.666</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>3.75</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
+        <v>3.8</v>
+      </c>
+      <c r="P148">
+        <v>3.25</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.85</v>
+      </c>
+      <c r="S148">
         <v>1.95</v>
-      </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>2.05</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
-      <c r="P148">
-        <v>2.8</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.9</v>
-      </c>
-      <c r="S148">
-        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13679,19 +13679,19 @@
         <v>1.925</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,46 +13717,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K149">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>2.05</v>
+      </c>
+      <c r="O149">
         <v>3.75</v>
       </c>
-      <c r="N149">
-        <v>1.8</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
-      </c>
       <c r="P149">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3</v>
@@ -13768,19 +13768,19 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13806,10 +13806,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14340,10 +14340,10 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15055,7 +15055,7 @@
         <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15230,7 +15230,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>37</v>
@@ -15319,10 +15319,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6920503</v>
+        <v>7830717</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,13 +15675,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15690,40 +15690,40 @@
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L171">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M171">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N171">
         <v>1.85</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
         <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
         <v>0.8500000000000001</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7830717</v>
+        <v>6920506</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,46 +15764,46 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L172">
         <v>4</v>
       </c>
       <c r="M172">
+        <v>2.1</v>
+      </c>
+      <c r="N172">
+        <v>3.8</v>
+      </c>
+      <c r="O172">
         <v>4</v>
       </c>
-      <c r="N172">
-        <v>1.85</v>
-      </c>
-      <c r="O172">
-        <v>3.5</v>
-      </c>
       <c r="P172">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
         <v>2.75</v>
@@ -15812,19 +15812,19 @@
         <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA172">
         <v>-1</v>
@@ -15833,7 +15833,7 @@
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6920506</v>
+        <v>6920503</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,40 +15853,40 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M173">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N173">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="O173">
         <v>4</v>
       </c>
       <c r="P173">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q173">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
         <v>1.925</v>
@@ -15895,19 +15895,19 @@
         <v>1.925</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X173">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
@@ -15919,10 +15919,10 @@
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16031,7 +16031,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6920508</v>
+        <v>7136647</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45346.375</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N176">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7136647</v>
+        <v>6920508</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45346.375</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O177">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X177">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16387,10 +16387,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16568,7 +16568,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6920515</v>
+        <v>6920516</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,13 +16743,13 @@
         <v>45353.375</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16758,43 +16758,43 @@
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L183">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N183">
-        <v>1.166</v>
+        <v>1.55</v>
       </c>
       <c r="O183">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q183">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
+        <v>3.5</v>
+      </c>
+      <c r="U183">
         <v>1.925</v>
       </c>
-      <c r="S183">
-        <v>1.925</v>
-      </c>
-      <c r="T183">
-        <v>3.75</v>
-      </c>
-      <c r="U183">
+      <c r="V183">
         <v>1.875</v>
       </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
       <c r="W183">
-        <v>0.1659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920516</v>
+        <v>6920515</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,13 +16832,13 @@
         <v>45353.375</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16847,43 +16847,43 @@
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N184">
-        <v>1.55</v>
+        <v>1.166</v>
       </c>
       <c r="O184">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P184">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.55</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17010,7 +17010,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17366,10 +17366,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17455,10 +17455,10 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7764322</v>
+        <v>7764324</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,13 +17633,13 @@
         <v>45357.625</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>3</v>
@@ -17648,41 +17648,41 @@
         <v>48</v>
       </c>
       <c r="K193">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N193">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
       </c>
       <c r="R193">
+        <v>1.775</v>
+      </c>
+      <c r="S193">
+        <v>2.025</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
         <v>1.8</v>
       </c>
-      <c r="S193">
-        <v>2</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.775</v>
-      </c>
-      <c r="V193">
-        <v>2.025</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB193">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7764324</v>
+        <v>7764322</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,13 +17722,13 @@
         <v>45357.625</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>3</v>
@@ -17737,41 +17737,41 @@
         <v>48</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M194">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N194">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P194">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q194">
         <v>0.25</v>
       </c>
       <c r="R194">
+        <v>1.8</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
         <v>1.775</v>
       </c>
-      <c r="S194">
+      <c r="V194">
         <v>2.025</v>
       </c>
-      <c r="T194">
-        <v>3</v>
-      </c>
-      <c r="U194">
-        <v>2</v>
-      </c>
-      <c r="V194">
-        <v>1.8</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
@@ -17779,19 +17779,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6920523</v>
+        <v>6920524</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,58 +17811,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
         <v>5</v>
       </c>
-      <c r="M195">
-        <v>6</v>
-      </c>
-      <c r="N195">
-        <v>1.4</v>
-      </c>
-      <c r="O195">
-        <v>4.5</v>
-      </c>
-      <c r="P195">
-        <v>6</v>
-      </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>3</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
         <v>1.975</v>
       </c>
-      <c r="S195">
-        <v>1.875</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>1.95</v>
-      </c>
-      <c r="V195">
-        <v>1.9</v>
-      </c>
       <c r="W195">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17871,16 +17871,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6920524</v>
+        <v>6920523</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,58 +17900,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
         <v>1</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
+        <v>1.875</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
         <v>1.95</v>
       </c>
-      <c r="T196">
-        <v>3</v>
-      </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,16 +17960,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
         <v>42</v>
@@ -18167,7 +18167,7 @@
         <v>45361.375</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6920527</v>
+        <v>6920530</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,55 +18256,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
         <v>3</v>
-      </c>
-      <c r="I200">
-        <v>4</v>
       </c>
       <c r="J200" t="s">
         <v>48</v>
       </c>
       <c r="K200">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="L200">
+        <v>4.333</v>
+      </c>
+      <c r="M200">
+        <v>1.444</v>
+      </c>
+      <c r="N200">
+        <v>5.5</v>
+      </c>
+      <c r="O200">
         <v>4</v>
       </c>
-      <c r="M200">
-        <v>4.2</v>
-      </c>
-      <c r="N200">
-        <v>1.75</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
       <c r="P200">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R200">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>3.25</v>
+      </c>
+      <c r="U200">
         <v>1.825</v>
       </c>
-      <c r="T200">
-        <v>3</v>
-      </c>
-      <c r="U200">
-        <v>1.875</v>
-      </c>
       <c r="V200">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -18313,19 +18313,19 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z200">
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6920528</v>
+        <v>6920529</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L201">
         <v>4</v>
       </c>
       <c r="M201">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N201">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O201">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q201">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
+        <v>1.925</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
         <v>1.975</v>
       </c>
-      <c r="T201">
-        <v>3.5</v>
-      </c>
-      <c r="U201">
-        <v>2</v>
-      </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6920529</v>
+        <v>6920527</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F202" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" t="s">
         <v>33</v>
       </c>
-      <c r="G202" t="s">
-        <v>29</v>
-      </c>
       <c r="H202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K202">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L202">
         <v>4</v>
       </c>
       <c r="M202">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N202">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O202">
         <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
+        <v>1.975</v>
+      </c>
+      <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
+        <v>3</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
         <v>1.925</v>
       </c>
-      <c r="S202">
-        <v>1.925</v>
-      </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
-      <c r="V202">
-        <v>1.875</v>
-      </c>
       <c r="W202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6920530</v>
+        <v>6920528</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,13 +18523,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>3</v>
@@ -18538,22 +18538,22 @@
         <v>48</v>
       </c>
       <c r="K203">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="L203">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="N203">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q203">
         <v>1.25</v>
@@ -18562,16 +18562,16 @@
         <v>1.825</v>
       </c>
       <c r="S203">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18580,19 +18580,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18612,10 +18612,10 @@
         <v>45366.625</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18793,7 +18793,7 @@
         <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -18882,7 +18882,7 @@
         <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -18971,7 +18971,7 @@
         <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19146,11 +19146,20 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>31</v>
       </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>49</v>
+      </c>
       <c r="K210">
         <v>1.615</v>
       </c>
@@ -19161,19 +19170,19 @@
         <v>3.75</v>
       </c>
       <c r="N210">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P210">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S210">
         <v>1.825</v>
@@ -19182,25 +19191,31 @@
         <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
         <v>2</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19225,6 +19240,15 @@
       <c r="G211" t="s">
         <v>38</v>
       </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>3</v>
+      </c>
+      <c r="J211" t="s">
+        <v>48</v>
+      </c>
       <c r="K211">
         <v>2.1</v>
       </c>
@@ -19262,19 +19286,25 @@
         <v>1.875</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB211">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC211">
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19282,7 +19312,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7963197</v>
+        <v>7982170</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19291,63 +19321,849 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45368.45833333334</v>
+        <v>45371.625</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>49</v>
       </c>
       <c r="K212">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N212">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O212">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R212">
+        <v>2.025</v>
+      </c>
+      <c r="S212">
+        <v>1.775</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
         <v>1.85</v>
       </c>
-      <c r="S212">
-        <v>2</v>
-      </c>
-      <c r="T212">
-        <v>3</v>
-      </c>
-      <c r="U212">
-        <v>1.85</v>
-      </c>
-      <c r="V212">
-        <v>2</v>
-      </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>0</v>
       </c>
       <c r="AA212">
+        <v>-0</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6920539</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45374.45833333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" t="s">
+        <v>44</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>47</v>
+      </c>
+      <c r="K213">
+        <v>2.875</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>1.95</v>
+      </c>
+      <c r="N213">
+        <v>2.1</v>
+      </c>
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
+        <v>2.625</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>3</v>
+      </c>
+      <c r="U213">
+        <v>2.025</v>
+      </c>
+      <c r="V213">
+        <v>1.825</v>
+      </c>
+      <c r="W213">
+        <v>1.1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA213">
+        <v>-1</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6920540</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45374.60416666666</v>
+      </c>
+      <c r="F214" t="s">
+        <v>31</v>
+      </c>
+      <c r="G214" t="s">
+        <v>29</v>
+      </c>
+      <c r="H214">
+        <v>4</v>
+      </c>
+      <c r="I214">
+        <v>3</v>
+      </c>
+      <c r="J214" t="s">
+        <v>47</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3.75</v>
+      </c>
+      <c r="M214">
+        <v>2.875</v>
+      </c>
+      <c r="N214">
+        <v>1.75</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>3.75</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>2.025</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.875</v>
+      </c>
+      <c r="V214">
+        <v>1.975</v>
+      </c>
+      <c r="W214">
+        <v>0.75</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.825</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.875</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6920544</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F215" t="s">
+        <v>41</v>
+      </c>
+      <c r="G215" t="s">
+        <v>40</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>47</v>
+      </c>
+      <c r="K215">
+        <v>1.75</v>
+      </c>
+      <c r="L215">
+        <v>4</v>
+      </c>
+      <c r="M215">
+        <v>3.4</v>
+      </c>
+      <c r="N215">
+        <v>1.533</v>
+      </c>
+      <c r="O215">
+        <v>4.2</v>
+      </c>
+      <c r="P215">
+        <v>4.5</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>1.85</v>
+      </c>
+      <c r="S215">
+        <v>1.95</v>
+      </c>
+      <c r="T215">
+        <v>3</v>
+      </c>
+      <c r="U215">
+        <v>1.925</v>
+      </c>
+      <c r="V215">
+        <v>1.875</v>
+      </c>
+      <c r="W215">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>-0</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6920542</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F216" t="s">
+        <v>46</v>
+      </c>
+      <c r="G216" t="s">
+        <v>42</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216" t="s">
+        <v>48</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>3.75</v>
+      </c>
+      <c r="M216">
+        <v>2.875</v>
+      </c>
+      <c r="N216">
+        <v>2.5</v>
+      </c>
+      <c r="O216">
+        <v>3.6</v>
+      </c>
+      <c r="P216">
+        <v>2.3</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>1.875</v>
+      </c>
+      <c r="T216">
+        <v>3</v>
+      </c>
+      <c r="U216">
+        <v>1.875</v>
+      </c>
+      <c r="V216">
+        <v>1.975</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>1.3</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>0.875</v>
+      </c>
+      <c r="AB216">
+        <v>0.875</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6919345</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F217" t="s">
+        <v>39</v>
+      </c>
+      <c r="G217" t="s">
+        <v>45</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="s">
+        <v>49</v>
+      </c>
+      <c r="K217">
+        <v>1.6</v>
+      </c>
+      <c r="L217">
+        <v>3.75</v>
+      </c>
+      <c r="M217">
+        <v>4.5</v>
+      </c>
+      <c r="N217">
+        <v>1.7</v>
+      </c>
+      <c r="O217">
+        <v>3.5</v>
+      </c>
+      <c r="P217">
+        <v>4.2</v>
+      </c>
+      <c r="Q217">
+        <v>-0.75</v>
+      </c>
+      <c r="R217">
+        <v>1.95</v>
+      </c>
+      <c r="S217">
+        <v>1.85</v>
+      </c>
+      <c r="T217">
+        <v>2.75</v>
+      </c>
+      <c r="U217">
+        <v>1.775</v>
+      </c>
+      <c r="V217">
+        <v>2.025</v>
+      </c>
+      <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>2.5</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6920545</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45375.45833333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>38</v>
+      </c>
+      <c r="G218" t="s">
+        <v>37</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>47</v>
+      </c>
+      <c r="K218">
+        <v>2.6</v>
+      </c>
+      <c r="L218">
+        <v>4</v>
+      </c>
+      <c r="M218">
+        <v>2.1</v>
+      </c>
+      <c r="N218">
+        <v>2.5</v>
+      </c>
+      <c r="O218">
+        <v>3.8</v>
+      </c>
+      <c r="P218">
+        <v>2.25</v>
+      </c>
+      <c r="Q218">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>2.025</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
+        <v>2.75</v>
+      </c>
+      <c r="U218">
+        <v>1.85</v>
+      </c>
+      <c r="V218">
+        <v>2</v>
+      </c>
+      <c r="W218">
+        <v>1.5</v>
+      </c>
+      <c r="X218">
+        <v>-1</v>
+      </c>
+      <c r="Y218">
+        <v>-1</v>
+      </c>
+      <c r="Z218">
+        <v>1.025</v>
+      </c>
+      <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.425</v>
+      </c>
+      <c r="AC218">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6920538</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45375.45833333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>36</v>
+      </c>
+      <c r="G219" t="s">
+        <v>35</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219" t="s">
+        <v>49</v>
+      </c>
+      <c r="K219">
+        <v>3.25</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
+      </c>
+      <c r="M219">
+        <v>1.8</v>
+      </c>
+      <c r="N219">
+        <v>2.875</v>
+      </c>
+      <c r="O219">
+        <v>3.5</v>
+      </c>
+      <c r="P219">
+        <v>2.1</v>
+      </c>
+      <c r="Q219">
+        <v>0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.9</v>
+      </c>
+      <c r="S219">
+        <v>1.95</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.875</v>
+      </c>
+      <c r="V219">
+        <v>1.975</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>2.5</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
+        <v>0.45</v>
+      </c>
+      <c r="AA219">
+        <v>-0.5</v>
+      </c>
+      <c r="AB219">
+        <v>0.875</v>
+      </c>
+      <c r="AC219">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7764328</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F220" t="s">
+        <v>36</v>
+      </c>
+      <c r="G220" t="s">
+        <v>41</v>
+      </c>
+      <c r="K220">
+        <v>3.75</v>
+      </c>
+      <c r="L220">
+        <v>4</v>
+      </c>
+      <c r="M220">
+        <v>1.666</v>
+      </c>
+      <c r="N220">
+        <v>5.25</v>
+      </c>
+      <c r="O220">
+        <v>4.333</v>
+      </c>
+      <c r="P220">
+        <v>1.5</v>
+      </c>
+      <c r="Q220">
+        <v>1.25</v>
+      </c>
+      <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>3.25</v>
+      </c>
+      <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
+        <v>1.9</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7764326</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F221" t="s">
+        <v>31</v>
+      </c>
+      <c r="G221" t="s">
+        <v>38</v>
+      </c>
+      <c r="K221">
+        <v>2.875</v>
+      </c>
+      <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221">
+        <v>3.75</v>
+      </c>
+      <c r="P221">
+        <v>2</v>
+      </c>
+      <c r="Q221">
+        <v>0.25</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>1.85</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.8</v>
+      </c>
+      <c r="V221">
+        <v>2.05</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -115,16 +115,16 @@
     <t>Hamburg SV II</t>
   </si>
   <si>
+    <t>TSV Havelse</t>
+  </si>
+  <si>
     <t>St Pauli II</t>
   </si>
   <si>
-    <t>TSV Havelse</t>
+    <t>SC SpelleVenhaus</t>
   </si>
   <si>
     <t>Bremer SV</t>
-  </si>
-  <si>
-    <t>SC SpelleVenhaus</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920334</v>
+        <v>6920333</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,31 +993,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
         <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>3.3</v>
@@ -1044,10 +1044,10 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,10 +1056,10 @@
         <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920333</v>
+        <v>6920334</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,31 +1082,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
         <v>1.8</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
         <v>3.3</v>
@@ -1133,10 +1133,10 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y7">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1145,10 +1145,10 @@
         <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.475</v>
+      </c>
+      <c r="AA8">
         <v>-0.5</v>
       </c>
-      <c r="AA8">
-        <v>0.45</v>
-      </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
+        <v>1.615</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>2.75</v>
       </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.875</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
+      <c r="U20">
+        <v>1.775</v>
+      </c>
+      <c r="V20">
+        <v>2.025</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1.875</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
-      <c r="W20">
-        <v>1.05</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
+        <v>2.25</v>
+      </c>
+      <c r="L21">
+        <v>3.75</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <v>2.05</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>2.75</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>1.615</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.775</v>
-      </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6920360</v>
+        <v>6920359</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,55 +3215,55 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>48</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
         <v>3.25</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3272,19 +3272,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.8</v>
-      </c>
-      <c r="AB31">
-        <v>-0.5</v>
-      </c>
-      <c r="AC31">
-        <v>0.45</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6920359</v>
+        <v>6920360</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,55 +3304,55 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>1.571</v>
+      </c>
+      <c r="N32">
+        <v>5.25</v>
+      </c>
+      <c r="O32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>2.6</v>
-      </c>
-      <c r="N32">
-        <v>1.7</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
         <v>3.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3361,19 +3361,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3574,7 +3574,7 @@
         <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3930,7 +3930,7 @@
         <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6920377</v>
+        <v>6919327</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,13 +4639,13 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4654,43 +4654,43 @@
         <v>47</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
         <v>3.75</v>
       </c>
       <c r="M47">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4699,13 +4699,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6919327</v>
+        <v>6920377</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
         <v>3.75</v>
       </c>
       <c r="M48">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,13 +4788,13 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4817,7 +4817,7 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -4906,7 +4906,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
         <v>34</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5707,7 +5707,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6920392</v>
+        <v>6920393</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65">
+        <v>2.3</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.5</v>
+      </c>
+      <c r="N65">
+        <v>2.1</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.8</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>1.9</v>
+      </c>
+      <c r="T65">
+        <v>3.25</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>1.8</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>1.8</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB65">
         <v>1</v>
       </c>
-      <c r="J65" t="s">
-        <v>47</v>
-      </c>
-      <c r="K65">
-        <v>1.125</v>
-      </c>
-      <c r="L65">
-        <v>7.5</v>
-      </c>
-      <c r="M65">
-        <v>11</v>
-      </c>
-      <c r="N65">
-        <v>1.3</v>
-      </c>
-      <c r="O65">
-        <v>4.75</v>
-      </c>
-      <c r="P65">
-        <v>7.5</v>
-      </c>
-      <c r="Q65">
-        <v>-1.75</v>
-      </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.875</v>
-      </c>
-      <c r="T65">
-        <v>3.75</v>
-      </c>
-      <c r="U65">
-        <v>1.8</v>
-      </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
-      <c r="W65">
-        <v>0.3</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.875</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6920393</v>
+        <v>6920392</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M66">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>1</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7220,7 +7220,7 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6919330</v>
+        <v>6920400</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,73 +7309,73 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L77">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M77">
+        <v>3.5</v>
+      </c>
+      <c r="N77">
+        <v>1.666</v>
+      </c>
+      <c r="O77">
+        <v>4.2</v>
+      </c>
+      <c r="P77">
+        <v>3.75</v>
+      </c>
+      <c r="Q77">
+        <v>-0.75</v>
+      </c>
+      <c r="R77">
+        <v>1.9</v>
+      </c>
+      <c r="S77">
+        <v>1.9</v>
+      </c>
+      <c r="T77">
         <v>3.25</v>
       </c>
-      <c r="N77">
-        <v>1.75</v>
-      </c>
-      <c r="O77">
-        <v>4.5</v>
-      </c>
-      <c r="P77">
+      <c r="U77">
+        <v>1.975</v>
+      </c>
+      <c r="V77">
+        <v>1.825</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>3.2</v>
       </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.8</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>3.5</v>
-      </c>
-      <c r="U77">
-        <v>1.8</v>
-      </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6920400</v>
+        <v>6919330</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,73 +7398,73 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L78">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M78">
+        <v>3.25</v>
+      </c>
+      <c r="N78">
+        <v>1.75</v>
+      </c>
+      <c r="O78">
+        <v>4.5</v>
+      </c>
+      <c r="P78">
+        <v>3.2</v>
+      </c>
+      <c r="Q78">
+        <v>-0.5</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
         <v>3.5</v>
       </c>
-      <c r="N78">
-        <v>1.666</v>
-      </c>
-      <c r="O78">
-        <v>4.2</v>
-      </c>
-      <c r="P78">
-        <v>3.75</v>
-      </c>
-      <c r="Q78">
-        <v>-0.75</v>
-      </c>
-      <c r="R78">
-        <v>1.9</v>
-      </c>
-      <c r="S78">
-        <v>1.9</v>
-      </c>
-      <c r="T78">
-        <v>3.25</v>
-      </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6920402</v>
+        <v>7264186</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
         <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7264186</v>
+        <v>6920402</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N81">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
         <v>3.6</v>
       </c>
       <c r="P81">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>32</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6920414</v>
+        <v>6922683</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6922683</v>
+        <v>6920414</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N94">
+        <v>2.2</v>
+      </c>
+      <c r="O94">
+        <v>3.6</v>
+      </c>
+      <c r="P94">
+        <v>2.6</v>
+      </c>
+      <c r="Q94">
+        <v>-0.25</v>
+      </c>
+      <c r="R94">
+        <v>2.025</v>
+      </c>
+      <c r="S94">
+        <v>1.775</v>
+      </c>
+      <c r="T94">
+        <v>3.5</v>
+      </c>
+      <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
+        <v>1.925</v>
+      </c>
+      <c r="W94">
         <v>1.2</v>
       </c>
-      <c r="O94">
-        <v>5.75</v>
-      </c>
-      <c r="P94">
-        <v>9.5</v>
-      </c>
-      <c r="Q94">
-        <v>-2</v>
-      </c>
-      <c r="R94">
-        <v>2</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>3.75</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9000,7 +9000,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>42</v>
@@ -9089,10 +9089,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N106">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P106">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O107">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z107">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
         <v>4</v>
       </c>
-      <c r="L109">
-        <v>4.2</v>
-      </c>
       <c r="M109">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N109">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>4.2</v>
+      </c>
+      <c r="M110">
+        <v>1.6</v>
+      </c>
+      <c r="N110">
+        <v>2.45</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>2.2</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
         <v>1.8</v>
       </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>3.25</v>
-      </c>
-      <c r="N110">
-        <v>1.5</v>
-      </c>
-      <c r="O110">
-        <v>4.333</v>
-      </c>
-      <c r="P110">
-        <v>4.75</v>
-      </c>
-      <c r="Q110">
-        <v>-1</v>
-      </c>
-      <c r="R110">
-        <v>1.825</v>
-      </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6920441</v>
+        <v>6920437</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,70 +10691,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M115">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P115">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U115">
         <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>0.9750000000000001</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6920437</v>
+        <v>6920441</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,70 +10780,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L116">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q116">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
         <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
         <v>0.9750000000000001</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920445</v>
+        <v>6920446</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O122">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="Q122">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
+        <v>1.975</v>
+      </c>
+      <c r="T122">
+        <v>3.25</v>
+      </c>
+      <c r="U122">
         <v>1.95</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.9</v>
       </c>
-      <c r="T122">
-        <v>3.75</v>
-      </c>
-      <c r="U122">
-        <v>1.975</v>
-      </c>
-      <c r="V122">
-        <v>1.875</v>
-      </c>
       <c r="W122">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920446</v>
+        <v>6920445</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O123">
+        <v>5.75</v>
+      </c>
+      <c r="P123">
+        <v>9</v>
+      </c>
+      <c r="Q123">
+        <v>-2</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
         <v>3.75</v>
       </c>
-      <c r="P123">
-        <v>1.95</v>
-      </c>
-      <c r="Q123">
-        <v>0.5</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
-      <c r="T123">
-        <v>3.25</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,56 +11848,56 @@
         <v>45240.625</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O128">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
         <v>1.875</v>
       </c>
-      <c r="V128">
-        <v>1.925</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,56 +11937,56 @@
         <v>45240.625</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N129">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
         <v>3.25</v>
       </c>
       <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="V129">
-        <v>1.875</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
@@ -11994,19 +11994,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12382,7 +12382,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6920573</v>
+        <v>6920460</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
         <v>4</v>
       </c>
-      <c r="P136">
-        <v>1.6</v>
-      </c>
       <c r="Q136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
         <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6920460</v>
+        <v>6920573</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>1.3</v>
+      </c>
+      <c r="N137">
+        <v>4.2</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>1.6</v>
+      </c>
+      <c r="Q137">
         <v>1</v>
       </c>
-      <c r="J137" t="s">
-        <v>47</v>
-      </c>
-      <c r="K137">
-        <v>1.909</v>
-      </c>
-      <c r="L137">
-        <v>4</v>
-      </c>
-      <c r="M137">
+      <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
+        <v>2.025</v>
+      </c>
+      <c r="T137">
         <v>3</v>
-      </c>
-      <c r="N137">
-        <v>1.571</v>
-      </c>
-      <c r="O137">
-        <v>4.5</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
-      </c>
-      <c r="Q137">
-        <v>-1</v>
-      </c>
-      <c r="R137">
-        <v>2.05</v>
-      </c>
-      <c r="S137">
-        <v>1.8</v>
-      </c>
-      <c r="T137">
-        <v>3.25</v>
       </c>
       <c r="U137">
         <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13987,7 +13987,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6920498</v>
+        <v>6920496</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,55 +15052,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N164">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15109,16 +15109,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920496</v>
+        <v>6920498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
+        <v>29</v>
+      </c>
+      <c r="G166" t="s">
         <v>34</v>
-      </c>
-      <c r="G166" t="s">
-        <v>37</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
+        <v>2.6</v>
+      </c>
+      <c r="N166">
         <v>2.25</v>
       </c>
-      <c r="N166">
-        <v>2.375</v>
-      </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,16 +15287,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15319,7 +15319,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>39</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7830717</v>
+        <v>6920503</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,13 +15675,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15690,40 +15690,40 @@
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M171">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N171">
         <v>1.85</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q171">
         <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
         <v>0.8500000000000001</v>
@@ -15735,16 +15735,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
+        <v>0.925</v>
+      </c>
+      <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
         <v>1</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6920503</v>
+        <v>7830717</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,13 +15853,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15868,40 +15868,40 @@
         <v>47</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N173">
         <v>1.85</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q173">
         <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T173">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W173">
         <v>0.8500000000000001</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16387,7 +16387,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6920516</v>
+        <v>6920515</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,13 +16743,13 @@
         <v>45353.375</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -16758,43 +16758,43 @@
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>1.55</v>
+        <v>1.166</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P183">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U183">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.55</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6920515</v>
+        <v>6920516</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,13 +16832,13 @@
         <v>45353.375</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -16847,43 +16847,43 @@
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L184">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.166</v>
+        <v>1.55</v>
       </c>
       <c r="O184">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q184">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R184">
+        <v>1.9</v>
+      </c>
+      <c r="S184">
+        <v>1.9</v>
+      </c>
+      <c r="T184">
+        <v>3.5</v>
+      </c>
+      <c r="U184">
         <v>1.925</v>
       </c>
-      <c r="S184">
-        <v>1.925</v>
-      </c>
-      <c r="T184">
-        <v>3.75</v>
-      </c>
-      <c r="U184">
+      <c r="V184">
         <v>1.875</v>
       </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
       <c r="W184">
-        <v>0.1659999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6920517</v>
+        <v>6920520</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M189">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N189">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W189">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
+        <v>-0.5</v>
+      </c>
+      <c r="AA189">
+        <v>0.4375</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>1</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
-      <c r="AB189">
-        <v>1</v>
-      </c>
-      <c r="AC189">
-        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6920520</v>
+        <v>6920517</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H190">
+        <v>5</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>47</v>
+      </c>
+      <c r="K190">
+        <v>1.4</v>
+      </c>
+      <c r="L190">
+        <v>4.5</v>
+      </c>
+      <c r="M190">
+        <v>5.5</v>
+      </c>
+      <c r="N190">
+        <v>1.45</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
+        <v>5.25</v>
+      </c>
+      <c r="Q190">
+        <v>-1.25</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>1.8</v>
+      </c>
+      <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>1.8</v>
+      </c>
+      <c r="W190">
+        <v>0.45</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
         <v>1</v>
       </c>
-      <c r="I190">
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>1</v>
       </c>
-      <c r="J190" t="s">
-        <v>49</v>
-      </c>
-      <c r="K190">
-        <v>2.25</v>
-      </c>
-      <c r="L190">
-        <v>4</v>
-      </c>
-      <c r="M190">
-        <v>2.4</v>
-      </c>
-      <c r="N190">
-        <v>2.15</v>
-      </c>
-      <c r="O190">
-        <v>3.8</v>
-      </c>
-      <c r="P190">
-        <v>2.625</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
-        <v>1.975</v>
-      </c>
-      <c r="S190">
-        <v>1.875</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
-      <c r="V190">
-        <v>2</v>
-      </c>
-      <c r="W190">
-        <v>-1</v>
-      </c>
-      <c r="X190">
-        <v>2.8</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
-      <c r="Z190">
-        <v>-0.5</v>
-      </c>
-      <c r="AA190">
-        <v>0.4375</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
-      </c>
       <c r="AC190">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7764324</v>
+        <v>7764322</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,13 +17633,13 @@
         <v>45357.625</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>3</v>
@@ -17648,41 +17648,41 @@
         <v>48</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M193">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="N193">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q193">
         <v>0.25</v>
       </c>
       <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
         <v>1.775</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>2.025</v>
       </c>
-      <c r="T193">
-        <v>3</v>
-      </c>
-      <c r="U193">
-        <v>2</v>
-      </c>
-      <c r="V193">
-        <v>1.8</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17690,19 +17690,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7764322</v>
+        <v>7764324</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,13 +17722,13 @@
         <v>45357.625</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>3</v>
@@ -17737,41 +17737,41 @@
         <v>48</v>
       </c>
       <c r="K194">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M194">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N194">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q194">
         <v>0.25</v>
       </c>
       <c r="R194">
+        <v>1.775</v>
+      </c>
+      <c r="S194">
+        <v>2.025</v>
+      </c>
+      <c r="T194">
+        <v>3</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
         <v>1.8</v>
       </c>
-      <c r="S194">
-        <v>2</v>
-      </c>
-      <c r="T194">
-        <v>2.75</v>
-      </c>
-      <c r="U194">
-        <v>1.775</v>
-      </c>
-      <c r="V194">
-        <v>2.025</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
@@ -17779,19 +17779,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB194">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6920524</v>
+        <v>6920523</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,58 +17811,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
+        <v>1.875</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
         <v>1.95</v>
       </c>
-      <c r="T195">
-        <v>3</v>
-      </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17871,16 +17871,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6920523</v>
+        <v>6920524</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,58 +17900,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>4</v>
+      </c>
+      <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>4</v>
+      </c>
+      <c r="P196">
         <v>5</v>
       </c>
-      <c r="M196">
-        <v>6</v>
-      </c>
-      <c r="N196">
-        <v>1.4</v>
-      </c>
-      <c r="O196">
-        <v>4.5</v>
-      </c>
-      <c r="P196">
-        <v>6</v>
-      </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
         <v>1.975</v>
       </c>
-      <c r="S196">
-        <v>1.875</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.95</v>
-      </c>
-      <c r="V196">
-        <v>1.9</v>
-      </c>
       <c r="W196">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,16 +17960,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6920530</v>
+        <v>6920529</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
         <v>0</v>
       </c>
-      <c r="I200">
-        <v>3</v>
-      </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L200">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="N200">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q200">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6920529</v>
+        <v>6920530</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="L201">
+        <v>4.333</v>
+      </c>
+      <c r="M201">
+        <v>1.444</v>
+      </c>
+      <c r="N201">
+        <v>5.5</v>
+      </c>
+      <c r="O201">
         <v>4</v>
       </c>
-      <c r="M201">
+      <c r="P201">
+        <v>1.45</v>
+      </c>
+      <c r="Q201">
+        <v>1.25</v>
+      </c>
+      <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
         <v>3.25</v>
       </c>
-      <c r="N201">
-        <v>1.85</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
-      <c r="P201">
-        <v>3.3</v>
-      </c>
-      <c r="Q201">
+      <c r="U201">
+        <v>1.825</v>
+      </c>
+      <c r="V201">
+        <v>2.025</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>0.45</v>
+      </c>
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
+        <v>1.025</v>
+      </c>
+      <c r="AB201">
         <v>-0.5</v>
       </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
-      <c r="U201">
-        <v>1.975</v>
-      </c>
-      <c r="V201">
-        <v>1.875</v>
-      </c>
-      <c r="W201">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>-1</v>
-      </c>
-      <c r="Z201">
-        <v>0.925</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
       <c r="AC201">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6920527</v>
+        <v>6920528</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,55 +18434,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
         <v>3</v>
-      </c>
-      <c r="I202">
-        <v>4</v>
       </c>
       <c r="J202" t="s">
         <v>48</v>
       </c>
       <c r="K202">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L202">
         <v>4</v>
       </c>
       <c r="M202">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N202">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P202">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
         <v>1.975</v>
       </c>
-      <c r="S202">
-        <v>1.825</v>
-      </c>
       <c r="T202">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18491,16 +18491,16 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6920528</v>
+        <v>6920527</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,55 +18523,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="L203">
         <v>4</v>
       </c>
       <c r="M203">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P203">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q203">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
         <v>1.825</v>
       </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
       <c r="T203">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18580,16 +18580,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB203">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18882,7 +18882,7 @@
         <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -18971,7 +18971,7 @@
         <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19146,7 +19146,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>31</v>
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6920542</v>
+        <v>6919345</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L216">
         <v>3.75</v>
       </c>
       <c r="M216">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N216">
+        <v>1.7</v>
+      </c>
+      <c r="O216">
+        <v>3.5</v>
+      </c>
+      <c r="P216">
+        <v>4.2</v>
+      </c>
+      <c r="Q216">
+        <v>-0.75</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>1.85</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>1.775</v>
+      </c>
+      <c r="V216">
+        <v>2.025</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
         <v>2.5</v>
       </c>
-      <c r="O216">
-        <v>3.6</v>
-      </c>
-      <c r="P216">
-        <v>2.3</v>
-      </c>
-      <c r="Q216">
-        <v>0</v>
-      </c>
-      <c r="R216">
-        <v>1.975</v>
-      </c>
-      <c r="S216">
-        <v>1.875</v>
-      </c>
-      <c r="T216">
-        <v>3</v>
-      </c>
-      <c r="U216">
-        <v>1.875</v>
-      </c>
-      <c r="V216">
-        <v>1.975</v>
-      </c>
-      <c r="W216">
-        <v>-1</v>
-      </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
       <c r="Y216">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6919345</v>
+        <v>6920542</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,76 +19769,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K217">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L217">
         <v>3.75</v>
       </c>
       <c r="M217">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N217">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC217">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6920545</v>
+        <v>6920538</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H218">
         <v>2</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K218">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L218">
         <v>4</v>
       </c>
       <c r="M218">
+        <v>1.8</v>
+      </c>
+      <c r="N218">
+        <v>2.875</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
         <v>2.1</v>
       </c>
-      <c r="N218">
+      <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.9</v>
+      </c>
+      <c r="S218">
+        <v>1.95</v>
+      </c>
+      <c r="T218">
         <v>2.5</v>
       </c>
-      <c r="O218">
-        <v>3.8</v>
-      </c>
-      <c r="P218">
-        <v>2.25</v>
-      </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>2.025</v>
-      </c>
-      <c r="S218">
-        <v>1.825</v>
-      </c>
-      <c r="T218">
-        <v>2.75</v>
-      </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6920538</v>
+        <v>6920545</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L219">
         <v>4</v>
       </c>
       <c r="M219">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N219">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O219">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P219">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X219">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AA219">
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>0.425</v>
+      </c>
+      <c r="AC219">
         <v>-0.5</v>
-      </c>
-      <c r="AB219">
-        <v>0.875</v>
-      </c>
-      <c r="AC219">
-        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7764328</v>
+        <v>7898164</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20033,64 +20033,79 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45379.64583333334</v>
+        <v>45378.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>49</v>
       </c>
       <c r="K220">
+        <v>2.7</v>
+      </c>
+      <c r="L220">
         <v>3.75</v>
       </c>
-      <c r="L220">
-        <v>4</v>
-      </c>
       <c r="M220">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N220">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q220">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20098,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7764326</v>
+        <v>7764328</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20110,37 +20125,46 @@
         <v>45379.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221" t="s">
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O221">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
         <v>2.75</v>
@@ -20149,21 +20173,190 @@
         <v>1.8</v>
       </c>
       <c r="V221">
+        <v>2</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>0.55</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.95</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7764326</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F222" t="s">
+        <v>31</v>
+      </c>
+      <c r="G222" t="s">
+        <v>38</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>49</v>
+      </c>
+      <c r="K222">
+        <v>2.875</v>
+      </c>
+      <c r="L222">
+        <v>3.75</v>
+      </c>
+      <c r="M222">
+        <v>2</v>
+      </c>
+      <c r="N222">
+        <v>2.7</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>2.3</v>
+      </c>
+      <c r="Q222">
+        <v>0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.775</v>
+      </c>
+      <c r="S222">
+        <v>2.025</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.975</v>
+      </c>
+      <c r="V222">
+        <v>1.825</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>2.4</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>0.3875</v>
+      </c>
+      <c r="AA222">
+        <v>-0.5</v>
+      </c>
+      <c r="AB222">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC222">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7764329</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45381.54166666666</v>
+      </c>
+      <c r="F223" t="s">
+        <v>42</v>
+      </c>
+      <c r="G223" t="s">
+        <v>33</v>
+      </c>
+      <c r="K223">
+        <v>1.75</v>
+      </c>
+      <c r="L223">
+        <v>3.75</v>
+      </c>
+      <c r="M223">
+        <v>3.6</v>
+      </c>
+      <c r="N223">
+        <v>1.666</v>
+      </c>
+      <c r="O223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>4</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>1.85</v>
+      </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
+      <c r="T223">
+        <v>3</v>
+      </c>
+      <c r="U223">
         <v>2.05</v>
       </c>
-      <c r="W221">
+      <c r="V223">
+        <v>1.8</v>
+      </c>
+      <c r="W223">
         <v>0</v>
       </c>
-      <c r="X221">
+      <c r="X223">
         <v>0</v>
       </c>
-      <c r="Y221">
+      <c r="Y223">
         <v>0</v>
       </c>
-      <c r="Z221">
+      <c r="Z223">
         <v>0</v>
       </c>
-      <c r="AA221">
+      <c r="AA223">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -112,13 +112,13 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
+    <t>St Pauli II</t>
+  </si>
+  <si>
     <t>Hamburg SV II</t>
   </si>
   <si>
     <t>TSV Havelse</t>
-  </si>
-  <si>
-    <t>St Pauli II</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920335</v>
+        <v>6920334</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,52 +993,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>2.55</v>
+      </c>
+      <c r="O6">
         <v>3.25</v>
       </c>
-      <c r="N6">
-        <v>1.8</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
       <c r="P6">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
         <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>1.95</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1047,19 +1047,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920334</v>
+        <v>6920333</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,31 +1082,31 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
         <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <v>3.3</v>
@@ -1133,10 +1133,10 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1145,10 +1145,10 @@
         <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2236,7 +2236,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2595,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3571,7 +3571,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3930,7 +3930,7 @@
         <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6919327</v>
+        <v>6920376</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,73 +4639,73 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47">
+        <v>1.571</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="I47">
+      <c r="M47">
+        <v>4.5</v>
+      </c>
+      <c r="N47">
+        <v>1.4</v>
+      </c>
+      <c r="O47">
+        <v>4.75</v>
+      </c>
+      <c r="P47">
+        <v>5.25</v>
+      </c>
+      <c r="Q47">
+        <v>-1.25</v>
+      </c>
+      <c r="R47">
+        <v>1.9</v>
+      </c>
+      <c r="S47">
+        <v>1.95</v>
+      </c>
+      <c r="T47">
+        <v>3.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>1.85</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
+        <v>3.75</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
+        <v>0.95</v>
+      </c>
+      <c r="AB47">
         <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47">
-        <v>2.2</v>
-      </c>
-      <c r="L47">
-        <v>3.75</v>
-      </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.7</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
-      <c r="P47">
-        <v>2.05</v>
-      </c>
-      <c r="Q47">
-        <v>0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.925</v>
-      </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>3.25</v>
-      </c>
-      <c r="U47">
-        <v>1.95</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
-      <c r="W47">
-        <v>1.7</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>0.925</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>0.95</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920377</v>
+        <v>6919327</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L48">
         <v>3.75</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,13 +4788,13 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6920376</v>
+        <v>6920377</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
         <v>34</v>
       </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
+        <v>1.909</v>
+      </c>
+      <c r="N49">
         <v>4.5</v>
-      </c>
-      <c r="N49">
-        <v>1.4</v>
       </c>
       <c r="O49">
         <v>4.75</v>
       </c>
       <c r="P49">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T49">
+        <v>3.25</v>
+      </c>
+      <c r="U49">
+        <v>1.875</v>
+      </c>
+      <c r="V49">
+        <v>1.925</v>
+      </c>
+      <c r="W49">
         <v>3.5</v>
       </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
-      <c r="W49">
-        <v>-1</v>
-      </c>
       <c r="X49">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,7 +6864,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8825,7 +8825,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9092,7 +9092,7 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N106">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O106">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB106">
         <v>-0.5</v>
       </c>
-      <c r="AB106">
-        <v>0.825</v>
-      </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M107">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N107">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P107">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10780,7 +10780,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920447</v>
+        <v>6920445</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L121">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N121">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
         <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>3.5</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
       </c>
       <c r="V121">
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920446</v>
+        <v>6920447</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11329,61 +11329,61 @@
         <v>49</v>
       </c>
       <c r="K122">
+        <v>1.5</v>
+      </c>
+      <c r="L122">
+        <v>4.2</v>
+      </c>
+      <c r="M122">
+        <v>4.75</v>
+      </c>
+      <c r="N122">
+        <v>1.6</v>
+      </c>
+      <c r="O122">
+        <v>4</v>
+      </c>
+      <c r="P122">
+        <v>4.2</v>
+      </c>
+      <c r="Q122">
+        <v>-1</v>
+      </c>
+      <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
+        <v>1.825</v>
+      </c>
+      <c r="T122">
+        <v>3.5</v>
+      </c>
+      <c r="U122">
+        <v>1.925</v>
+      </c>
+      <c r="V122">
+        <v>1.875</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>3</v>
       </c>
-      <c r="L122">
-        <v>4</v>
-      </c>
-      <c r="M122">
-        <v>1.909</v>
-      </c>
-      <c r="N122">
-        <v>3.1</v>
-      </c>
-      <c r="O122">
-        <v>3.75</v>
-      </c>
-      <c r="P122">
-        <v>1.95</v>
-      </c>
-      <c r="Q122">
-        <v>0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.875</v>
-      </c>
-      <c r="S122">
-        <v>1.975</v>
-      </c>
-      <c r="T122">
-        <v>3.25</v>
-      </c>
-      <c r="U122">
-        <v>1.95</v>
-      </c>
-      <c r="V122">
-        <v>1.9</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>2.75</v>
-      </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.825</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.875</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
-      <c r="AC122">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920445</v>
+        <v>6920446</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="Q123">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>1.975</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
         <v>1.95</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.9</v>
       </c>
-      <c r="T123">
-        <v>3.75</v>
-      </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
       <c r="W123">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,56 +11848,56 @@
         <v>45240.625</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N128">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P128">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
         <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="V128">
-        <v>1.875</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,56 +11937,56 @@
         <v>45240.625</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L129">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
         <v>3.25</v>
       </c>
       <c r="U129">
+        <v>1.925</v>
+      </c>
+      <c r="V129">
         <v>1.875</v>
       </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
@@ -11994,19 +11994,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12382,7 +12382,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6919337</v>
+        <v>6920470</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,46 +13628,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H148">
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K148">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>2.05</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
       <c r="P148">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>3</v>
@@ -13679,19 +13679,19 @@
         <v>1.925</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6920470</v>
+        <v>6919337</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,46 +13717,46 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K149">
+        <v>1.666</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>3.75</v>
+      </c>
+      <c r="N149">
+        <v>1.8</v>
+      </c>
+      <c r="O149">
+        <v>3.8</v>
+      </c>
+      <c r="P149">
+        <v>3.25</v>
+      </c>
+      <c r="Q149">
+        <v>-0.5</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
         <v>1.95</v>
-      </c>
-      <c r="L149">
-        <v>3.75</v>
-      </c>
-      <c r="M149">
-        <v>3</v>
-      </c>
-      <c r="N149">
-        <v>2.05</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
-      <c r="P149">
-        <v>2.8</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.9</v>
-      </c>
-      <c r="S149">
-        <v>1.9</v>
       </c>
       <c r="T149">
         <v>3</v>
@@ -13768,19 +13768,19 @@
         <v>1.925</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>35</v>
@@ -14340,7 +14340,7 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>40</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14607,7 +14607,7 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>35</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15052,7 +15052,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>37</v>
@@ -15233,7 +15233,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15767,7 +15767,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16387,7 +16387,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>40</v>
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17277,10 +17277,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F189" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189" t="s">
         <v>34</v>
-      </c>
-      <c r="G189" t="s">
-        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17725,7 +17725,7 @@
         <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>45361.375</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18256,7 +18256,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
         <v>29</v>
@@ -18526,7 +18526,7 @@
         <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18615,7 +18615,7 @@
         <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18882,7 +18882,7 @@
         <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -19146,7 +19146,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
         <v>31</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6920544</v>
+        <v>6919345</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N215">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O215">
+        <v>3.5</v>
+      </c>
+      <c r="P215">
         <v>4.2</v>
       </c>
-      <c r="P215">
-        <v>4.5</v>
-      </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
+        <v>1.95</v>
+      </c>
+      <c r="S215">
         <v>1.85</v>
       </c>
-      <c r="S215">
-        <v>1.95</v>
-      </c>
       <c r="T215">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6919345</v>
+        <v>6920542</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K216">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L216">
         <v>3.75</v>
       </c>
       <c r="M216">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N216">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC216">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6920542</v>
+        <v>6920544</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,76 +19769,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L217">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N217">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
         <v>3</v>
       </c>
       <c r="U217">
+        <v>1.925</v>
+      </c>
+      <c r="V217">
         <v>1.875</v>
       </c>
-      <c r="V217">
-        <v>1.975</v>
-      </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA217">
+        <v>-0</v>
+      </c>
+      <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
         <v>0.875</v>
-      </c>
-      <c r="AB217">
-        <v>0.875</v>
-      </c>
-      <c r="AC217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>45378.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20306,7 +20306,7 @@
         <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K223">
         <v>1.75</v>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,73 +4639,73 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
+        <v>3.75</v>
+      </c>
+      <c r="M47">
+        <v>2.55</v>
+      </c>
+      <c r="N47">
+        <v>2.7</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>4.5</v>
-      </c>
-      <c r="N47">
-        <v>1.4</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q47">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.925</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>3.25</v>
+      </c>
+      <c r="U47">
+        <v>1.95</v>
+      </c>
+      <c r="V47">
         <v>1.9</v>
       </c>
-      <c r="S47">
-        <v>1.95</v>
-      </c>
-      <c r="T47">
-        <v>3.5</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.85</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>0.95</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6919327</v>
+        <v>6920377</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
         <v>3.75</v>
       </c>
       <c r="M48">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N48">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T48">
         <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,13 +4788,13 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6920377</v>
+        <v>6920376</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N49">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O49">
         <v>4.75</v>
       </c>
       <c r="P49">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N106">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P106">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O107">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z107">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L121">
+        <v>4.2</v>
+      </c>
+      <c r="M121">
         <v>4.75</v>
       </c>
-      <c r="M121">
-        <v>6</v>
-      </c>
       <c r="N121">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O121">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920447</v>
+        <v>6920446</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,10 +11314,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11329,61 +11329,61 @@
         <v>49</v>
       </c>
       <c r="K122">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M122">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
         <v>1.975</v>
       </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
       <c r="T122">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920446</v>
+        <v>6920445</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O123">
+        <v>5.75</v>
+      </c>
+      <c r="P123">
+        <v>9</v>
+      </c>
+      <c r="Q123">
+        <v>-2</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
         <v>3.75</v>
       </c>
-      <c r="P123">
-        <v>1.95</v>
-      </c>
-      <c r="Q123">
-        <v>0.5</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
-      <c r="T123">
-        <v>3.25</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6920452</v>
+        <v>6920451</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,56 +11848,56 @@
         <v>45240.625</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>48</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="O128">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
         <v>3.25</v>
       </c>
       <c r="U128">
+        <v>1.925</v>
+      </c>
+      <c r="V128">
         <v>1.875</v>
       </c>
-      <c r="V128">
-        <v>1.925</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11905,19 +11905,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB128">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6920451</v>
+        <v>6920452</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,56 +11937,56 @@
         <v>45240.625</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" t="s">
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M129">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N129">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
         <v>3.25</v>
       </c>
       <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="V129">
-        <v>1.875</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
@@ -11994,19 +11994,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6919345</v>
+        <v>6920544</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G215" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K215">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M215">
+        <v>3.4</v>
+      </c>
+      <c r="N215">
+        <v>1.533</v>
+      </c>
+      <c r="O215">
+        <v>4.2</v>
+      </c>
+      <c r="P215">
         <v>4.5</v>
       </c>
-      <c r="N215">
-        <v>1.7</v>
-      </c>
-      <c r="O215">
-        <v>3.5</v>
-      </c>
-      <c r="P215">
-        <v>4.2</v>
-      </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R215">
+        <v>1.85</v>
+      </c>
+      <c r="S215">
         <v>1.95</v>
       </c>
-      <c r="S215">
-        <v>1.85</v>
-      </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X215">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6920542</v>
+        <v>6919345</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K216">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L216">
         <v>3.75</v>
       </c>
       <c r="M216">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N216">
+        <v>1.7</v>
+      </c>
+      <c r="O216">
+        <v>3.5</v>
+      </c>
+      <c r="P216">
+        <v>4.2</v>
+      </c>
+      <c r="Q216">
+        <v>-0.75</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>1.85</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>1.775</v>
+      </c>
+      <c r="V216">
+        <v>2.025</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
         <v>2.5</v>
       </c>
-      <c r="O216">
-        <v>3.6</v>
-      </c>
-      <c r="P216">
-        <v>2.3</v>
-      </c>
-      <c r="Q216">
-        <v>0</v>
-      </c>
-      <c r="R216">
-        <v>1.975</v>
-      </c>
-      <c r="S216">
-        <v>1.875</v>
-      </c>
-      <c r="T216">
-        <v>3</v>
-      </c>
-      <c r="U216">
-        <v>1.875</v>
-      </c>
-      <c r="V216">
-        <v>1.975</v>
-      </c>
-      <c r="W216">
-        <v>-1</v>
-      </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
       <c r="Y216">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6920544</v>
+        <v>6920542</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,76 +19769,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>48</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>3.75</v>
+      </c>
+      <c r="M217">
+        <v>2.875</v>
+      </c>
+      <c r="N217">
+        <v>2.5</v>
+      </c>
+      <c r="O217">
+        <v>3.6</v>
+      </c>
+      <c r="P217">
+        <v>2.3</v>
+      </c>
+      <c r="Q217">
         <v>0</v>
       </c>
-      <c r="J217" t="s">
-        <v>47</v>
-      </c>
-      <c r="K217">
-        <v>1.75</v>
-      </c>
-      <c r="L217">
-        <v>4</v>
-      </c>
-      <c r="M217">
-        <v>3.4</v>
-      </c>
-      <c r="N217">
-        <v>1.533</v>
-      </c>
-      <c r="O217">
-        <v>4.2</v>
-      </c>
-      <c r="P217">
-        <v>4.5</v>
-      </c>
-      <c r="Q217">
-        <v>-1</v>
-      </c>
       <c r="R217">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
         <v>3</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6920538</v>
+        <v>6920545</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K218">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L218">
         <v>4</v>
       </c>
       <c r="M218">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N218">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X218">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.425</v>
+      </c>
+      <c r="AC218">
         <v>-0.5</v>
-      </c>
-      <c r="AB218">
-        <v>0.875</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6920545</v>
+        <v>6920538</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K219">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L219">
         <v>4</v>
       </c>
       <c r="M219">
+        <v>1.8</v>
+      </c>
+      <c r="N219">
+        <v>2.875</v>
+      </c>
+      <c r="O219">
+        <v>3.5</v>
+      </c>
+      <c r="P219">
         <v>2.1</v>
       </c>
-      <c r="N219">
+      <c r="Q219">
+        <v>0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.9</v>
+      </c>
+      <c r="S219">
+        <v>1.95</v>
+      </c>
+      <c r="T219">
         <v>2.5</v>
       </c>
-      <c r="O219">
-        <v>3.8</v>
-      </c>
-      <c r="P219">
-        <v>2.25</v>
-      </c>
-      <c r="Q219">
-        <v>0</v>
-      </c>
-      <c r="R219">
-        <v>2.025</v>
-      </c>
-      <c r="S219">
-        <v>1.825</v>
-      </c>
-      <c r="T219">
-        <v>2.75</v>
-      </c>
       <c r="U219">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7764329</v>
+        <v>7962340</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,49 +20300,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45381.54166666666</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K223">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
+        <v>3.2</v>
+      </c>
+      <c r="N223">
+        <v>1.909</v>
+      </c>
+      <c r="O223">
         <v>3.6</v>
       </c>
-      <c r="N223">
-        <v>1.666</v>
-      </c>
-      <c r="O223">
-        <v>4</v>
-      </c>
       <c r="P223">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
         <v>1.85</v>
-      </c>
-      <c r="S223">
-        <v>2</v>
       </c>
       <c r="T223">
         <v>3</v>
       </c>
       <c r="U223">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
         <v>0</v>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
+    <t>TSV Havelse</t>
+  </si>
+  <si>
     <t>St Pauli II</t>
   </si>
   <si>
     <t>Hamburg SV II</t>
   </si>
   <si>
-    <t>TSV Havelse</t>
+    <t>Bremer SV</t>
   </si>
   <si>
     <t>SC SpelleVenhaus</t>
-  </si>
-  <si>
-    <t>Bremer SV</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -133,10 +133,10 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
-    <t>FC Teutonia 05</t>
+    <t>Eimsbutteler TV</t>
   </si>
   <si>
-    <t>Eimsbutteler TV</t>
+    <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>Eintracht Norderstedt</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC223"/>
+  <dimension ref="A1:AC226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920334</v>
+        <v>6920333</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,31 +904,31 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
         <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P5">
         <v>3.3</v>
@@ -955,10 +955,10 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z5">
         <v>-1</v>
@@ -967,10 +967,10 @@
         <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920335</v>
+        <v>6920334</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
         <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>2.55</v>
+      </c>
+      <c r="O7">
         <v>3.25</v>
       </c>
-      <c r="N7">
-        <v>1.8</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
         <v>1.85</v>
-      </c>
-      <c r="S7">
-        <v>1.95</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
+        <v>0.475</v>
+      </c>
+      <c r="AA9">
         <v>-0.5</v>
       </c>
-      <c r="AA9">
-        <v>0.45</v>
-      </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6919324</v>
+        <v>6920344</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1619,70 +1619,70 @@
         <v>33</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>2.25</v>
+      </c>
+      <c r="L13">
+        <v>4.1</v>
+      </c>
+      <c r="M13">
+        <v>2.35</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>1.727</v>
+      </c>
+      <c r="Q13">
+        <v>0.75</v>
+      </c>
+      <c r="R13">
+        <v>1.825</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
         <v>3</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13">
-        <v>2.2</v>
-      </c>
-      <c r="L13">
-        <v>3.6</v>
-      </c>
-      <c r="M13">
-        <v>2.625</v>
-      </c>
-      <c r="N13">
-        <v>1.285</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <v>6.5</v>
-      </c>
-      <c r="Q13">
-        <v>-1.75</v>
-      </c>
-      <c r="R13">
+      <c r="U13">
+        <v>1.825</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="S13">
-        <v>1.825</v>
-      </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6920344</v>
+        <v>6919324</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,73 +1705,73 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
         <v>1.825</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
         <v>1.975</v>
       </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.825</v>
       </c>
-      <c r="V14">
-        <v>1.975</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.825</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2236,7 +2236,7 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2948,10 +2948,10 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3304,7 +3304,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3571,10 +3571,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -3660,7 +3660,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920364</v>
+        <v>6920366</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
         <v>3.6</v>
       </c>
       <c r="N39">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R39">
         <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920366</v>
+        <v>6920369</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>1.8</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
         <v>1.925</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>1.875</v>
       </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
-      <c r="U40">
-        <v>1.775</v>
-      </c>
-      <c r="V40">
-        <v>2.025</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920369</v>
+        <v>6920364</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,55 +4105,55 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
         <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N41">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
+        <v>3.6</v>
+      </c>
+      <c r="P41">
         <v>3.4</v>
       </c>
-      <c r="P41">
-        <v>2.8</v>
-      </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T41">
         <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,16 +4162,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6919327</v>
+        <v>6920377</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,13 +4639,13 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4654,43 +4654,43 @@
         <v>47</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L47">
         <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="N47">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>3.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4699,13 +4699,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6920377</v>
+        <v>6919327</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,13 +4728,13 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s">
         <v>40</v>
       </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
       <c r="H48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4743,43 +4743,43 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L48">
         <v>3.75</v>
       </c>
       <c r="M48">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4788,13 +4788,13 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4817,7 +4817,7 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -4906,7 +4906,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -5087,7 +5087,7 @@
         <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6920382</v>
+        <v>6920381</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6920381</v>
+        <v>6920382</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,10 +5529,10 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920386</v>
+        <v>6920384</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,43 +5618,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="L58">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
         <v>2</v>
@@ -5666,10 +5666,10 @@
         <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920384</v>
+        <v>6920386</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,43 +5796,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="L60">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N60">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5844,10 +5844,10 @@
         <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6333,7 +6333,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,10 +6864,10 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7220,7 +7220,7 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7398,7 +7398,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7264186</v>
+        <v>6920402</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L80">
         <v>3.75</v>
       </c>
       <c r="M80">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N80">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6920402</v>
+        <v>7264186</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O81">
         <v>3.6</v>
       </c>
       <c r="P81">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
         <v>41</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6922683</v>
+        <v>6920414</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N93">
+        <v>2.2</v>
+      </c>
+      <c r="O93">
+        <v>3.6</v>
+      </c>
+      <c r="P93">
+        <v>2.6</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>1.775</v>
+      </c>
+      <c r="T93">
+        <v>3.5</v>
+      </c>
+      <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
+        <v>1.925</v>
+      </c>
+      <c r="W93">
         <v>1.2</v>
       </c>
-      <c r="O93">
-        <v>5.75</v>
-      </c>
-      <c r="P93">
-        <v>9.5</v>
-      </c>
-      <c r="Q93">
-        <v>-2</v>
-      </c>
-      <c r="R93">
-        <v>2</v>
-      </c>
-      <c r="S93">
-        <v>1.8</v>
-      </c>
-      <c r="T93">
-        <v>3.75</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>1.85</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
       <c r="X93">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6920414</v>
+        <v>6922683</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N94">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P94">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9000,7 +9000,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>42</v>
@@ -9089,10 +9089,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9979,7 +9979,7 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>4.2</v>
+      </c>
+      <c r="M109">
+        <v>1.6</v>
+      </c>
+      <c r="N109">
+        <v>2.45</v>
+      </c>
+      <c r="O109">
+        <v>4</v>
+      </c>
+      <c r="P109">
+        <v>2.2</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
         <v>1.8</v>
       </c>
-      <c r="L109">
-        <v>4</v>
-      </c>
-      <c r="M109">
-        <v>3.25</v>
-      </c>
-      <c r="N109">
-        <v>1.5</v>
-      </c>
-      <c r="O109">
-        <v>4.333</v>
-      </c>
-      <c r="P109">
-        <v>4.75</v>
-      </c>
-      <c r="Q109">
-        <v>-1</v>
-      </c>
-      <c r="R109">
-        <v>1.825</v>
-      </c>
-      <c r="S109">
-        <v>1.975</v>
-      </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,76 +10246,76 @@
         <v>45221.375</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110">
+        <v>1.8</v>
+      </c>
+      <c r="L110">
         <v>4</v>
       </c>
-      <c r="L110">
-        <v>4.2</v>
-      </c>
       <c r="M110">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10694,7 +10694,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>9</v>
@@ -10780,7 +10780,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>46</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920446</v>
+        <v>6920445</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N122">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O122">
+        <v>5.75</v>
+      </c>
+      <c r="P122">
+        <v>9</v>
+      </c>
+      <c r="Q122">
+        <v>-2</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
         <v>3.75</v>
       </c>
-      <c r="P122">
-        <v>1.95</v>
-      </c>
-      <c r="Q122">
-        <v>0.5</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
         <v>1.875</v>
       </c>
-      <c r="S122">
-        <v>1.975</v>
-      </c>
-      <c r="T122">
-        <v>3.25</v>
-      </c>
-      <c r="U122">
-        <v>1.95</v>
-      </c>
-      <c r="V122">
-        <v>1.9</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X122">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920445</v>
+        <v>6920446</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="Q123">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>1.975</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
         <v>1.95</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.9</v>
       </c>
-      <c r="T123">
-        <v>3.75</v>
-      </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
       <c r="W123">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6920448</v>
+        <v>6922682</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>11</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R124">
+        <v>1.925</v>
+      </c>
+      <c r="S124">
         <v>1.875</v>
       </c>
-      <c r="S124">
+      <c r="T124">
+        <v>4</v>
+      </c>
+      <c r="U124">
         <v>1.925</v>
       </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.775</v>
-      </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6922682</v>
+        <v>6920448</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125">
+        <v>2.25</v>
+      </c>
+      <c r="L125">
+        <v>3.6</v>
+      </c>
+      <c r="M125">
+        <v>2.55</v>
+      </c>
+      <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>2.4</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125">
-        <v>1.125</v>
-      </c>
-      <c r="L125">
-        <v>7.5</v>
-      </c>
-      <c r="M125">
-        <v>11</v>
-      </c>
-      <c r="N125">
-        <v>1.222</v>
-      </c>
-      <c r="O125">
-        <v>5.5</v>
-      </c>
-      <c r="P125">
-        <v>8.5</v>
-      </c>
-      <c r="Q125">
-        <v>-2</v>
-      </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>4</v>
-      </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11851,7 +11851,7 @@
         <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12382,10 +12382,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12649,7 +12649,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>44</v>
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13094,10 +13094,10 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13717,7 +13717,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13806,10 +13806,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14340,10 +14340,10 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15052,7 +15052,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
         <v>37</v>
@@ -15233,7 +15233,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15319,10 +15319,10 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15764,10 +15764,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16031,7 +16031,7 @@
         <v>45346.33333333334</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -16387,10 +16387,10 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16568,7 +16568,7 @@
         <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16746,7 +16746,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17010,7 +17010,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6920520</v>
+        <v>6920517</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>47</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189">
+        <v>4.5</v>
+      </c>
+      <c r="M189">
+        <v>5.5</v>
+      </c>
+      <c r="N189">
+        <v>1.45</v>
+      </c>
+      <c r="O189">
+        <v>4.2</v>
+      </c>
+      <c r="P189">
+        <v>5.25</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>1.8</v>
+      </c>
+      <c r="W189">
+        <v>0.45</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
         <v>1</v>
       </c>
-      <c r="I189">
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
         <v>1</v>
       </c>
-      <c r="J189" t="s">
-        <v>49</v>
-      </c>
-      <c r="K189">
-        <v>2.25</v>
-      </c>
-      <c r="L189">
-        <v>4</v>
-      </c>
-      <c r="M189">
-        <v>2.4</v>
-      </c>
-      <c r="N189">
-        <v>2.15</v>
-      </c>
-      <c r="O189">
-        <v>3.8</v>
-      </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
-      <c r="Q189">
-        <v>-0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.975</v>
-      </c>
-      <c r="S189">
-        <v>1.875</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
-      <c r="V189">
-        <v>2</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>2.8</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
-      <c r="Z189">
-        <v>-0.5</v>
-      </c>
-      <c r="AA189">
-        <v>0.4375</v>
-      </c>
-      <c r="AB189">
-        <v>-1</v>
-      </c>
       <c r="AC189">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6920517</v>
+        <v>6920520</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>-0.5</v>
+      </c>
+      <c r="AA190">
+        <v>0.4375</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
         <v>1</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>1</v>
-      </c>
-      <c r="AC190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17455,10 +17455,10 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>45357.625</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
         <v>45</v>
@@ -17725,7 +17725,7 @@
         <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17799,7 +17799,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6920523</v>
+        <v>6920524</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17811,58 +17811,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>47</v>
       </c>
       <c r="K195">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L195">
+        <v>4</v>
+      </c>
+      <c r="M195">
+        <v>4</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
         <v>5</v>
       </c>
-      <c r="M195">
-        <v>6</v>
-      </c>
-      <c r="N195">
-        <v>1.4</v>
-      </c>
-      <c r="O195">
-        <v>4.5</v>
-      </c>
-      <c r="P195">
-        <v>6</v>
-      </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
+        <v>1.95</v>
+      </c>
+      <c r="T195">
+        <v>3</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
         <v>1.975</v>
       </c>
-      <c r="S195">
-        <v>1.875</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>1.95</v>
-      </c>
-      <c r="V195">
-        <v>1.9</v>
-      </c>
       <c r="W195">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17871,16 +17871,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6920524</v>
+        <v>6920523</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,58 +17900,58 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
         <v>1</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>47</v>
       </c>
       <c r="K196">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
+        <v>1.875</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
         <v>1.95</v>
       </c>
-      <c r="T196">
-        <v>3</v>
-      </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17960,16 +17960,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
         <v>42</v>
@@ -18167,7 +18167,7 @@
         <v>45361.375</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18256,7 +18256,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>29</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6920530</v>
+        <v>6920527</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,55 +18345,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J201" t="s">
         <v>48</v>
       </c>
       <c r="K201">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="L201">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="N201">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="O201">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q201">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
         <v>1.825</v>
       </c>
-      <c r="S201">
-        <v>2.025</v>
-      </c>
       <c r="T201">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.45</v>
+        <v>2.8</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6920527</v>
+        <v>6920530</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,55 +18523,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
         <v>3</v>
-      </c>
-      <c r="I203">
-        <v>4</v>
       </c>
       <c r="J203" t="s">
         <v>48</v>
       </c>
       <c r="K203">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="L203">
+        <v>4.333</v>
+      </c>
+      <c r="M203">
+        <v>1.444</v>
+      </c>
+      <c r="N203">
+        <v>5.5</v>
+      </c>
+      <c r="O203">
         <v>4</v>
       </c>
-      <c r="M203">
-        <v>4.2</v>
-      </c>
-      <c r="N203">
-        <v>1.75</v>
-      </c>
-      <c r="O203">
-        <v>3.6</v>
-      </c>
       <c r="P203">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
+        <v>2.025</v>
+      </c>
+      <c r="T203">
+        <v>3.25</v>
+      </c>
+      <c r="U203">
         <v>1.825</v>
       </c>
-      <c r="T203">
-        <v>3</v>
-      </c>
-      <c r="U203">
-        <v>1.875</v>
-      </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18580,19 +18580,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB203">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18612,10 +18612,10 @@
         <v>45366.625</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6919344</v>
+        <v>6920532</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,58 +18790,58 @@
         <v>45367.375</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H206">
+        <v>4</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>47</v>
       </c>
       <c r="K206">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M206">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="N206">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
         <v>3.8</v>
-      </c>
-      <c r="P206">
-        <v>3.6</v>
       </c>
       <c r="Q206">
         <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
+        <v>1.9</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
         <v>1.85</v>
       </c>
-      <c r="T206">
-        <v>3</v>
-      </c>
-      <c r="U206">
-        <v>1.925</v>
-      </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0.7270000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18850,16 +18850,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6920532</v>
+        <v>6919344</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,58 +18879,58 @@
         <v>45367.375</v>
       </c>
       <c r="F207" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>47</v>
       </c>
       <c r="K207">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="N207">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O207">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P207">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q207">
         <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>0.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18971,7 +18971,7 @@
         <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6920536</v>
+        <v>6920533</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K210">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L210">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M210">
+        <v>2.6</v>
+      </c>
+      <c r="N210">
+        <v>1.727</v>
+      </c>
+      <c r="O210">
         <v>3.75</v>
       </c>
-      <c r="N210">
-        <v>1.95</v>
-      </c>
-      <c r="O210">
-        <v>3.8</v>
-      </c>
       <c r="P210">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q210">
         <v>-0.5</v>
       </c>
       <c r="R210">
+        <v>1.825</v>
+      </c>
+      <c r="S210">
+        <v>2.025</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.975</v>
       </c>
-      <c r="S210">
-        <v>1.825</v>
-      </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>1.8</v>
-      </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6920533</v>
+        <v>6920536</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>49</v>
+      </c>
+      <c r="K211">
+        <v>1.615</v>
+      </c>
+      <c r="L211">
+        <v>4.333</v>
+      </c>
+      <c r="M211">
+        <v>3.75</v>
+      </c>
+      <c r="N211">
+        <v>1.95</v>
+      </c>
+      <c r="O211">
+        <v>3.8</v>
+      </c>
+      <c r="P211">
         <v>3</v>
-      </c>
-      <c r="J211" t="s">
-        <v>48</v>
-      </c>
-      <c r="K211">
-        <v>2.1</v>
-      </c>
-      <c r="L211">
-        <v>4</v>
-      </c>
-      <c r="M211">
-        <v>2.6</v>
-      </c>
-      <c r="N211">
-        <v>1.727</v>
-      </c>
-      <c r="O211">
-        <v>3.75</v>
-      </c>
-      <c r="P211">
-        <v>3.6</v>
       </c>
       <c r="Q211">
         <v>-0.5</v>
       </c>
       <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
         <v>1.825</v>
       </c>
-      <c r="S211">
-        <v>2.025</v>
-      </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V211">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y211">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6920544</v>
+        <v>6920542</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215" t="s">
+        <v>48</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>3.75</v>
+      </c>
+      <c r="M215">
+        <v>2.875</v>
+      </c>
+      <c r="N215">
+        <v>2.5</v>
+      </c>
+      <c r="O215">
+        <v>3.6</v>
+      </c>
+      <c r="P215">
+        <v>2.3</v>
+      </c>
+      <c r="Q215">
         <v>0</v>
       </c>
-      <c r="J215" t="s">
-        <v>47</v>
-      </c>
-      <c r="K215">
-        <v>1.75</v>
-      </c>
-      <c r="L215">
-        <v>4</v>
-      </c>
-      <c r="M215">
-        <v>3.4</v>
-      </c>
-      <c r="N215">
-        <v>1.533</v>
-      </c>
-      <c r="O215">
-        <v>4.2</v>
-      </c>
-      <c r="P215">
-        <v>4.5</v>
-      </c>
-      <c r="Q215">
-        <v>-1</v>
-      </c>
       <c r="R215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T215">
         <v>3</v>
       </c>
       <c r="U215">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
         <v>45</v>
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6920542</v>
+        <v>6920544</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,76 +19769,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L217">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N217">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
         <v>3</v>
       </c>
       <c r="U217">
+        <v>1.925</v>
+      </c>
+      <c r="V217">
         <v>1.875</v>
       </c>
-      <c r="V217">
-        <v>1.975</v>
-      </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA217">
+        <v>-0</v>
+      </c>
+      <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
         <v>0.875</v>
-      </c>
-      <c r="AB217">
-        <v>0.875</v>
-      </c>
-      <c r="AC217">
-        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19846,7 +19846,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6920545</v>
+        <v>6920538</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19858,76 +19858,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H218">
         <v>2</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K218">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L218">
         <v>4</v>
       </c>
       <c r="M218">
+        <v>1.8</v>
+      </c>
+      <c r="N218">
+        <v>2.875</v>
+      </c>
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
         <v>2.1</v>
       </c>
-      <c r="N218">
+      <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.9</v>
+      </c>
+      <c r="S218">
+        <v>1.95</v>
+      </c>
+      <c r="T218">
         <v>2.5</v>
       </c>
-      <c r="O218">
-        <v>3.8</v>
-      </c>
-      <c r="P218">
-        <v>2.25</v>
-      </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>2.025</v>
-      </c>
-      <c r="S218">
-        <v>1.825</v>
-      </c>
-      <c r="T218">
-        <v>2.75</v>
-      </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6920538</v>
+        <v>6920545</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,76 +19947,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L219">
         <v>4</v>
       </c>
       <c r="M219">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N219">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O219">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P219">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X219">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AA219">
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>0.425</v>
+      </c>
+      <c r="AC219">
         <v>-0.5</v>
-      </c>
-      <c r="AB219">
-        <v>0.875</v>
-      </c>
-      <c r="AC219">
-        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20036,7 +20036,7 @@
         <v>45378.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20125,7 +20125,7 @@
         <v>45379.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G221" t="s">
         <v>41</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7962340</v>
+        <v>7764329</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20300,40 +20300,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45382.33333333334</v>
+        <v>45381.5</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
       </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>48</v>
+      </c>
       <c r="K223">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L223">
+        <v>3.75</v>
+      </c>
+      <c r="M223">
         <v>3.6</v>
       </c>
-      <c r="M223">
-        <v>3.2</v>
-      </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q223">
         <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
         <v>3</v>
@@ -20345,18 +20354,246 @@
         <v>1.925</v>
       </c>
       <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>2.5</v>
+      </c>
+      <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
+        <v>1.025</v>
+      </c>
+      <c r="AB223">
         <v>0</v>
       </c>
-      <c r="X223">
+      <c r="AC223">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7983290</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45383.375</v>
+      </c>
+      <c r="F224" t="s">
+        <v>44</v>
+      </c>
+      <c r="G224" t="s">
+        <v>37</v>
+      </c>
+      <c r="K224">
+        <v>2.05</v>
+      </c>
+      <c r="L224">
+        <v>3.6</v>
+      </c>
+      <c r="M224">
+        <v>2.875</v>
+      </c>
+      <c r="N224">
+        <v>2.55</v>
+      </c>
+      <c r="O224">
+        <v>3.6</v>
+      </c>
+      <c r="P224">
+        <v>2.25</v>
+      </c>
+      <c r="Q224">
         <v>0</v>
       </c>
-      <c r="Y223">
+      <c r="R224">
+        <v>2.05</v>
+      </c>
+      <c r="S224">
+        <v>1.8</v>
+      </c>
+      <c r="T224">
+        <v>3.25</v>
+      </c>
+      <c r="U224">
+        <v>2</v>
+      </c>
+      <c r="V224">
+        <v>1.85</v>
+      </c>
+      <c r="W224">
         <v>0</v>
       </c>
-      <c r="Z223">
+      <c r="X224">
         <v>0</v>
       </c>
-      <c r="AA223">
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7764320</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F225" t="s">
+        <v>35</v>
+      </c>
+      <c r="G225" t="s">
+        <v>45</v>
+      </c>
+      <c r="K225">
+        <v>2.15</v>
+      </c>
+      <c r="L225">
+        <v>3.6</v>
+      </c>
+      <c r="M225">
+        <v>2.7</v>
+      </c>
+      <c r="N225">
+        <v>2.25</v>
+      </c>
+      <c r="O225">
+        <v>3.5</v>
+      </c>
+      <c r="P225">
+        <v>2.6</v>
+      </c>
+      <c r="Q225">
+        <v>-0.25</v>
+      </c>
+      <c r="R225">
+        <v>2.05</v>
+      </c>
+      <c r="S225">
+        <v>1.8</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>1.925</v>
+      </c>
+      <c r="V225">
+        <v>1.925</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>8005201</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F226" t="s">
+        <v>36</v>
+      </c>
+      <c r="G226" t="s">
+        <v>31</v>
+      </c>
+      <c r="K226">
+        <v>4.6</v>
+      </c>
+      <c r="L226">
+        <v>4.333</v>
+      </c>
+      <c r="M226">
+        <v>1.5</v>
+      </c>
+      <c r="N226">
+        <v>5.5</v>
+      </c>
+      <c r="O226">
+        <v>4.333</v>
+      </c>
+      <c r="P226">
+        <v>1.444</v>
+      </c>
+      <c r="Q226">
+        <v>1.25</v>
+      </c>
+      <c r="R226">
+        <v>1.925</v>
+      </c>
+      <c r="S226">
+        <v>1.925</v>
+      </c>
+      <c r="T226">
+        <v>3.25</v>
+      </c>
+      <c r="U226">
+        <v>2.05</v>
+      </c>
+      <c r="V226">
+        <v>1.8</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
         <v>0</v>
       </c>
     </row>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Weiche Flensburg 08</t>
   </si>
   <si>
+    <t>Hamburg SV II</t>
+  </si>
+  <si>
     <t>TSV Havelse</t>
   </si>
   <si>
     <t>St Pauli II</t>
   </si>
   <si>
-    <t>Hamburg SV II</t>
+    <t>SC SpelleVenhaus</t>
   </si>
   <si>
     <t>Bremer SV</t>
-  </si>
-  <si>
-    <t>SC SpelleVenhaus</t>
   </si>
   <si>
     <t>Hannover II</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC226"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6920333</v>
+        <v>6920335</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,52 +904,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>2.55</v>
+      </c>
+      <c r="O5">
         <v>3.25</v>
       </c>
-      <c r="N5">
-        <v>1.8</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
         <v>1.85</v>
-      </c>
-      <c r="S5">
-        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -958,19 +958,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6920334</v>
+        <v>6920333</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,31 +993,31 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N6">
         <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>3.3</v>
@@ -1044,10 +1044,10 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
@@ -1056,10 +1056,10 @@
         <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6920335</v>
+        <v>6920334</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.85</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6920336</v>
+        <v>6920337</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,37 +1171,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
         <v>1.95</v>
@@ -1210,31 +1210,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.475</v>
+      </c>
+      <c r="AA8">
         <v>-0.5</v>
       </c>
-      <c r="AA8">
-        <v>0.45</v>
-      </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6920337</v>
+        <v>6920336</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,37 +1260,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1299,31 +1299,31 @@
         <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1524,10 +1524,10 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1794,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2147,7 +2147,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6920351</v>
+        <v>6920350</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2236,76 +2236,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
+        <v>2.25</v>
+      </c>
+      <c r="L20">
+        <v>3.75</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.05</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>2.75</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>1.615</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.775</v>
-      </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6920350</v>
+        <v>6920351</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,76 +2325,76 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
+        <v>1.615</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1.775</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>2.75</v>
       </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.875</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>1.775</v>
+      </c>
+      <c r="V21">
+        <v>2.025</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="U21">
-        <v>1.875</v>
-      </c>
-      <c r="V21">
-        <v>1.925</v>
-      </c>
-      <c r="W21">
-        <v>1.05</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2951,7 +2951,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>45158.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -3393,7 +3393,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6920365</v>
+        <v>6919326</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,40 +3571,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="L35">
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
         <v>1.925</v>
@@ -3613,16 +3613,16 @@
         <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3637,7 +3637,7 @@
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6919326</v>
+        <v>6920365</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,40 +3660,40 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
         <v>3.75</v>
       </c>
       <c r="M36">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
         <v>1.925</v>
@@ -3702,16 +3702,16 @@
         <v>1.875</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3726,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3927,7 +3927,7 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4108,7 +4108,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4286,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4642,7 +4642,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6919327</v>
+        <v>6920376</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,73 +4728,73 @@
         <v>45172.375</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48">
+        <v>1.571</v>
+      </c>
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="I48">
+      <c r="M48">
+        <v>4.5</v>
+      </c>
+      <c r="N48">
+        <v>1.4</v>
+      </c>
+      <c r="O48">
+        <v>4.75</v>
+      </c>
+      <c r="P48">
+        <v>5.25</v>
+      </c>
+      <c r="Q48">
+        <v>-1.25</v>
+      </c>
+      <c r="R48">
+        <v>1.9</v>
+      </c>
+      <c r="S48">
+        <v>1.95</v>
+      </c>
+      <c r="T48">
+        <v>3.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1.85</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <v>3.75</v>
+      </c>
+      <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>0.95</v>
+      </c>
+      <c r="AB48">
         <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48">
-        <v>2.2</v>
-      </c>
-      <c r="L48">
-        <v>3.75</v>
-      </c>
-      <c r="M48">
-        <v>2.55</v>
-      </c>
-      <c r="N48">
-        <v>2.7</v>
-      </c>
-      <c r="O48">
-        <v>4</v>
-      </c>
-      <c r="P48">
-        <v>2.05</v>
-      </c>
-      <c r="Q48">
-        <v>0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.925</v>
-      </c>
-      <c r="S48">
-        <v>1.925</v>
-      </c>
-      <c r="T48">
-        <v>3.25</v>
-      </c>
-      <c r="U48">
-        <v>1.95</v>
-      </c>
-      <c r="V48">
-        <v>1.9</v>
-      </c>
-      <c r="W48">
-        <v>1.7</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>0.925</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>0.95</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6920376</v>
+        <v>6919327</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,73 +4817,73 @@
         <v>45172.375</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
+        <v>3.75</v>
+      </c>
+      <c r="M49">
+        <v>2.55</v>
+      </c>
+      <c r="N49">
+        <v>2.7</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="M49">
-        <v>4.5</v>
-      </c>
-      <c r="N49">
-        <v>1.4</v>
-      </c>
-      <c r="O49">
-        <v>4.75</v>
-      </c>
       <c r="P49">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
+        <v>3.25</v>
+      </c>
+      <c r="U49">
+        <v>1.95</v>
+      </c>
+      <c r="V49">
         <v>1.9</v>
       </c>
-      <c r="S49">
-        <v>1.95</v>
-      </c>
-      <c r="T49">
-        <v>3.5</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.85</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X49">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.95</v>
-      </c>
-      <c r="AB49">
-        <v>1</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4906,7 +4906,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>41</v>
@@ -5173,10 +5173,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6920381</v>
+        <v>6920382</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6920382</v>
+        <v>6920381</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P56">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R56">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6920384</v>
+        <v>6920386</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,43 +5618,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="K58">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N58">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
         <v>2</v>
@@ -5666,10 +5666,10 @@
         <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>44</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6920386</v>
+        <v>6920384</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,43 +5796,43 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5844,10 +5844,10 @@
         <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5977,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6920393</v>
+        <v>6920392</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N65">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O65">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>1</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6920392</v>
+        <v>6920393</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66">
+        <v>2.3</v>
+      </c>
+      <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>2.5</v>
+      </c>
+      <c r="N66">
+        <v>2.1</v>
+      </c>
+      <c r="O66">
+        <v>3.6</v>
+      </c>
+      <c r="P66">
+        <v>2.8</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.9</v>
+      </c>
+      <c r="T66">
+        <v>3.25</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <v>1.8</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>1.8</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB66">
         <v>1</v>
       </c>
-      <c r="J66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K66">
-        <v>1.125</v>
-      </c>
-      <c r="L66">
-        <v>7.5</v>
-      </c>
-      <c r="M66">
-        <v>11</v>
-      </c>
-      <c r="N66">
-        <v>1.3</v>
-      </c>
-      <c r="O66">
-        <v>4.75</v>
-      </c>
-      <c r="P66">
-        <v>7.5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.75</v>
-      </c>
-      <c r="R66">
-        <v>1.925</v>
-      </c>
-      <c r="S66">
-        <v>1.875</v>
-      </c>
-      <c r="T66">
-        <v>3.75</v>
-      </c>
-      <c r="U66">
-        <v>1.8</v>
-      </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
-      <c r="W66">
-        <v>0.3</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
-      <c r="AA66">
-        <v>0.875</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6600,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>45188.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
@@ -6864,7 +6864,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
@@ -6956,7 +6956,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6920399</v>
+        <v>6920400</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,40 +7220,40 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
+        <v>1.7</v>
+      </c>
+      <c r="L76">
+        <v>4.2</v>
+      </c>
+      <c r="M76">
         <v>3.5</v>
       </c>
-      <c r="L76">
-        <v>3.5</v>
-      </c>
-      <c r="M76">
-        <v>1.85</v>
-      </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
         <v>1.9</v>
@@ -7262,22 +7262,22 @@
         <v>1.9</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
@@ -7286,10 +7286,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6920400</v>
+        <v>6920399</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,40 +7309,40 @@
         <v>45193.375</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N77">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
         <v>1.9</v>
@@ -7351,22 +7351,22 @@
         <v>1.9</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z77">
         <v>-1</v>
@@ -7375,10 +7375,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6920402</v>
+        <v>7264186</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
         <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O80">
         <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7264186</v>
+        <v>6920402</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N81">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
         <v>3.6</v>
       </c>
       <c r="P81">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>45199.60416666666</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6920414</v>
+        <v>6922683</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6922683</v>
+        <v>6920414</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N94">
+        <v>2.2</v>
+      </c>
+      <c r="O94">
+        <v>3.6</v>
+      </c>
+      <c r="P94">
+        <v>2.6</v>
+      </c>
+      <c r="Q94">
+        <v>-0.25</v>
+      </c>
+      <c r="R94">
+        <v>2.025</v>
+      </c>
+      <c r="S94">
+        <v>1.775</v>
+      </c>
+      <c r="T94">
+        <v>3.5</v>
+      </c>
+      <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
+        <v>1.925</v>
+      </c>
+      <c r="W94">
         <v>1.2</v>
       </c>
-      <c r="O94">
-        <v>5.75</v>
-      </c>
-      <c r="P94">
-        <v>9.5</v>
-      </c>
-      <c r="Q94">
-        <v>-2</v>
-      </c>
-      <c r="R94">
-        <v>2</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>3.75</v>
-      </c>
-      <c r="U94">
-        <v>1.95</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6920417</v>
+        <v>6920416</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
         <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O95">
         <v>4</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920416</v>
+        <v>6920417</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N96">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
         <v>4</v>
       </c>
       <c r="P96">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
+        <v>2</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>3</v>
       </c>
-      <c r="U96">
-        <v>1.975</v>
-      </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,10 +9089,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P100">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>7</v>
@@ -9623,7 +9623,7 @@
         <v>45214.375</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9804,7 +9804,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N106">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O106">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q106">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z106">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB106">
         <v>-0.5</v>
       </c>
-      <c r="AB106">
-        <v>0.825</v>
-      </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M107">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N107">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P107">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6920437</v>
+        <v>6920441</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,70 +10691,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N115">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="O115">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="Q115">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
         <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
         <v>0.9750000000000001</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6920441</v>
+        <v>6920437</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,70 +10780,70 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P116">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U116">
         <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>0.9750000000000001</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X119">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920447</v>
+        <v>6920446</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,10 +11225,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11240,61 +11240,61 @@
         <v>49</v>
       </c>
       <c r="K121">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L121">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
+        <v>1.875</v>
+      </c>
+      <c r="S121">
         <v>1.975</v>
       </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
       <c r="T121">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920445</v>
+        <v>6920447</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K122">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L122">
+        <v>4.2</v>
+      </c>
+      <c r="M122">
         <v>4.75</v>
       </c>
-      <c r="M122">
-        <v>6</v>
-      </c>
       <c r="N122">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O122">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="Q122">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
         <v>1.875</v>
       </c>
       <c r="W122">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920446</v>
+        <v>6920445</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="O123">
+        <v>5.75</v>
+      </c>
+      <c r="P123">
+        <v>9</v>
+      </c>
+      <c r="Q123">
+        <v>-2</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
         <v>3.75</v>
       </c>
-      <c r="P123">
-        <v>1.95</v>
-      </c>
-      <c r="Q123">
-        <v>0.5</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.975</v>
+      </c>
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
-      <c r="T123">
-        <v>3.25</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11851,7 +11851,7 @@
         <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12029,7 +12029,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -12382,7 +12382,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
@@ -12474,7 +12474,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12649,7 +12649,7 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
         <v>44</v>
@@ -12830,7 +12830,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>45252.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13453,7 +13453,7 @@
         <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13809,7 +13809,7 @@
         <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13984,10 +13984,10 @@
         <v>45270.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>39</v>
@@ -14432,7 +14432,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -14607,10 +14607,10 @@
         <v>45325.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>5</v>
@@ -14963,7 +14963,7 @@
         <v>45333.375</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6920496</v>
+        <v>6920498</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,55 +15052,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
+        <v>2.6</v>
+      </c>
+      <c r="N164">
         <v>2.25</v>
       </c>
-      <c r="N164">
-        <v>2.375</v>
-      </c>
       <c r="O164">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15109,16 +15109,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920498</v>
+        <v>6920496</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N166">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,16 +15287,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15319,7 +15319,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>40</v>
@@ -15500,7 +15500,7 @@
         <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15764,10 +15764,10 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7136647</v>
+        <v>6920508</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45346.375</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X176">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16197,7 +16197,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6920508</v>
+        <v>7136647</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16209,76 +16209,76 @@
         <v>45346.375</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N177">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
         <v>39</v>
@@ -16476,7 +16476,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>38</v>
@@ -16746,7 +16746,7 @@
         <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17366,10 +17366,10 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F190" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" t="s">
         <v>33</v>
-      </c>
-      <c r="G190" t="s">
-        <v>32</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
         <v>40</v>
@@ -17633,7 +17633,7 @@
         <v>45357.625</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
         <v>45</v>
@@ -17725,7 +17725,7 @@
         <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17903,7 +17903,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18167,7 +18167,7 @@
         <v>45361.375</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>45</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6920529</v>
+        <v>6920527</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K200">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L200">
         <v>4</v>
       </c>
       <c r="M200">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N200">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O200">
         <v>3.6</v>
       </c>
       <c r="P200">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
+        <v>1.975</v>
+      </c>
+      <c r="S200">
+        <v>1.825</v>
+      </c>
+      <c r="T200">
+        <v>3</v>
+      </c>
+      <c r="U200">
+        <v>1.875</v>
+      </c>
+      <c r="V200">
         <v>1.925</v>
       </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.75</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.875</v>
-      </c>
       <c r="W200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6920527</v>
+        <v>6920530</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,55 +18345,55 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
         <v>3</v>
-      </c>
-      <c r="I201">
-        <v>4</v>
       </c>
       <c r="J201" t="s">
         <v>48</v>
       </c>
       <c r="K201">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="L201">
+        <v>4.333</v>
+      </c>
+      <c r="M201">
+        <v>1.444</v>
+      </c>
+      <c r="N201">
+        <v>5.5</v>
+      </c>
+      <c r="O201">
         <v>4</v>
       </c>
-      <c r="M201">
-        <v>4.2</v>
-      </c>
-      <c r="N201">
-        <v>1.75</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
       <c r="P201">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>3.25</v>
+      </c>
+      <c r="U201">
         <v>1.825</v>
       </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>1.875</v>
-      </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18402,19 +18402,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6920528</v>
+        <v>6920529</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K202">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L202">
         <v>4</v>
       </c>
       <c r="M202">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N202">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O202">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q202">
-        <v>1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
         <v>1.975</v>
       </c>
-      <c r="T202">
-        <v>3.5</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6920530</v>
+        <v>6920528</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,13 +18523,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>3</v>
@@ -18538,22 +18538,22 @@
         <v>48</v>
       </c>
       <c r="K203">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="L203">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="N203">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q203">
         <v>1.25</v>
@@ -18562,16 +18562,16 @@
         <v>1.825</v>
       </c>
       <c r="S203">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18580,19 +18580,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC203">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18793,7 +18793,7 @@
         <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -18971,7 +18971,7 @@
         <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19235,7 +19235,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
         <v>31</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6920542</v>
+        <v>6919345</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,76 +19591,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H215">
         <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L215">
         <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N215">
+        <v>1.7</v>
+      </c>
+      <c r="O215">
+        <v>3.5</v>
+      </c>
+      <c r="P215">
+        <v>4.2</v>
+      </c>
+      <c r="Q215">
+        <v>-0.75</v>
+      </c>
+      <c r="R215">
+        <v>1.95</v>
+      </c>
+      <c r="S215">
+        <v>1.85</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
+        <v>1.775</v>
+      </c>
+      <c r="V215">
+        <v>2.025</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
         <v>2.5</v>
       </c>
-      <c r="O215">
-        <v>3.6</v>
-      </c>
-      <c r="P215">
-        <v>2.3</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>1.975</v>
-      </c>
-      <c r="S215">
-        <v>1.875</v>
-      </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
-      <c r="U215">
-        <v>1.875</v>
-      </c>
-      <c r="V215">
-        <v>1.975</v>
-      </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
       <c r="Y215">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19668,7 +19668,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6919345</v>
+        <v>6920544</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19680,76 +19680,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K216">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M216">
+        <v>3.4</v>
+      </c>
+      <c r="N216">
+        <v>1.533</v>
+      </c>
+      <c r="O216">
+        <v>4.2</v>
+      </c>
+      <c r="P216">
         <v>4.5</v>
       </c>
-      <c r="N216">
-        <v>1.7</v>
-      </c>
-      <c r="O216">
-        <v>3.5</v>
-      </c>
-      <c r="P216">
-        <v>4.2</v>
-      </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R216">
+        <v>1.85</v>
+      </c>
+      <c r="S216">
         <v>1.95</v>
       </c>
-      <c r="S216">
-        <v>1.85</v>
-      </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U216">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X216">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19757,7 +19757,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6920544</v>
+        <v>6920542</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,76 +19769,76 @@
         <v>45375.41666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>48</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+      <c r="L217">
+        <v>3.75</v>
+      </c>
+      <c r="M217">
+        <v>2.875</v>
+      </c>
+      <c r="N217">
+        <v>2.5</v>
+      </c>
+      <c r="O217">
+        <v>3.6</v>
+      </c>
+      <c r="P217">
+        <v>2.3</v>
+      </c>
+      <c r="Q217">
         <v>0</v>
       </c>
-      <c r="J217" t="s">
-        <v>47</v>
-      </c>
-      <c r="K217">
-        <v>1.75</v>
-      </c>
-      <c r="L217">
-        <v>4</v>
-      </c>
-      <c r="M217">
-        <v>3.4</v>
-      </c>
-      <c r="N217">
-        <v>1.533</v>
-      </c>
-      <c r="O217">
-        <v>4.2</v>
-      </c>
-      <c r="P217">
-        <v>4.5</v>
-      </c>
-      <c r="Q217">
-        <v>-1</v>
-      </c>
       <c r="R217">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
         <v>3</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19858,10 +19858,10 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F218" t="s">
+        <v>35</v>
+      </c>
+      <c r="G218" t="s">
         <v>36</v>
-      </c>
-      <c r="G218" t="s">
-        <v>35</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20036,7 +20036,7 @@
         <v>45378.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20125,7 +20125,7 @@
         <v>45379.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
         <v>41</v>
@@ -20306,7 +20306,7 @@
         <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -20380,7 +20380,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7983290</v>
+        <v>7962340</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,72 +20389,87 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45383.375</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>47</v>
       </c>
       <c r="K224">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L224">
         <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N224">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T224">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7764320</v>
+        <v>7983290</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,72 +20478,87 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45383.41666666666</v>
+        <v>45383.375</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G225" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>3</v>
+      </c>
+      <c r="J225" t="s">
+        <v>48</v>
       </c>
       <c r="K225">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L225">
         <v>3.6</v>
       </c>
       <c r="M225">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N225">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>0.95</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8005201</v>
+        <v>7764320</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20543,58 +20573,162 @@
         <v>36</v>
       </c>
       <c r="G226" t="s">
+        <v>45</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>47</v>
+      </c>
+      <c r="K226">
+        <v>2.15</v>
+      </c>
+      <c r="L226">
+        <v>3.6</v>
+      </c>
+      <c r="M226">
+        <v>2.7</v>
+      </c>
+      <c r="N226">
+        <v>2.4</v>
+      </c>
+      <c r="O226">
+        <v>3.4</v>
+      </c>
+      <c r="P226">
+        <v>2.45</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
+        <v>2</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>1.9</v>
+      </c>
+      <c r="V226">
+        <v>1.9</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>0.8</v>
+      </c>
+      <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>8005201</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45383.41666666666</v>
+      </c>
+      <c r="F227" t="s">
+        <v>35</v>
+      </c>
+      <c r="G227" t="s">
         <v>31</v>
       </c>
-      <c r="K226">
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227" t="s">
+        <v>48</v>
+      </c>
+      <c r="K227">
         <v>4.6</v>
       </c>
-      <c r="L226">
+      <c r="L227">
         <v>4.333</v>
       </c>
-      <c r="M226">
+      <c r="M227">
         <v>1.5</v>
       </c>
-      <c r="N226">
-        <v>5.5</v>
-      </c>
-      <c r="O226">
-        <v>4.333</v>
-      </c>
-      <c r="P226">
-        <v>1.444</v>
-      </c>
-      <c r="Q226">
-        <v>1.25</v>
-      </c>
-      <c r="R226">
+      <c r="N227">
+        <v>4.75</v>
+      </c>
+      <c r="O227">
+        <v>4</v>
+      </c>
+      <c r="P227">
+        <v>1.5</v>
+      </c>
+      <c r="Q227">
+        <v>1</v>
+      </c>
+      <c r="R227">
         <v>1.925</v>
       </c>
-      <c r="S226">
+      <c r="S227">
+        <v>1.875</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
+        <v>1.875</v>
+      </c>
+      <c r="V227">
         <v>1.925</v>
       </c>
-      <c r="T226">
-        <v>3.25</v>
-      </c>
-      <c r="U226">
-        <v>2.05</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
-      <c r="W226">
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>0.5</v>
+      </c>
+      <c r="Z227">
+        <v>-1</v>
+      </c>
+      <c r="AA227">
+        <v>0.875</v>
+      </c>
+      <c r="AB227">
         <v>0</v>
       </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
-        <v>0</v>
+      <c r="AC227">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Regionalliga North/Germany Regionalliga North.xlsx
+++ b/Germany Regionalliga North/Germany Regionalliga North.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -133,13 +133,13 @@
     <t>SV DrochtersenAssel</t>
   </si>
   <si>
-    <t>Eimsbutteler TV</t>
-  </si>
-  <si>
     <t>FC Teutonia 05</t>
   </si>
   <si>
     <t>Eintracht Norderstedt</t>
+  </si>
+  <si>
+    <t>Eimsbutteler TV</t>
   </si>
   <si>
     <t>VfB Oldenburg</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6920344</v>
+        <v>6919324</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,73 +1616,73 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>2.35</v>
+        <v>2.625</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R13">
+        <v>1.975</v>
+      </c>
+      <c r="S13">
         <v>1.825</v>
       </c>
-      <c r="S13">
+      <c r="T13">
+        <v>3.5</v>
+      </c>
+      <c r="U13">
         <v>1.975</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>1.975</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.825</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6919324</v>
+        <v>6920343</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,10 +1705,10 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1717,43 +1717,43 @@
         <v>47</v>
       </c>
       <c r="K14">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N14">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>1.825</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>3.5</v>
-      </c>
-      <c r="U14">
-        <v>1.975</v>
-      </c>
-      <c r="V14">
-        <v>1.825</v>
-      </c>
       <c r="W14">
-        <v>0.2849999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1762,16 +1762,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6920343</v>
+        <v>6920344</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,43 +1794,43 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
+        <v>4.1</v>
+      </c>
+      <c r="M15">
+        <v>2.35</v>
+      </c>
+      <c r="N15">
+        <v>3.6</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="M15">
-        <v>5.25</v>
-      </c>
-      <c r="N15">
-        <v>1.444</v>
-      </c>
-      <c r="O15">
-        <v>4.2</v>
-      </c>
       <c r="P15">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
         <v>3</v>
@@ -1842,25 +1842,25 @@
         <v>1.975</v>
       </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>45157.375</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3304,7 +3304,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3571,7 +3571,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3752,7 +3752,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6920366</v>
+        <v>6920364</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45165.375</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
         <v>3.6</v>
       </c>
       <c r="N39">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
         <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6920369</v>
+        <v>6920366</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45165.375</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40">
+        <v>1.75</v>
+      </c>
+      <c r="L40">
+        <v>3.75</v>
+      </c>
+      <c r="M40">
+        <v>3.6</v>
+      </c>
+      <c r="N40">
+        <v>1.533</v>
+      </c>
+      <c r="O40">
         <v>4</v>
       </c>
-      <c r="J40" t="s">
-        <v>48</v>
-      </c>
-      <c r="K40">
-        <v>2.1</v>
-      </c>
-      <c r="L40">
-        <v>3.6</v>
-      </c>
-      <c r="M40">
-        <v>2.8</v>
-      </c>
-      <c r="N40">
-        <v>2.25</v>
-      </c>
-      <c r="O40">
-        <v>3.4</v>
-      </c>
       <c r="P40">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6920364</v>
+        <v>6920369</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,55 +4105,55 @@
         <v>45165.375</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
         <v>3.6</v>
       </c>
       <c r="M41">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
         <v>3.25</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
         <v>-1</v>
@@ -4162,16 +4162,16 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
+        <v>0.8</v>
+      </c>
+      <c r="AB41">
         <v>0.925</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4639,7 +4639,7 @@
         <v>45172.375</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4820,7 +4820,7 @@
         <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4909,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -5084,10 +5084,10 @@
         <v>45175.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6920382</v>
+        <v>6920381</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6920381</v>
+        <v>6920382</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45178.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O56">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P56">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q56">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5529,7 +5529,7 @@
         <v>45179.375</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>
@@ -5796,7 +5796,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5885,7 +5885,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -6066,7 +6066,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6155,7 +6155,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6920392</v>
+        <v>6920393</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,76 +6241,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65">
+        <v>2.3</v>
+      </c>
+      <c r="L65">
+        <v>3.6</v>
+      </c>
+      <c r="M65">
+        <v>2.5</v>
+      </c>
+      <c r="N65">
+        <v>2.1</v>
+      </c>
+      <c r="O65">
+        <v>3.6</v>
+      </c>
+      <c r="P65">
+        <v>2.8</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
+        <v>1.9</v>
+      </c>
+      <c r="S65">
+        <v>1.9</v>
+      </c>
+      <c r="T65">
+        <v>3.25</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>1.8</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>1.8</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB65">
         <v>1</v>
       </c>
-      <c r="J65" t="s">
-        <v>47</v>
-      </c>
-      <c r="K65">
-        <v>1.125</v>
-      </c>
-      <c r="L65">
-        <v>7.5</v>
-      </c>
-      <c r="M65">
-        <v>11</v>
-      </c>
-      <c r="N65">
-        <v>1.3</v>
-      </c>
-      <c r="O65">
-        <v>4.75</v>
-      </c>
-      <c r="P65">
-        <v>7.5</v>
-      </c>
-      <c r="Q65">
-        <v>-1.75</v>
-      </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.875</v>
-      </c>
-      <c r="T65">
-        <v>3.75</v>
-      </c>
-      <c r="U65">
-        <v>1.8</v>
-      </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
-      <c r="W65">
-        <v>0.3</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.875</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6920393</v>
+        <v>6920392</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45186.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M66">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O66">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>1</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7220,7 +7220,7 @@
         <v>45193.375</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
         <v>45</v>
@@ -7398,7 +7398,7 @@
         <v>45193.375</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7846,7 +7846,7 @@
         <v>45</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8199,10 +8199,10 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -8733,10 +8733,10 @@
         <v>45207.375</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>45207.375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
         <v>34</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6920416</v>
+        <v>6920417</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
         <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="N95">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
         <v>4</v>
       </c>
       <c r="P95">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
+        <v>2</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>3</v>
       </c>
-      <c r="U95">
-        <v>1.975</v>
-      </c>
-      <c r="V95">
-        <v>1.875</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6920417</v>
+        <v>6920416</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
         <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
         <v>4</v>
       </c>
       <c r="P96">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6920423</v>
+        <v>6920421</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6920421</v>
+        <v>6920423</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>1.4</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,16 +9416,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6920429</v>
+        <v>7361158</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45220.375</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="L106">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M106">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="N106">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P106">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7361158</v>
+        <v>6920429</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="L107">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>9</v>
+        <v>1.666</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="O107">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z107">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AB107">
-        <v>0.825</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6920432</v>
+        <v>6919333</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,76 +10157,76 @@
         <v>45221.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
         <v>4</v>
       </c>
-      <c r="L109">
-        <v>4.2</v>
-      </c>
       <c r="M109">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="N109">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6919333</v>
+        <v>6920432</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10249,73 +10249,73 @@
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>4.2</v>
+      </c>
+      <c r="M110">
+        <v>1.6</v>
+      </c>
+      <c r="N110">
+        <v>2.45</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>2.2</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
         <v>1.8</v>
       </c>
-      <c r="L110">
-        <v>4</v>
-      </c>
-      <c r="M110">
-        <v>3.25</v>
-      </c>
-      <c r="N110">
-        <v>1.5</v>
-      </c>
-      <c r="O110">
-        <v>4.333</v>
-      </c>
-      <c r="P110">
-        <v>4.75</v>
-      </c>
-      <c r="Q110">
-        <v>-1</v>
-      </c>
-      <c r="R110">
-        <v>1.825</v>
-      </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6920440</v>
+        <v>6920442</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L119">
         <v>4</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6920442</v>
+        <v>6920440</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>4</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>3.25</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6920446</v>
+        <v>6920447</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,10 +11225,10 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11240,61 +11240,61 @@
         <v>49</v>
       </c>
       <c r="K121">
+        <v>1.5</v>
+      </c>
+      <c r="L121">
+        <v>4.2</v>
+      </c>
+      <c r="M121">
+        <v>4.75</v>
+      </c>
+      <c r="N121">
+        <v>1.6</v>
+      </c>
+      <c r="O121">
+        <v>4</v>
+      </c>
+      <c r="P121">
+        <v>4.2</v>
+      </c>
+      <c r="Q121">
+        <v>-1</v>
+      </c>
+      <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
+        <v>1.825</v>
+      </c>
+      <c r="T121">
+        <v>3.5</v>
+      </c>
+      <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
+        <v>1.875</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
         <v>3</v>
       </c>
-      <c r="L121">
-        <v>4</v>
-      </c>
-      <c r="M121">
-        <v>1.909</v>
-      </c>
-      <c r="N121">
-        <v>3.1</v>
-      </c>
-      <c r="O121">
-        <v>3.75</v>
-      </c>
-      <c r="P121">
-        <v>1.95</v>
-      </c>
-      <c r="Q121">
-        <v>0.5</v>
-      </c>
-      <c r="R121">
-        <v>1.875</v>
-      </c>
-      <c r="S121">
-        <v>1.975</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.95</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
-      <c r="W121">
-        <v>-1</v>
-      </c>
-      <c r="X121">
-        <v>2.75</v>
-      </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
+        <v>0.825</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>0.875</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>-1</v>
-      </c>
-      <c r="AC121">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6920447</v>
+        <v>6920445</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L122">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M122">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N122">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O122">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P122">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>3.75</v>
+      </c>
+      <c r="U122">
         <v>1.975</v>
-      </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
-      <c r="T122">
-        <v>3.5</v>
-      </c>
-      <c r="U122">
-        <v>1.925</v>
       </c>
       <c r="V122">
         <v>1.875</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6920445</v>
+        <v>6920446</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="Q123">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
+        <v>1.875</v>
+      </c>
+      <c r="S123">
+        <v>1.975</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
         <v>1.95</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.9</v>
       </c>
-      <c r="T123">
-        <v>3.75</v>
-      </c>
-      <c r="U123">
-        <v>1.975</v>
-      </c>
-      <c r="V123">
-        <v>1.875</v>
-      </c>
       <c r="W123">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11492,7 +11492,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
         <v>43</v>
@@ -11581,7 +11581,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -12204,7 +12204,7 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12296,7 +12296,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -12385,7 +12385,7 @@
         <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6920460</v>
+        <v>6920573</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136" t="s">
+        <v>48</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+      <c r="M136">
+        <v>1.3</v>
+      </c>
+      <c r="N136">
+        <v>4.2</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>1.6</v>
+      </c>
+      <c r="Q136">
         <v>1</v>
       </c>
-      <c r="J136" t="s">
-        <v>47</v>
-      </c>
-      <c r="K136">
-        <v>1.909</v>
-      </c>
-      <c r="L136">
-        <v>4</v>
-      </c>
-      <c r="M136">
+      <c r="R136">
+        <v>1.775</v>
+      </c>
+      <c r="S136">
+        <v>2.025</v>
+      </c>
+      <c r="T136">
         <v>3</v>
-      </c>
-      <c r="N136">
-        <v>1.571</v>
-      </c>
-      <c r="O136">
-        <v>4.5</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
-      <c r="Q136">
-        <v>-1</v>
-      </c>
-      <c r="R136">
-        <v>2.05</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>3.25</v>
       </c>
       <c r="U136">
         <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6920573</v>
+        <v>6920460</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45248.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
         <v>4</v>
       </c>
-      <c r="P137">
-        <v>1.6</v>
-      </c>
       <c r="Q137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
         <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12916,7 +12916,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         <v>45251.625</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
         <v>38</v>
@@ -13097,7 +13097,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13717,7 +13717,7 @@
         <v>45256.41666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13806,7 +13806,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -14073,10 +14073,10 @@
         <v>45277.41666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>39</v>
+      </c>
+      <c r="G153" t="s">
         <v>40</v>
-      </c>
-      <c r="G153" t="s">
-        <v>41</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14343,7 +14343,7 @@
         <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6920498</v>
+        <v>6920497</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,52 +15052,52 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
         <v>1</v>
-      </c>
-      <c r="I164">
-        <v>3</v>
       </c>
       <c r="J164" t="s">
         <v>48</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
         <v>1.925</v>
@@ -15109,19 +15109,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.925</v>
-      </c>
-      <c r="AC164">
-        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6920497</v>
+        <v>6920496</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,34 +15141,34 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J165" t="s">
         <v>48</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
         <v>3.75</v>
       </c>
       <c r="M165">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N165">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
         <v>2.5</v>
@@ -15177,19 +15177,19 @@
         <v>0</v>
       </c>
       <c r="R165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15204,13 +15204,13 @@
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6920496</v>
+        <v>6920498</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,55 +15230,55 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J166" t="s">
         <v>48</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
+        <v>2.6</v>
+      </c>
+      <c r="N166">
         <v>2.25</v>
       </c>
-      <c r="N166">
-        <v>2.375</v>
-      </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15287,16 +15287,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15322,7 +15322,7 @@
         <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15411,7 +15411,7 @@
         <v>38</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6920503</v>
+        <v>7830717</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,13 +15675,13 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15690,40 +15690,40 @@
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L171">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M171">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N171">
         <v>1.85</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
         <v>-0.5</v>
       </c>
       <c r="R171">
-        <